--- a/Test Cases/Poornima/Test Case- Store.xlsx
+++ b/Test Cases/Poornima/Test Case- Store.xlsx
@@ -5,27 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\Mediware-Repository\Test Cases\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D2827-D3EC-4504-BD2C-D0303DE3F178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848B622-C70C-4FFD-83D0-B811BA9C4D02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STR" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="351">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -975,9 +981,6 @@
 5.Received By</t>
   </si>
   <si>
-    <t>User should be able to enter all the mandatory fields</t>
-  </si>
-  <si>
     <t>User should be able to enter all the mandatory fields
 1.Hospital
 2.Issued By
@@ -1044,9 +1047,6 @@
     <t>User should be able to select the  GRN view.  GRN view list should be displayed</t>
   </si>
   <si>
-    <t>Enter all the mandatory fields</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select Item </t>
   </si>
   <si>
@@ -1156,6 +1156,74 @@
   </si>
   <si>
     <t>Data saved' pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0038</t>
+  </si>
+  <si>
+    <t>To verify that Charges in GRN</t>
+  </si>
+  <si>
+    <t>Click on Charges F6</t>
+  </si>
+  <si>
+    <t>Charge Entry pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Select  charges</t>
+  </si>
+  <si>
+    <t>User should be able to select the charge</t>
+  </si>
+  <si>
+    <t>amount:150</t>
+  </si>
+  <si>
+    <t>Click on additem&gt;&gt;Click on Select</t>
+  </si>
+  <si>
+    <t>Charge should be added</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0039</t>
+  </si>
+  <si>
+    <t>To verify Hold a GRN</t>
+  </si>
+  <si>
+    <t>Click on Add New&gt;&gt;Enter all the mandatory fields
+1.Supplier
+2.Invoice#
+3.Item</t>
+  </si>
+  <si>
+    <t>User should be able to enter all the mandatory fields
+1.Supplier
+2.Invoice#
+3.Item</t>
+  </si>
+  <si>
+    <t>1.Supplier:Axis Technologis
+2.Invoice#:548
+3.Item:3019 Sb prot skin</t>
+  </si>
+  <si>
+    <t>User should be able to click the Add New button. Goods Receipt Notes page should be displayed</t>
+  </si>
+  <si>
+    <t>Item:3019 Sb prot Skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add item </t>
+  </si>
+  <si>
+    <t>Item should be added</t>
+  </si>
+  <si>
+    <t>Click on Hold GRN (red lock icon[Alt+H])at the bottom page</t>
+  </si>
+  <si>
+    <t>User should be able to click Hold GRN button. A message pop-up should be displayed with a  message 'GRn has been hold'</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1368,46 +1436,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1418,8 +1459,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1739,8 +1792,8 @@
   <dimension ref="A1:S717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B364" sqref="B364"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,19 +1844,19 @@
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="28"/>
+      <c r="P1" s="29"/>
       <c r="R1" s="27" t="s">
         <v>10</v>
       </c>
@@ -1819,7 +1872,7 @@
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="5">
@@ -1844,7 +1897,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -1858,7 +1911,7 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5">
         <v>2</v>
       </c>
@@ -1895,7 +1948,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5">
         <v>3</v>
       </c>
@@ -1926,7 +1979,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="26"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5">
         <v>4</v>
       </c>
@@ -1949,7 +2002,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="D6" s="26"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5">
         <v>5</v>
       </c>
@@ -1965,7 +2018,7 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="26"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5">
         <v>6</v>
       </c>
@@ -1981,7 +2034,7 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="26"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="5">
         <v>7</v>
       </c>
@@ -1993,7 +2046,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="26"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="5">
         <v>8</v>
       </c>
@@ -2009,7 +2062,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D10" s="26"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="5">
         <v>9</v>
       </c>
@@ -2023,7 +2076,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="D11" s="26"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="5">
         <v>10</v>
       </c>
@@ -2039,7 +2092,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="26"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5">
         <v>11</v>
       </c>
@@ -2055,7 +2108,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="26"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5">
         <v>12</v>
       </c>
@@ -2071,7 +2124,7 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="26"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="5">
         <v>13</v>
       </c>
@@ -2096,7 +2149,7 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="5">
@@ -2114,7 +2167,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="26"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="5">
         <v>2</v>
       </c>
@@ -2130,7 +2183,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="26"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5">
         <v>3</v>
       </c>
@@ -2146,7 +2199,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="26"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5">
         <v>4</v>
       </c>
@@ -2162,7 +2215,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D20" s="26"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="5">
         <v>5</v>
       </c>
@@ -2178,7 +2231,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="26"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="5">
         <v>6</v>
       </c>
@@ -2194,7 +2247,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D22" s="26"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="5">
         <v>7</v>
       </c>
@@ -2207,7 +2260,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="26"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="5">
         <v>8</v>
       </c>
@@ -2223,7 +2276,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="26"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5">
         <v>9</v>
       </c>
@@ -2237,7 +2290,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D25" s="26"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5">
         <v>10</v>
       </c>
@@ -2253,7 +2306,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D26" s="26"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="5">
         <v>11</v>
       </c>
@@ -2269,7 +2322,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="26"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="5">
         <v>12</v>
       </c>
@@ -2282,7 +2335,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D28" s="26"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="5">
         <v>13</v>
       </c>
@@ -2308,7 +2361,7 @@
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="5">
@@ -2326,7 +2379,7 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="26"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="5">
         <v>2</v>
       </c>
@@ -2342,7 +2395,7 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="26"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="5">
         <v>3</v>
       </c>
@@ -2358,7 +2411,7 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="26"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="5">
         <v>4</v>
       </c>
@@ -2374,7 +2427,7 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D34" s="26"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="5">
         <v>5</v>
       </c>
@@ -2390,7 +2443,7 @@
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="26"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="5">
         <v>6</v>
       </c>
@@ -2406,7 +2459,7 @@
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D36" s="26"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5">
         <v>7</v>
       </c>
@@ -2419,7 +2472,7 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="26"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="5">
         <v>8</v>
       </c>
@@ -2435,7 +2488,7 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="26"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="5">
         <v>9</v>
       </c>
@@ -2449,7 +2502,7 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D39" s="26"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="5">
         <v>10</v>
       </c>
@@ -2465,7 +2518,7 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D40" s="26"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="5">
         <v>11</v>
       </c>
@@ -2481,7 +2534,7 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="26"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="5">
         <v>12</v>
       </c>
@@ -2495,7 +2548,7 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="26"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="5">
         <v>13</v>
       </c>
@@ -2522,7 +2575,7 @@
       <c r="C44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
@@ -2534,7 +2587,7 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D45" s="26"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="5">
         <v>2</v>
       </c>
@@ -2550,7 +2603,7 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="26"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="5">
         <v>3</v>
       </c>
@@ -2563,7 +2616,7 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="26"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="5">
         <v>4</v>
       </c>
@@ -2588,7 +2641,7 @@
       <c r="C49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="28" t="s">
         <v>80</v>
       </c>
       <c r="E49" s="5">
@@ -2600,7 +2653,7 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D50" s="26"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="5">
         <v>2</v>
       </c>
@@ -2613,7 +2666,7 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="26"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="5">
         <v>3</v>
       </c>
@@ -2627,7 +2680,7 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D52" s="26"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="5">
         <v>4</v>
       </c>
@@ -2643,7 +2696,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D53" s="26"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="5">
         <v>5</v>
       </c>
@@ -2670,7 +2723,7 @@
       <c r="C55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E55" s="5">
@@ -2688,7 +2741,7 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D56" s="22"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="5">
         <v>2</v>
       </c>
@@ -2704,7 +2757,7 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="22"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="5">
         <v>3</v>
       </c>
@@ -2720,7 +2773,7 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D58" s="22"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="5">
         <v>4</v>
       </c>
@@ -2736,7 +2789,7 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D59" s="22"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="5">
         <v>5</v>
       </c>
@@ -2752,7 +2805,7 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="22"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="5">
         <v>6</v>
       </c>
@@ -2768,7 +2821,7 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D61" s="22"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="5">
         <v>7</v>
       </c>
@@ -2781,7 +2834,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D62" s="22"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="5">
         <v>8</v>
       </c>
@@ -2797,7 +2850,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D63" s="22"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="5">
         <v>9</v>
       </c>
@@ -2811,7 +2864,7 @@
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D64" s="22"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="5">
         <v>10</v>
       </c>
@@ -2827,7 +2880,7 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D65" s="22"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="5">
         <v>11</v>
       </c>
@@ -2843,7 +2896,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="22"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="5">
         <v>12</v>
       </c>
@@ -2857,7 +2910,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="22"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="5">
         <v>13</v>
       </c>
@@ -2873,7 +2926,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="22"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="5">
         <v>14</v>
       </c>
@@ -2898,7 +2951,7 @@
       <c r="C70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="26" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="5">
@@ -2910,7 +2963,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D71" s="22"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="5">
         <v>2</v>
       </c>
@@ -2926,7 +2979,7 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="22"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="5">
         <v>3</v>
       </c>
@@ -2951,7 +3004,7 @@
       <c r="C74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="28" t="s">
         <v>99</v>
       </c>
       <c r="E74" s="5">
@@ -2963,7 +3016,7 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D75" s="26"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="5">
         <v>2</v>
       </c>
@@ -2976,7 +3029,7 @@
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="26"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="5">
         <v>3</v>
       </c>
@@ -3003,7 +3056,7 @@
       <c r="C78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E78" s="5">
@@ -3015,7 +3068,7 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D79" s="26"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="5">
         <v>2</v>
       </c>
@@ -3028,7 +3081,7 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="26"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="5">
         <v>3</v>
       </c>
@@ -3044,7 +3097,7 @@
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="26"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="5">
         <v>4</v>
       </c>
@@ -3069,7 +3122,7 @@
       <c r="C83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="28" t="s">
         <v>113</v>
       </c>
       <c r="E83" s="5">
@@ -3081,7 +3134,7 @@
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="26"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="5">
         <v>2</v>
       </c>
@@ -3094,7 +3147,7 @@
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D85" s="26"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="5">
         <v>3</v>
       </c>
@@ -3110,7 +3163,7 @@
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D86" s="26"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="5">
         <v>4</v>
       </c>
@@ -3126,7 +3179,7 @@
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D87" s="26"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="5">
         <v>5</v>
       </c>
@@ -3139,7 +3192,7 @@
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D88" s="26"/>
+      <c r="D88" s="28"/>
       <c r="E88" s="5">
         <v>6</v>
       </c>
@@ -3166,7 +3219,7 @@
       <c r="C90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="28" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="5">
@@ -3184,7 +3237,7 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D91" s="26"/>
+      <c r="D91" s="28"/>
       <c r="E91" s="5">
         <v>2</v>
       </c>
@@ -3200,7 +3253,7 @@
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="26"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="5">
         <v>3</v>
       </c>
@@ -3216,7 +3269,7 @@
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D93" s="26"/>
+      <c r="D93" s="28"/>
       <c r="E93" s="5">
         <v>4</v>
       </c>
@@ -3232,7 +3285,7 @@
       <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D94" s="26"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="5">
         <v>5</v>
       </c>
@@ -3248,7 +3301,7 @@
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="26"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="5">
         <v>6</v>
       </c>
@@ -3264,7 +3317,7 @@
       <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="26"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="5">
         <v>7</v>
       </c>
@@ -3277,7 +3330,7 @@
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D97" s="26"/>
+      <c r="D97" s="28"/>
       <c r="E97" s="5">
         <v>8</v>
       </c>
@@ -3293,7 +3346,7 @@
       <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D98" s="26"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="5">
         <v>9</v>
       </c>
@@ -3318,7 +3371,7 @@
       <c r="C100" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="28" t="s">
         <v>134</v>
       </c>
       <c r="E100" s="5">
@@ -3336,7 +3389,7 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D101" s="26"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="5">
         <v>2</v>
       </c>
@@ -3352,7 +3405,7 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D102" s="26"/>
+      <c r="D102" s="28"/>
       <c r="E102" s="5">
         <v>3</v>
       </c>
@@ -3368,7 +3421,7 @@
       <c r="L102" s="4"/>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D103" s="26"/>
+      <c r="D103" s="28"/>
       <c r="E103" s="5">
         <v>4</v>
       </c>
@@ -3384,7 +3437,7 @@
       <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D104" s="26"/>
+      <c r="D104" s="28"/>
       <c r="E104" s="5">
         <v>5</v>
       </c>
@@ -3400,7 +3453,7 @@
       <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D105" s="26"/>
+      <c r="D105" s="28"/>
       <c r="E105" s="5">
         <v>6</v>
       </c>
@@ -3416,7 +3469,7 @@
       <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="26"/>
+      <c r="D106" s="28"/>
       <c r="E106" s="5">
         <v>7</v>
       </c>
@@ -3429,7 +3482,7 @@
       <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D107" s="26"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="5">
         <v>8</v>
       </c>
@@ -3445,7 +3498,7 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D108" s="26"/>
+      <c r="D108" s="28"/>
       <c r="E108" s="5">
         <v>9</v>
       </c>
@@ -3474,7 +3527,7 @@
       <c r="C110" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="28" t="s">
         <v>138</v>
       </c>
       <c r="E110" s="5">
@@ -3492,7 +3545,7 @@
       <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D111" s="26"/>
+      <c r="D111" s="28"/>
       <c r="E111" s="5">
         <v>2</v>
       </c>
@@ -3508,7 +3561,7 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D112" s="26"/>
+      <c r="D112" s="28"/>
       <c r="E112" s="5">
         <v>3</v>
       </c>
@@ -3524,7 +3577,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D113" s="26"/>
+      <c r="D113" s="28"/>
       <c r="E113" s="5">
         <v>4</v>
       </c>
@@ -3540,7 +3593,7 @@
       <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D114" s="26"/>
+      <c r="D114" s="28"/>
       <c r="E114" s="5">
         <v>5</v>
       </c>
@@ -3556,7 +3609,7 @@
       <c r="L114" s="4"/>
     </row>
     <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D115" s="26"/>
+      <c r="D115" s="28"/>
       <c r="E115" s="5">
         <v>6</v>
       </c>
@@ -3572,7 +3625,7 @@
       <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D116" s="26"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="5">
         <v>7</v>
       </c>
@@ -3585,7 +3638,7 @@
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D117" s="26"/>
+      <c r="D117" s="28"/>
       <c r="E117" s="5">
         <v>8</v>
       </c>
@@ -3601,7 +3654,7 @@
       <c r="L117" s="4"/>
     </row>
     <row r="118" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D118" s="26"/>
+      <c r="D118" s="28"/>
       <c r="E118" s="5">
         <v>9</v>
       </c>
@@ -3629,7 +3682,7 @@
       <c r="C120" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="28" t="s">
         <v>142</v>
       </c>
       <c r="E120" s="5">
@@ -3647,7 +3700,7 @@
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D121" s="26"/>
+      <c r="D121" s="28"/>
       <c r="E121" s="5">
         <v>2</v>
       </c>
@@ -3663,7 +3716,7 @@
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D122" s="26"/>
+      <c r="D122" s="28"/>
       <c r="E122" s="5">
         <v>3</v>
       </c>
@@ -3679,7 +3732,7 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D123" s="26"/>
+      <c r="D123" s="28"/>
       <c r="E123" s="5">
         <v>4</v>
       </c>
@@ -3695,7 +3748,7 @@
       <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D124" s="26"/>
+      <c r="D124" s="28"/>
       <c r="E124" s="5">
         <v>5</v>
       </c>
@@ -3711,7 +3764,7 @@
       <c r="L124" s="4"/>
     </row>
     <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D125" s="26"/>
+      <c r="D125" s="28"/>
       <c r="E125" s="5">
         <v>6</v>
       </c>
@@ -3727,8 +3780,8 @@
       <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="D126" s="26"/>
+      <c r="A126" s="20"/>
+      <c r="D126" s="28"/>
       <c r="E126" s="5">
         <v>7</v>
       </c>
@@ -3741,7 +3794,7 @@
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="26"/>
+      <c r="D127" s="28"/>
       <c r="E127" s="5">
         <v>8</v>
       </c>
@@ -3757,7 +3810,7 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D128" s="26"/>
+      <c r="D128" s="28"/>
       <c r="E128" s="5">
         <v>9</v>
       </c>
@@ -3786,7 +3839,7 @@
       <c r="C130" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="28" t="s">
         <v>148</v>
       </c>
       <c r="E130" s="5">
@@ -3804,7 +3857,7 @@
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D131" s="26"/>
+      <c r="D131" s="28"/>
       <c r="E131" s="5">
         <v>2</v>
       </c>
@@ -3820,7 +3873,7 @@
       <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="26"/>
+      <c r="D132" s="28"/>
       <c r="E132" s="5">
         <v>3</v>
       </c>
@@ -3836,7 +3889,7 @@
       <c r="L132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D133" s="26"/>
+      <c r="D133" s="28"/>
       <c r="E133" s="5">
         <v>4</v>
       </c>
@@ -3852,7 +3905,7 @@
       <c r="L133" s="4"/>
     </row>
     <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D134" s="26"/>
+      <c r="D134" s="28"/>
       <c r="E134" s="5">
         <v>5</v>
       </c>
@@ -3868,7 +3921,7 @@
       <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D135" s="26"/>
+      <c r="D135" s="28"/>
       <c r="E135" s="5">
         <v>6</v>
       </c>
@@ -3884,7 +3937,7 @@
       <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="26"/>
+      <c r="D136" s="28"/>
       <c r="E136" s="5">
         <v>7</v>
       </c>
@@ -3897,7 +3950,7 @@
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D137" s="26"/>
+      <c r="D137" s="28"/>
       <c r="E137" s="5">
         <v>8</v>
       </c>
@@ -3910,7 +3963,7 @@
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D138" s="26"/>
+      <c r="D138" s="28"/>
       <c r="E138" s="5">
         <v>9</v>
       </c>
@@ -3926,7 +3979,7 @@
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D139" s="26"/>
+      <c r="D139" s="28"/>
       <c r="E139" s="5">
         <v>10</v>
       </c>
@@ -3942,7 +3995,7 @@
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D140" s="26"/>
+      <c r="D140" s="28"/>
       <c r="E140" s="5">
         <v>11</v>
       </c>
@@ -3958,7 +4011,7 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D141" s="26"/>
+      <c r="D141" s="28"/>
       <c r="E141" s="5">
         <v>12</v>
       </c>
@@ -3974,7 +4027,7 @@
       <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D142" s="26"/>
+      <c r="D142" s="28"/>
       <c r="E142" s="5">
         <v>13</v>
       </c>
@@ -3987,7 +4040,7 @@
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D143" s="26"/>
+      <c r="D143" s="28"/>
       <c r="E143" s="5">
         <v>14</v>
       </c>
@@ -4003,7 +4056,7 @@
       <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D144" s="26"/>
+      <c r="D144" s="28"/>
       <c r="E144" s="5">
         <v>15</v>
       </c>
@@ -4019,7 +4072,7 @@
       <c r="L144" s="4"/>
     </row>
     <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D145" s="26"/>
+      <c r="D145" s="28"/>
       <c r="E145" s="5">
         <v>16</v>
       </c>
@@ -4035,7 +4088,7 @@
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D146" s="26"/>
+      <c r="D146" s="28"/>
       <c r="E146" s="5">
         <v>17</v>
       </c>
@@ -4048,7 +4101,7 @@
       <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D147" s="26"/>
+      <c r="D147" s="28"/>
       <c r="E147" s="5">
         <v>18</v>
       </c>
@@ -4061,11 +4114,11 @@
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D148" s="26"/>
+      <c r="D148" s="28"/>
       <c r="E148" s="5">
         <v>19</v>
       </c>
-      <c r="F148" s="20" t="s">
+      <c r="F148" s="18" t="s">
         <v>175</v>
       </c>
       <c r="G148" s="11" t="s">
@@ -4087,7 +4140,7 @@
       <c r="C150" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="28" t="s">
         <v>180</v>
       </c>
       <c r="E150" s="5">
@@ -4105,7 +4158,7 @@
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D151" s="26"/>
+      <c r="D151" s="28"/>
       <c r="E151" s="5">
         <v>2</v>
       </c>
@@ -4121,7 +4174,7 @@
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D152" s="26"/>
+      <c r="D152" s="28"/>
       <c r="E152" s="5">
         <v>3</v>
       </c>
@@ -4137,7 +4190,7 @@
       <c r="L152" s="4"/>
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D153" s="26"/>
+      <c r="D153" s="28"/>
       <c r="E153" s="5">
         <v>4</v>
       </c>
@@ -4153,7 +4206,7 @@
       <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D154" s="26"/>
+      <c r="D154" s="28"/>
       <c r="E154" s="5">
         <v>5</v>
       </c>
@@ -4169,7 +4222,7 @@
       <c r="L154" s="4"/>
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D155" s="26"/>
+      <c r="D155" s="28"/>
       <c r="E155" s="5">
         <v>6</v>
       </c>
@@ -4185,7 +4238,7 @@
       <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D156" s="26"/>
+      <c r="D156" s="28"/>
       <c r="E156" s="5">
         <v>7</v>
       </c>
@@ -4198,7 +4251,7 @@
       <c r="L156" s="4"/>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D157" s="26"/>
+      <c r="D157" s="28"/>
       <c r="E157" s="5">
         <v>8</v>
       </c>
@@ -4211,7 +4264,7 @@
       <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D158" s="26"/>
+      <c r="D158" s="28"/>
       <c r="E158" s="5">
         <v>9</v>
       </c>
@@ -4227,7 +4280,7 @@
       <c r="L158" s="4"/>
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D159" s="26"/>
+      <c r="D159" s="28"/>
       <c r="E159" s="5">
         <v>10</v>
       </c>
@@ -4243,7 +4296,7 @@
       <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D160" s="26"/>
+      <c r="D160" s="28"/>
       <c r="E160" s="5">
         <v>11</v>
       </c>
@@ -4259,7 +4312,7 @@
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D161" s="26"/>
+      <c r="D161" s="28"/>
       <c r="E161" s="5">
         <v>12</v>
       </c>
@@ -4275,7 +4328,7 @@
       <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="26"/>
+      <c r="D162" s="28"/>
       <c r="E162" s="5">
         <v>13</v>
       </c>
@@ -4288,7 +4341,7 @@
       <c r="L162" s="4"/>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D163" s="26"/>
+      <c r="D163" s="28"/>
       <c r="E163" s="5">
         <v>14</v>
       </c>
@@ -4304,7 +4357,7 @@
       <c r="L163" s="4"/>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D164" s="26"/>
+      <c r="D164" s="28"/>
       <c r="E164" s="5">
         <v>15</v>
       </c>
@@ -4320,7 +4373,7 @@
       <c r="L164" s="4"/>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D165" s="26"/>
+      <c r="D165" s="28"/>
       <c r="E165" s="5">
         <v>16</v>
       </c>
@@ -4336,7 +4389,7 @@
       <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D166" s="26"/>
+      <c r="D166" s="28"/>
       <c r="E166" s="5">
         <v>17</v>
       </c>
@@ -4349,7 +4402,7 @@
       <c r="L166" s="4"/>
     </row>
     <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D167" s="26"/>
+      <c r="D167" s="28"/>
       <c r="E167" s="5">
         <v>18</v>
       </c>
@@ -4362,7 +4415,7 @@
       <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D168" s="26"/>
+      <c r="D168" s="28"/>
       <c r="E168" s="5">
         <v>19</v>
       </c>
@@ -4378,7 +4431,7 @@
       <c r="L168" s="4"/>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D169" s="26"/>
+      <c r="D169" s="28"/>
       <c r="E169" s="5">
         <v>20</v>
       </c>
@@ -4391,7 +4444,7 @@
       <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F170" s="20"/>
+      <c r="F170" s="18"/>
       <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4404,7 +4457,7 @@
       <c r="C171" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="28" t="s">
         <v>200</v>
       </c>
       <c r="E171" s="5">
@@ -4416,7 +4469,7 @@
       <c r="L171" s="4"/>
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D172" s="26"/>
+      <c r="D172" s="28"/>
       <c r="E172" s="5">
         <v>2</v>
       </c>
@@ -4432,7 +4485,7 @@
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D173" s="26"/>
+      <c r="D173" s="28"/>
       <c r="E173" s="5">
         <v>3</v>
       </c>
@@ -4445,7 +4498,7 @@
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D174" s="26"/>
+      <c r="D174" s="28"/>
       <c r="E174" s="5">
         <v>4</v>
       </c>
@@ -4458,7 +4511,7 @@
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="26"/>
+      <c r="D175" s="28"/>
       <c r="E175" s="5">
         <v>5</v>
       </c>
@@ -4471,7 +4524,7 @@
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="26"/>
+      <c r="D176" s="28"/>
       <c r="E176" s="5">
         <v>6</v>
       </c>
@@ -4496,7 +4549,7 @@
       <c r="C178" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="26" t="s">
         <v>209</v>
       </c>
       <c r="E178" s="5">
@@ -4514,7 +4567,7 @@
       <c r="L178" s="4"/>
     </row>
     <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D179" s="22"/>
+      <c r="D179" s="26"/>
       <c r="E179" s="5">
         <v>2</v>
       </c>
@@ -4530,7 +4583,7 @@
       <c r="L179" s="4"/>
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D180" s="22"/>
+      <c r="D180" s="26"/>
       <c r="E180" s="5">
         <v>3</v>
       </c>
@@ -4546,7 +4599,7 @@
       <c r="L180" s="4"/>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="22"/>
+      <c r="D181" s="26"/>
       <c r="E181" s="5">
         <v>4</v>
       </c>
@@ -4562,7 +4615,7 @@
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D182" s="22"/>
+      <c r="D182" s="26"/>
       <c r="E182" s="5">
         <v>5</v>
       </c>
@@ -4578,7 +4631,7 @@
       <c r="L182" s="4"/>
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D183" s="22"/>
+      <c r="D183" s="26"/>
       <c r="E183" s="5">
         <v>6</v>
       </c>
@@ -4594,7 +4647,7 @@
       <c r="L183" s="4"/>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D184" s="22"/>
+      <c r="D184" s="26"/>
       <c r="E184" s="5">
         <v>7</v>
       </c>
@@ -4607,7 +4660,7 @@
       <c r="L184" s="4"/>
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D185" s="22"/>
+      <c r="D185" s="26"/>
       <c r="E185" s="5">
         <v>8</v>
       </c>
@@ -4620,7 +4673,7 @@
       <c r="L185" s="4"/>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="22"/>
+      <c r="D186" s="26"/>
       <c r="E186" s="5">
         <v>9</v>
       </c>
@@ -4636,7 +4689,7 @@
       <c r="L186" s="4"/>
     </row>
     <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D187" s="22"/>
+      <c r="D187" s="26"/>
       <c r="E187" s="5">
         <v>10</v>
       </c>
@@ -4652,7 +4705,7 @@
       <c r="L187" s="4"/>
     </row>
     <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D188" s="22"/>
+      <c r="D188" s="26"/>
       <c r="E188" s="5">
         <v>11</v>
       </c>
@@ -4668,7 +4721,7 @@
       <c r="L188" s="4"/>
     </row>
     <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D189" s="22"/>
+      <c r="D189" s="26"/>
       <c r="E189" s="5">
         <v>12</v>
       </c>
@@ -4684,7 +4737,7 @@
       <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="22"/>
+      <c r="D190" s="26"/>
       <c r="E190" s="5">
         <v>13</v>
       </c>
@@ -4697,7 +4750,7 @@
       <c r="L190" s="4"/>
     </row>
     <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D191" s="22"/>
+      <c r="D191" s="26"/>
       <c r="E191" s="5">
         <v>14</v>
       </c>
@@ -4713,7 +4766,7 @@
       <c r="L191" s="4"/>
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D192" s="22"/>
+      <c r="D192" s="26"/>
       <c r="E192" s="5">
         <v>15</v>
       </c>
@@ -4729,7 +4782,7 @@
       <c r="L192" s="4"/>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D193" s="22"/>
+      <c r="D193" s="26"/>
       <c r="E193" s="5">
         <v>16</v>
       </c>
@@ -4745,7 +4798,7 @@
       <c r="L193" s="4"/>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D194" s="22"/>
+      <c r="D194" s="26"/>
       <c r="E194" s="5">
         <v>17</v>
       </c>
@@ -4758,7 +4811,7 @@
       <c r="L194" s="4"/>
     </row>
     <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D195" s="22"/>
+      <c r="D195" s="26"/>
       <c r="E195" s="5">
         <v>18</v>
       </c>
@@ -4771,7 +4824,7 @@
       <c r="L195" s="4"/>
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D196" s="22"/>
+      <c r="D196" s="26"/>
       <c r="E196" s="5">
         <v>19</v>
       </c>
@@ -4787,7 +4840,7 @@
       <c r="L196" s="4"/>
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D197" s="22"/>
+      <c r="D197" s="26"/>
       <c r="E197" s="5">
         <v>20</v>
       </c>
@@ -4800,7 +4853,7 @@
       <c r="L197" s="4"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F198" s="18"/>
+      <c r="F198" s="20"/>
       <c r="L198" s="4"/>
     </row>
     <row r="199" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,7 +4866,7 @@
       <c r="C199" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="22" t="s">
+      <c r="D199" s="26" t="s">
         <v>211</v>
       </c>
       <c r="E199" s="5">
@@ -4831,7 +4884,7 @@
       <c r="L199" s="4"/>
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D200" s="22"/>
+      <c r="D200" s="26"/>
       <c r="E200" s="5">
         <v>2</v>
       </c>
@@ -4847,7 +4900,7 @@
       <c r="L200" s="4"/>
     </row>
     <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D201" s="22"/>
+      <c r="D201" s="26"/>
       <c r="E201" s="5">
         <v>3</v>
       </c>
@@ -4863,7 +4916,7 @@
       <c r="L201" s="4"/>
     </row>
     <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D202" s="22"/>
+      <c r="D202" s="26"/>
       <c r="E202" s="5">
         <v>4</v>
       </c>
@@ -4879,7 +4932,7 @@
       <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D203" s="22"/>
+      <c r="D203" s="26"/>
       <c r="E203" s="5">
         <v>5</v>
       </c>
@@ -4895,7 +4948,7 @@
       <c r="L203" s="4"/>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D204" s="22"/>
+      <c r="D204" s="26"/>
       <c r="E204" s="5">
         <v>6</v>
       </c>
@@ -4911,7 +4964,7 @@
       <c r="L204" s="4"/>
     </row>
     <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D205" s="22"/>
+      <c r="D205" s="26"/>
       <c r="E205" s="5">
         <v>7</v>
       </c>
@@ -4924,7 +4977,7 @@
       <c r="L205" s="4"/>
     </row>
     <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D206" s="22"/>
+      <c r="D206" s="26"/>
       <c r="E206" s="5">
         <v>8</v>
       </c>
@@ -4937,7 +4990,7 @@
       <c r="L206" s="4"/>
     </row>
     <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D207" s="22"/>
+      <c r="D207" s="26"/>
       <c r="E207" s="5">
         <v>9</v>
       </c>
@@ -4953,7 +5006,7 @@
       <c r="L207" s="4"/>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="22"/>
+      <c r="D208" s="26"/>
       <c r="E208" s="5">
         <v>10</v>
       </c>
@@ -4969,7 +5022,7 @@
       <c r="L208" s="4"/>
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D209" s="22"/>
+      <c r="D209" s="26"/>
       <c r="E209" s="5">
         <v>11</v>
       </c>
@@ -4985,7 +5038,7 @@
       <c r="L209" s="4"/>
     </row>
     <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D210" s="22"/>
+      <c r="D210" s="26"/>
       <c r="E210" s="5">
         <v>12</v>
       </c>
@@ -4998,7 +5051,7 @@
       <c r="L210" s="4"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D211" s="21"/>
+      <c r="D211" s="19"/>
       <c r="L211" s="4"/>
     </row>
     <row r="212" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,7 +5064,7 @@
       <c r="C212" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D212" s="22" t="s">
+      <c r="D212" s="26" t="s">
         <v>215</v>
       </c>
       <c r="E212" s="5">
@@ -5029,7 +5082,7 @@
       <c r="L212" s="4"/>
     </row>
     <row r="213" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D213" s="22"/>
+      <c r="D213" s="26"/>
       <c r="E213" s="5">
         <v>2</v>
       </c>
@@ -5045,7 +5098,7 @@
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D214" s="22"/>
+      <c r="D214" s="26"/>
       <c r="E214" s="5">
         <v>3</v>
       </c>
@@ -5061,7 +5114,7 @@
       <c r="L214" s="4"/>
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D215" s="22"/>
+      <c r="D215" s="26"/>
       <c r="E215" s="5">
         <v>4</v>
       </c>
@@ -5077,7 +5130,7 @@
       <c r="L215" s="4"/>
     </row>
     <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D216" s="22"/>
+      <c r="D216" s="26"/>
       <c r="E216" s="5">
         <v>5</v>
       </c>
@@ -5093,7 +5146,7 @@
       <c r="L216" s="4"/>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D217" s="22"/>
+      <c r="D217" s="26"/>
       <c r="E217" s="5">
         <v>6</v>
       </c>
@@ -5109,7 +5162,7 @@
       <c r="L217" s="4"/>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="22"/>
+      <c r="D218" s="26"/>
       <c r="E218" s="5">
         <v>7</v>
       </c>
@@ -5122,7 +5175,7 @@
       <c r="L218" s="4"/>
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D219" s="22"/>
+      <c r="D219" s="26"/>
       <c r="E219" s="5">
         <v>8</v>
       </c>
@@ -5135,7 +5188,7 @@
       <c r="L219" s="4"/>
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D220" s="22"/>
+      <c r="D220" s="26"/>
       <c r="E220" s="5">
         <v>9</v>
       </c>
@@ -5151,7 +5204,7 @@
       <c r="L220" s="4"/>
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D221" s="22"/>
+      <c r="D221" s="26"/>
       <c r="E221" s="5">
         <v>10</v>
       </c>
@@ -5167,7 +5220,7 @@
       <c r="L221" s="4"/>
     </row>
     <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D222" s="22"/>
+      <c r="D222" s="26"/>
       <c r="E222" s="5">
         <v>11</v>
       </c>
@@ -5183,7 +5236,7 @@
       <c r="L222" s="4"/>
     </row>
     <row r="223" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D223" s="22"/>
+      <c r="D223" s="26"/>
       <c r="E223" s="5">
         <v>12</v>
       </c>
@@ -5199,7 +5252,7 @@
       <c r="L223" s="4"/>
     </row>
     <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="22"/>
+      <c r="D224" s="26"/>
       <c r="E224" s="5">
         <v>13</v>
       </c>
@@ -5212,7 +5265,7 @@
       <c r="L224" s="4"/>
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D225" s="22"/>
+      <c r="D225" s="26"/>
       <c r="E225" s="5">
         <v>14</v>
       </c>
@@ -5228,7 +5281,7 @@
       <c r="L225" s="4"/>
     </row>
     <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D226" s="22"/>
+      <c r="D226" s="26"/>
       <c r="E226" s="5">
         <v>15</v>
       </c>
@@ -5244,7 +5297,7 @@
       <c r="L226" s="4"/>
     </row>
     <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D227" s="22"/>
+      <c r="D227" s="26"/>
       <c r="E227" s="5">
         <v>16</v>
       </c>
@@ -5260,7 +5313,7 @@
       <c r="L227" s="4"/>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="22"/>
+      <c r="D228" s="26"/>
       <c r="E228" s="5">
         <v>17</v>
       </c>
@@ -5276,7 +5329,7 @@
       <c r="L228" s="4"/>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D229" s="22"/>
+      <c r="D229" s="26"/>
       <c r="E229" s="5">
         <v>18</v>
       </c>
@@ -5289,7 +5342,7 @@
       <c r="L229" s="4"/>
     </row>
     <row r="230" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D230" s="22"/>
+      <c r="D230" s="26"/>
       <c r="E230" s="5">
         <v>19</v>
       </c>
@@ -5302,7 +5355,7 @@
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="22"/>
+      <c r="D231" s="26"/>
       <c r="E231" s="5">
         <v>20</v>
       </c>
@@ -5318,7 +5371,7 @@
       <c r="L231" s="4"/>
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="22"/>
+      <c r="D232" s="26"/>
       <c r="E232" s="5">
         <v>21</v>
       </c>
@@ -5343,7 +5396,7 @@
       <c r="C234" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D234" s="22" t="s">
+      <c r="D234" s="26" t="s">
         <v>220</v>
       </c>
       <c r="E234" s="5">
@@ -5355,7 +5408,7 @@
       <c r="L234" s="4"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D235" s="22"/>
+      <c r="D235" s="26"/>
       <c r="E235" s="5">
         <v>2</v>
       </c>
@@ -5371,7 +5424,7 @@
       <c r="L235" s="4"/>
     </row>
     <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D236" s="22"/>
+      <c r="D236" s="26"/>
       <c r="E236" s="5">
         <v>3</v>
       </c>
@@ -5384,7 +5437,7 @@
       <c r="L236" s="4"/>
     </row>
     <row r="237" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D237" s="22"/>
+      <c r="D237" s="26"/>
       <c r="E237" s="5">
         <v>4</v>
       </c>
@@ -5397,7 +5450,7 @@
       <c r="L237" s="4"/>
     </row>
     <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D238" s="22"/>
+      <c r="D238" s="26"/>
       <c r="E238" s="5">
         <v>5</v>
       </c>
@@ -5413,7 +5466,7 @@
       <c r="L238" s="4"/>
     </row>
     <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D239" s="22"/>
+      <c r="D239" s="26"/>
       <c r="E239" s="5">
         <v>6</v>
       </c>
@@ -5426,7 +5479,7 @@
       <c r="L239" s="4"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D240" s="21"/>
+      <c r="D240" s="19"/>
       <c r="L240" s="4"/>
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5439,7 +5492,7 @@
       <c r="C241" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D241" s="22" t="s">
+      <c r="D241" s="26" t="s">
         <v>226</v>
       </c>
       <c r="E241" s="5">
@@ -5457,7 +5510,7 @@
       <c r="L241" s="4"/>
     </row>
     <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D242" s="22"/>
+      <c r="D242" s="26"/>
       <c r="E242" s="5">
         <v>2</v>
       </c>
@@ -5473,7 +5526,7 @@
       <c r="L242" s="4"/>
     </row>
     <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D243" s="22"/>
+      <c r="D243" s="26"/>
       <c r="E243" s="5">
         <v>3</v>
       </c>
@@ -5489,7 +5542,7 @@
       <c r="L243" s="4"/>
     </row>
     <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="22"/>
+      <c r="D244" s="26"/>
       <c r="E244" s="5">
         <v>4</v>
       </c>
@@ -5505,7 +5558,7 @@
       <c r="L244" s="4"/>
     </row>
     <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D245" s="22"/>
+      <c r="D245" s="26"/>
       <c r="E245" s="5">
         <v>5</v>
       </c>
@@ -5521,7 +5574,7 @@
       <c r="L245" s="4"/>
     </row>
     <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="22"/>
+      <c r="D246" s="26"/>
       <c r="E246" s="5">
         <v>6</v>
       </c>
@@ -5537,7 +5590,7 @@
       <c r="L246" s="4"/>
     </row>
     <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D247" s="22"/>
+      <c r="D247" s="26"/>
       <c r="E247" s="5">
         <v>7</v>
       </c>
@@ -5550,7 +5603,7 @@
       <c r="L247" s="4"/>
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D248" s="22"/>
+      <c r="D248" s="26"/>
       <c r="E248" s="5">
         <v>8</v>
       </c>
@@ -5566,7 +5619,7 @@
       <c r="L248" s="4"/>
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D249" s="22"/>
+      <c r="D249" s="26"/>
       <c r="E249" s="5">
         <v>9</v>
       </c>
@@ -5579,7 +5632,7 @@
       <c r="L249" s="4"/>
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D250" s="22"/>
+      <c r="D250" s="26"/>
       <c r="E250" s="5">
         <v>10</v>
       </c>
@@ -5593,7 +5646,7 @@
       <c r="L250" s="4"/>
     </row>
     <row r="251" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D251" s="22"/>
+      <c r="D251" s="26"/>
       <c r="E251" s="5">
         <v>11</v>
       </c>
@@ -5607,7 +5660,7 @@
       <c r="L251" s="4"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D252" s="21"/>
+      <c r="D252" s="19"/>
       <c r="I252" s="12"/>
       <c r="L252" s="4"/>
     </row>
@@ -5621,7 +5674,7 @@
       <c r="C253" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D253" s="22" t="s">
+      <c r="D253" s="26" t="s">
         <v>235</v>
       </c>
       <c r="E253" s="5">
@@ -5639,7 +5692,7 @@
       <c r="L253" s="4"/>
     </row>
     <row r="254" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D254" s="22"/>
+      <c r="D254" s="26"/>
       <c r="E254" s="5">
         <v>2</v>
       </c>
@@ -5655,7 +5708,7 @@
       <c r="L254" s="4"/>
     </row>
     <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D255" s="22"/>
+      <c r="D255" s="26"/>
       <c r="E255" s="5">
         <v>3</v>
       </c>
@@ -5671,7 +5724,7 @@
       <c r="L255" s="4"/>
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D256" s="22"/>
+      <c r="D256" s="26"/>
       <c r="E256" s="5">
         <v>4</v>
       </c>
@@ -5687,7 +5740,7 @@
       <c r="L256" s="4"/>
     </row>
     <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D257" s="22"/>
+      <c r="D257" s="26"/>
       <c r="E257" s="5">
         <v>5</v>
       </c>
@@ -5703,7 +5756,7 @@
       <c r="L257" s="4"/>
     </row>
     <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D258" s="22"/>
+      <c r="D258" s="26"/>
       <c r="E258" s="5">
         <v>6</v>
       </c>
@@ -5719,7 +5772,7 @@
       <c r="L258" s="4"/>
     </row>
     <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="22"/>
+      <c r="D259" s="26"/>
       <c r="E259" s="5">
         <v>7</v>
       </c>
@@ -5732,7 +5785,7 @@
       <c r="L259" s="4"/>
     </row>
     <row r="260" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D260" s="22"/>
+      <c r="D260" s="26"/>
       <c r="E260" s="5">
         <v>8</v>
       </c>
@@ -5745,7 +5798,7 @@
       <c r="L260" s="4"/>
     </row>
     <row r="261" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D261" s="22"/>
+      <c r="D261" s="26"/>
       <c r="E261" s="5">
         <v>9</v>
       </c>
@@ -5761,7 +5814,7 @@
       <c r="L261" s="4"/>
     </row>
     <row r="262" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D262" s="22"/>
+      <c r="D262" s="26"/>
       <c r="E262" s="5">
         <v>10</v>
       </c>
@@ -5774,7 +5827,7 @@
       <c r="L262" s="4"/>
     </row>
     <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D263" s="22"/>
+      <c r="D263" s="26"/>
       <c r="E263" s="5">
         <v>11</v>
       </c>
@@ -5790,7 +5843,7 @@
       <c r="L263" s="4"/>
     </row>
     <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D264" s="22"/>
+      <c r="D264" s="26"/>
       <c r="E264" s="5">
         <v>12</v>
       </c>
@@ -5803,7 +5856,7 @@
       <c r="L264" s="4"/>
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D265" s="22"/>
+      <c r="D265" s="26"/>
       <c r="E265" s="5">
         <v>13</v>
       </c>
@@ -5819,7 +5872,7 @@
       <c r="L265" s="4"/>
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="22"/>
+      <c r="D266" s="26"/>
       <c r="E266" s="5">
         <v>14</v>
       </c>
@@ -5835,7 +5888,7 @@
       <c r="L266" s="4"/>
     </row>
     <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D267" s="22"/>
+      <c r="D267" s="26"/>
       <c r="E267" s="5">
         <v>15</v>
       </c>
@@ -5851,7 +5904,7 @@
       <c r="L267" s="4"/>
     </row>
     <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D268" s="22"/>
+      <c r="D268" s="26"/>
       <c r="E268" s="5">
         <v>16</v>
       </c>
@@ -5864,7 +5917,7 @@
       <c r="L268" s="4"/>
     </row>
     <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D269" s="22"/>
+      <c r="D269" s="26"/>
       <c r="E269" s="5">
         <v>17</v>
       </c>
@@ -5877,7 +5930,7 @@
       <c r="L269" s="4"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D270" s="22"/>
+      <c r="D270" s="26"/>
       <c r="E270" s="5">
         <v>18</v>
       </c>
@@ -5902,7 +5955,7 @@
       <c r="C272" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="D272" s="26" t="s">
         <v>250</v>
       </c>
       <c r="E272" s="5">
@@ -5915,7 +5968,7 @@
       <c r="L272" s="4"/>
     </row>
     <row r="273" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D273" s="24"/>
+      <c r="D273" s="26"/>
       <c r="E273" s="5">
         <v>2</v>
       </c>
@@ -5929,7 +5982,7 @@
       <c r="L273" s="4"/>
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="25"/>
+      <c r="D274" s="26"/>
       <c r="E274" s="5">
         <v>3</v>
       </c>
@@ -5942,7 +5995,7 @@
       <c r="L274" s="4"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D275" s="21"/>
+      <c r="D275" s="19"/>
       <c r="L275" s="4"/>
     </row>
     <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5955,7 +6008,7 @@
       <c r="C276" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="26" t="s">
         <v>254</v>
       </c>
       <c r="E276" s="5">
@@ -5967,7 +6020,7 @@
       <c r="L276" s="4"/>
     </row>
     <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D277" s="24"/>
+      <c r="D277" s="26"/>
       <c r="E277" s="5">
         <v>2</v>
       </c>
@@ -5980,7 +6033,7 @@
       <c r="L277" s="4"/>
     </row>
     <row r="278" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D278" s="25"/>
+      <c r="D278" s="26"/>
       <c r="E278" s="5">
         <v>3</v>
       </c>
@@ -5993,7 +6046,7 @@
       <c r="L278" s="4"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D279" s="21"/>
+      <c r="D279" s="19"/>
       <c r="I279" s="12"/>
       <c r="L279" s="4"/>
     </row>
@@ -6007,7 +6060,7 @@
       <c r="C280" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D280" s="29" t="s">
+      <c r="D280" s="30" t="s">
         <v>262</v>
       </c>
       <c r="E280" s="5">
@@ -6033,7 +6086,7 @@
       <c r="L281" s="4"/>
     </row>
     <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D282" s="31"/>
+      <c r="D282" s="30"/>
       <c r="E282" s="5">
         <v>3</v>
       </c>
@@ -6046,7 +6099,7 @@
       <c r="L282" s="4"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D283" s="21"/>
+      <c r="D283" s="19"/>
       <c r="L283" s="4"/>
     </row>
     <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6059,7 +6112,7 @@
       <c r="C284" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="D284" s="26" t="s">
         <v>265</v>
       </c>
       <c r="E284" s="5">
@@ -6071,7 +6124,7 @@
       <c r="L284" s="4"/>
     </row>
     <row r="285" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D285" s="24"/>
+      <c r="D285" s="26"/>
       <c r="E285" s="5">
         <v>2</v>
       </c>
@@ -6085,7 +6138,7 @@
       <c r="L285" s="4"/>
     </row>
     <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D286" s="24"/>
+      <c r="D286" s="26"/>
       <c r="E286" s="5">
         <v>3</v>
       </c>
@@ -6099,7 +6152,7 @@
       <c r="L286" s="4"/>
     </row>
     <row r="287" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D287" s="25"/>
+      <c r="D287" s="26"/>
       <c r="E287" s="5">
         <v>4</v>
       </c>
@@ -6112,7 +6165,7 @@
       <c r="L287" s="4"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D288" s="21"/>
+      <c r="D288" s="19"/>
       <c r="L288" s="4"/>
     </row>
     <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6125,7 +6178,7 @@
       <c r="C289" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D289" s="23" t="s">
+      <c r="D289" s="26" t="s">
         <v>271</v>
       </c>
       <c r="E289" s="5">
@@ -6137,7 +6190,7 @@
       <c r="L289" s="4"/>
     </row>
     <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D290" s="24"/>
+      <c r="D290" s="26"/>
       <c r="E290" s="5">
         <v>2</v>
       </c>
@@ -6151,7 +6204,7 @@
       <c r="L290" s="4"/>
     </row>
     <row r="291" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D291" s="24"/>
+      <c r="D291" s="26"/>
       <c r="E291" s="5">
         <v>3</v>
       </c>
@@ -6159,15 +6212,15 @@
         <v>274</v>
       </c>
       <c r="G291" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="I291" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="I291" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="L291" s="4"/>
     </row>
     <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D292" s="25"/>
+      <c r="D292" s="26"/>
       <c r="E292" s="5">
         <v>4</v>
       </c>
@@ -6175,7 +6228,7 @@
         <v>175</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L292" s="4"/>
     </row>
@@ -6184,7 +6237,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>21</v>
@@ -6192,8 +6245,8 @@
       <c r="C294" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D294" s="32" t="s">
-        <v>280</v>
+      <c r="D294" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="E294" s="5">
         <v>1</v>
@@ -6210,7 +6263,7 @@
       <c r="L294" s="4"/>
     </row>
     <row r="295" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D295" s="33"/>
+      <c r="D295" s="28"/>
       <c r="E295" s="5">
         <v>2</v>
       </c>
@@ -6226,7 +6279,7 @@
       <c r="L295" s="4"/>
     </row>
     <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D296" s="33"/>
+      <c r="D296" s="28"/>
       <c r="E296" s="5">
         <v>3</v>
       </c>
@@ -6242,7 +6295,7 @@
       <c r="L296" s="4"/>
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D297" s="33"/>
+      <c r="D297" s="28"/>
       <c r="E297" s="5">
         <v>4</v>
       </c>
@@ -6258,7 +6311,7 @@
       <c r="L297" s="4"/>
     </row>
     <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D298" s="33"/>
+      <c r="D298" s="28"/>
       <c r="E298" s="5">
         <v>5</v>
       </c>
@@ -6274,7 +6327,7 @@
       <c r="L298" s="4"/>
     </row>
     <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D299" s="33"/>
+      <c r="D299" s="28"/>
       <c r="E299" s="5">
         <v>6</v>
       </c>
@@ -6290,7 +6343,7 @@
       <c r="L299" s="4"/>
     </row>
     <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D300" s="33"/>
+      <c r="D300" s="28"/>
       <c r="E300" s="5">
         <v>7</v>
       </c>
@@ -6302,8 +6355,8 @@
       </c>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D301" s="33"/>
+    <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D301" s="28"/>
       <c r="E301" s="5">
         <v>8</v>
       </c>
@@ -6311,12 +6364,12 @@
         <v>236</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="L301" s="4"/>
     </row>
     <row r="302" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D302" s="33"/>
+      <c r="D302" s="28"/>
       <c r="E302" s="5">
         <v>9</v>
       </c>
@@ -6332,7 +6385,7 @@
       <c r="L302" s="4"/>
     </row>
     <row r="303" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D303" s="33"/>
+      <c r="D303" s="28"/>
       <c r="E303" s="5">
         <v>10</v>
       </c>
@@ -6345,7 +6398,7 @@
       <c r="L303" s="4"/>
     </row>
     <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D304" s="33"/>
+      <c r="D304" s="28"/>
       <c r="E304" s="5">
         <v>11</v>
       </c>
@@ -6361,7 +6414,7 @@
       <c r="L304" s="4"/>
     </row>
     <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D305" s="33"/>
+      <c r="D305" s="28"/>
       <c r="E305" s="5">
         <v>12</v>
       </c>
@@ -6374,7 +6427,7 @@
       <c r="L305" s="4"/>
     </row>
     <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D306" s="33"/>
+      <c r="D306" s="28"/>
       <c r="E306" s="5">
         <v>13</v>
       </c>
@@ -6390,7 +6443,7 @@
       <c r="L306" s="4"/>
     </row>
     <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D307" s="33"/>
+      <c r="D307" s="28"/>
       <c r="E307" s="5">
         <v>14</v>
       </c>
@@ -6406,7 +6459,7 @@
       <c r="L307" s="4"/>
     </row>
     <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D308" s="33"/>
+      <c r="D308" s="28"/>
       <c r="E308" s="5">
         <v>15</v>
       </c>
@@ -6422,7 +6475,7 @@
       <c r="L308" s="4"/>
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D309" s="34"/>
+      <c r="D309" s="28"/>
       <c r="E309" s="5">
         <v>16</v>
       </c>
@@ -6439,7 +6492,7 @@
     </row>
     <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>21</v>
@@ -6447,8 +6500,8 @@
       <c r="C311" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D311" s="32" t="s">
-        <v>282</v>
+      <c r="D311" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="E311" s="5">
         <v>1</v>
@@ -6465,7 +6518,7 @@
       <c r="L311" s="4"/>
     </row>
     <row r="312" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D312" s="33"/>
+      <c r="D312" s="28"/>
       <c r="E312" s="5">
         <v>2</v>
       </c>
@@ -6481,7 +6534,7 @@
       <c r="L312" s="4"/>
     </row>
     <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D313" s="33"/>
+      <c r="D313" s="28"/>
       <c r="E313" s="5">
         <v>3</v>
       </c>
@@ -6497,7 +6550,7 @@
       <c r="L313" s="4"/>
     </row>
     <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D314" s="33"/>
+      <c r="D314" s="28"/>
       <c r="E314" s="5">
         <v>4</v>
       </c>
@@ -6513,7 +6566,7 @@
       <c r="L314" s="4"/>
     </row>
     <row r="315" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D315" s="33"/>
+      <c r="D315" s="28"/>
       <c r="E315" s="5">
         <v>5</v>
       </c>
@@ -6529,7 +6582,7 @@
       <c r="L315" s="4"/>
     </row>
     <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D316" s="33"/>
+      <c r="D316" s="28"/>
       <c r="E316" s="5">
         <v>6</v>
       </c>
@@ -6545,20 +6598,20 @@
       <c r="L316" s="4"/>
     </row>
     <row r="317" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D317" s="33"/>
+      <c r="D317" s="28"/>
       <c r="E317" s="5">
         <v>7</v>
       </c>
       <c r="F317" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G317" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G317" s="11" t="s">
-        <v>294</v>
-      </c>
       <c r="L317" s="4"/>
     </row>
     <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D318" s="33"/>
+      <c r="D318" s="28"/>
       <c r="E318" s="5">
         <v>8</v>
       </c>
@@ -6574,7 +6627,7 @@
       <c r="L318" s="4"/>
     </row>
     <row r="319" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D319" s="33"/>
+      <c r="D319" s="28"/>
       <c r="E319" s="5">
         <v>9</v>
       </c>
@@ -6588,7 +6641,7 @@
       <c r="L319" s="4"/>
     </row>
     <row r="320" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D320" s="33"/>
+      <c r="D320" s="28"/>
       <c r="E320" s="5">
         <v>10</v>
       </c>
@@ -6596,7 +6649,7 @@
         <v>49</v>
       </c>
       <c r="G320" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I320" s="15" t="s">
         <v>50</v>
@@ -6604,46 +6657,46 @@
       <c r="L320" s="4"/>
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D321" s="33"/>
+      <c r="D321" s="28"/>
       <c r="E321" s="5">
         <v>11</v>
       </c>
       <c r="F321" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G321" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L321" s="4"/>
     </row>
     <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D322" s="33"/>
+      <c r="D322" s="28"/>
       <c r="E322" s="5">
         <v>12</v>
       </c>
       <c r="F322" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G322" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="G322" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="L322" s="4"/>
     </row>
     <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D323" s="33"/>
+      <c r="D323" s="28"/>
       <c r="E323" s="5">
         <v>13</v>
       </c>
       <c r="F323" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G323" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G323" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="L323" s="4"/>
     </row>
     <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D324" s="34"/>
+      <c r="D324" s="28"/>
       <c r="E324" s="5">
         <v>14</v>
       </c>
@@ -6651,7 +6704,7 @@
         <v>197</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L324" s="4"/>
     </row>
@@ -6660,7 +6713,7 @@
     </row>
     <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>21</v>
@@ -6668,8 +6721,8 @@
       <c r="C326" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D326" s="32" t="s">
-        <v>292</v>
+      <c r="D326" s="28" t="s">
+        <v>291</v>
       </c>
       <c r="E326" s="5">
         <v>1</v>
@@ -6686,7 +6739,7 @@
       <c r="L326" s="4"/>
     </row>
     <row r="327" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D327" s="33"/>
+      <c r="D327" s="28"/>
       <c r="E327" s="5">
         <v>2</v>
       </c>
@@ -6702,7 +6755,7 @@
       <c r="L327" s="4"/>
     </row>
     <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D328" s="33"/>
+      <c r="D328" s="28"/>
       <c r="E328" s="5">
         <v>3</v>
       </c>
@@ -6718,7 +6771,7 @@
       <c r="L328" s="4"/>
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D329" s="33"/>
+      <c r="D329" s="28"/>
       <c r="E329" s="5">
         <v>4</v>
       </c>
@@ -6734,7 +6787,7 @@
       <c r="L329" s="4"/>
     </row>
     <row r="330" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D330" s="33"/>
+      <c r="D330" s="28"/>
       <c r="E330" s="5">
         <v>5</v>
       </c>
@@ -6750,7 +6803,7 @@
       <c r="L330" s="4"/>
     </row>
     <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D331" s="33"/>
+      <c r="D331" s="28"/>
       <c r="E331" s="5">
         <v>6</v>
       </c>
@@ -6766,57 +6819,60 @@
       <c r="L331" s="4"/>
     </row>
     <row r="332" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D332" s="33"/>
+      <c r="D332" s="28"/>
       <c r="E332" s="5">
         <v>7</v>
       </c>
       <c r="F332" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G332" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G332" s="11" t="s">
-        <v>294</v>
-      </c>
       <c r="L332" s="4"/>
     </row>
-    <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D333" s="33"/>
+    <row r="333" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D333" s="28"/>
       <c r="E333" s="5">
         <v>8</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G333" s="11" t="s">
-        <v>275</v>
+        <v>343</v>
+      </c>
+      <c r="I333" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="L333" s="4"/>
     </row>
     <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D334" s="33"/>
+      <c r="D334" s="28"/>
       <c r="E334" s="5">
         <v>9</v>
       </c>
       <c r="F334" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G334" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L334" s="4"/>
     </row>
     <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D335" s="34"/>
+      <c r="D335" s="28"/>
       <c r="E335" s="5">
         <v>10</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G335" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L335" s="4"/>
     </row>
@@ -6826,7 +6882,7 @@
     </row>
     <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>21</v>
@@ -6834,30 +6890,30 @@
       <c r="C337" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D337" s="32" t="s">
-        <v>301</v>
+      <c r="D337" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L337" s="4"/>
     </row>
     <row r="338" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D338" s="34"/>
+      <c r="D338" s="28"/>
       <c r="E338" s="5">
         <v>2</v>
       </c>
       <c r="F338" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G338" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I338" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L338" s="4"/>
     </row>
@@ -6866,7 +6922,7 @@
     </row>
     <row r="340" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>21</v>
@@ -6874,30 +6930,30 @@
       <c r="C340" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D340" s="32" t="s">
-        <v>306</v>
+      <c r="D340" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="E340" s="5">
         <v>1</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L340" s="4"/>
     </row>
     <row r="341" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D341" s="34"/>
+      <c r="D341" s="28"/>
       <c r="E341" s="5">
         <v>2</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G341" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L341" s="4"/>
     </row>
@@ -6907,7 +6963,7 @@
     </row>
     <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>21</v>
@@ -6915,43 +6971,43 @@
       <c r="C343" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D343" s="32" t="s">
-        <v>316</v>
+      <c r="D343" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="E343" s="5">
         <v>1</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L343" s="4"/>
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D344" s="33"/>
+      <c r="D344" s="28"/>
       <c r="E344" s="5">
         <v>2</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G344" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L344" s="4"/>
     </row>
     <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D345" s="34"/>
+      <c r="D345" s="28"/>
       <c r="E345" s="5">
         <v>3</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G345" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L345" s="4"/>
     </row>
@@ -6960,7 +7016,7 @@
     </row>
     <row r="347" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>21</v>
@@ -6968,43 +7024,43 @@
       <c r="C347" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D347" s="32" t="s">
-        <v>310</v>
+      <c r="D347" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
       </c>
       <c r="F347" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L347" s="4"/>
     </row>
     <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D348" s="33"/>
+      <c r="D348" s="28"/>
       <c r="E348" s="5">
         <v>2</v>
       </c>
       <c r="F348" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="I348" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G348" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I348" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="L348" s="4"/>
     </row>
     <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D349" s="34"/>
+      <c r="D349" s="28"/>
       <c r="E349" s="5">
         <v>3</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G349" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L349" s="4"/>
     </row>
@@ -7013,7 +7069,7 @@
     </row>
     <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B351" s="11" t="s">
         <v>21</v>
@@ -7021,27 +7077,27 @@
       <c r="C351" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D351" s="32" t="s">
-        <v>322</v>
+      <c r="D351" s="28" t="s">
+        <v>320</v>
       </c>
       <c r="E351" s="5">
         <v>1</v>
       </c>
       <c r="F351" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L351" s="4"/>
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D352" s="34"/>
+      <c r="D352" s="28"/>
       <c r="E352" s="5">
         <v>2</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G352" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L352" s="4"/>
     </row>
@@ -7050,7 +7106,7 @@
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>21</v>
@@ -7058,8 +7114,8 @@
       <c r="C354" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="32" t="s">
-        <v>326</v>
+      <c r="D354" s="28" t="s">
+        <v>324</v>
       </c>
       <c r="E354" s="5">
         <v>1</v>
@@ -7076,7 +7132,7 @@
       <c r="L354" s="4"/>
     </row>
     <row r="355" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D355" s="33"/>
+      <c r="D355" s="28"/>
       <c r="E355" s="5">
         <v>2</v>
       </c>
@@ -7092,7 +7148,7 @@
       <c r="L355" s="4"/>
     </row>
     <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D356" s="33"/>
+      <c r="D356" s="28"/>
       <c r="E356" s="5">
         <v>3</v>
       </c>
@@ -7108,7 +7164,7 @@
       <c r="L356" s="4"/>
     </row>
     <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D357" s="33"/>
+      <c r="D357" s="28"/>
       <c r="E357" s="5">
         <v>4</v>
       </c>
@@ -7124,7 +7180,7 @@
       <c r="L357" s="4"/>
     </row>
     <row r="358" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D358" s="33"/>
+      <c r="D358" s="28"/>
       <c r="E358" s="5">
         <v>5</v>
       </c>
@@ -7140,7 +7196,7 @@
       <c r="L358" s="4"/>
     </row>
     <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D359" s="33"/>
+      <c r="D359" s="28"/>
       <c r="E359" s="5">
         <v>6</v>
       </c>
@@ -7156,59 +7212,62 @@
       <c r="L359" s="4"/>
     </row>
     <row r="360" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D360" s="33"/>
+      <c r="D360" s="28"/>
       <c r="E360" s="5">
         <v>7</v>
       </c>
       <c r="F360" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G360" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G360" s="11" t="s">
-        <v>294</v>
-      </c>
       <c r="L360" s="4"/>
     </row>
-    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D361" s="33"/>
+    <row r="361" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D361" s="28"/>
       <c r="E361" s="5">
         <v>8</v>
       </c>
       <c r="F361" s="11" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G361" s="11" t="s">
-        <v>275</v>
+        <v>343</v>
+      </c>
+      <c r="I361" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="L361" s="4"/>
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D362" s="33"/>
+      <c r="D362" s="28"/>
       <c r="E362" s="5">
         <v>9</v>
       </c>
       <c r="F362" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G362" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L362" s="4"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="33"/>
+      <c r="D363" s="28"/>
       <c r="E363" s="5">
         <v>10</v>
       </c>
       <c r="F363" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G363" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L363" s="4"/>
     </row>
     <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D364" s="33"/>
+      <c r="D364" s="28"/>
       <c r="E364" s="5">
         <v>11</v>
       </c>
@@ -7221,7 +7280,7 @@
       <c r="L364" s="4"/>
     </row>
     <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D365" s="33"/>
+      <c r="D365" s="28"/>
       <c r="E365" s="5">
         <v>12</v>
       </c>
@@ -7237,7 +7296,7 @@
       <c r="L365" s="4"/>
     </row>
     <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D366" s="33"/>
+      <c r="D366" s="28"/>
       <c r="E366" s="5">
         <v>13</v>
       </c>
@@ -7253,7 +7312,7 @@
       <c r="L366" s="4"/>
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="33"/>
+      <c r="D367" s="28"/>
       <c r="E367" s="5">
         <v>14</v>
       </c>
@@ -7269,7 +7328,7 @@
       <c r="L367" s="4"/>
     </row>
     <row r="368" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D368" s="33"/>
+      <c r="D368" s="28"/>
       <c r="E368" s="5">
         <v>15</v>
       </c>
@@ -7277,121 +7336,326 @@
         <v>161</v>
       </c>
       <c r="G368" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D369" s="34"/>
+    <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D369" s="28"/>
       <c r="E369" s="5">
         <v>16</v>
       </c>
       <c r="F369" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G369" s="35" t="s">
-        <v>332</v>
+      <c r="G369" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I370" s="12"/>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D371" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E371" s="5">
+        <v>1</v>
+      </c>
+      <c r="F371" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D372" s="28"/>
+      <c r="E372" s="5">
+        <v>2</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D373" s="28"/>
+      <c r="E373" s="5">
+        <v>3</v>
+      </c>
+      <c r="F373" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I373" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D374" s="28"/>
+      <c r="E374" s="5">
+        <v>4</v>
+      </c>
+      <c r="F374" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I374" s="11" t="s">
+        <v>337</v>
+      </c>
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D375" s="28"/>
+      <c r="E375" s="5">
+        <v>5</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>339</v>
+      </c>
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D377" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E377" s="5">
+        <v>1</v>
+      </c>
+      <c r="F377" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I377" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D378" s="24"/>
+      <c r="E378" s="5">
+        <v>2</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I378" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D379" s="24"/>
+      <c r="E379" s="5">
+        <v>3</v>
+      </c>
+      <c r="F379" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I379" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I380" s="12"/>
+    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D380" s="24"/>
+      <c r="E380" s="5">
+        <v>4</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I380" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I381" s="15"/>
+    <row r="381" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D381" s="24"/>
+      <c r="E381" s="5">
+        <v>5</v>
+      </c>
+      <c r="F381" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I381" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I382" s="12"/>
+    <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D382" s="24"/>
+      <c r="E382" s="5">
+        <v>6</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I382" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I383" s="12"/>
+    <row r="383" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D383" s="24"/>
+      <c r="E383" s="5">
+        <v>7</v>
+      </c>
+      <c r="F383" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G383" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D384" s="24"/>
+      <c r="E384" s="5">
+        <v>8</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I384" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D385" s="24"/>
+      <c r="E385" s="5">
+        <v>9</v>
+      </c>
+      <c r="F385" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I385" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D386" s="24"/>
+      <c r="E386" s="5">
+        <v>10</v>
+      </c>
+      <c r="F386" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G386" s="11" t="s">
+        <v>348</v>
+      </c>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D387" s="25"/>
+      <c r="E387" s="5">
+        <v>11</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G387" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L388" s="4"/>
     </row>
-    <row r="389" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I390" s="12"/>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I391" s="15"/>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L400" s="4"/>
     </row>
     <row r="401" spans="9:12" x14ac:dyDescent="0.25">
@@ -8607,21 +8871,18 @@
       <c r="L717" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="D343:D345"/>
-    <mergeCell ref="D347:D349"/>
-    <mergeCell ref="D351:D352"/>
-    <mergeCell ref="D354:D369"/>
-    <mergeCell ref="D294:D309"/>
-    <mergeCell ref="D311:D324"/>
-    <mergeCell ref="D326:D335"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="D253:D270"/>
-    <mergeCell ref="D272:D274"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="D284:D287"/>
+  <mergeCells count="41">
+    <mergeCell ref="D371:D375"/>
+    <mergeCell ref="D377:D387"/>
+    <mergeCell ref="D90:D98"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="D234:D239"/>
+    <mergeCell ref="D241:D251"/>
+    <mergeCell ref="D150:D169"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="D178:D197"/>
+    <mergeCell ref="D199:D210"/>
+    <mergeCell ref="D212:D232"/>
     <mergeCell ref="D289:D292"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="D2:D14"/>
@@ -8638,15 +8899,20 @@
     <mergeCell ref="D130:D148"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="D90:D98"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="D234:D239"/>
-    <mergeCell ref="D241:D251"/>
-    <mergeCell ref="D150:D169"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="D178:D197"/>
-    <mergeCell ref="D199:D210"/>
-    <mergeCell ref="D212:D232"/>
+    <mergeCell ref="D253:D270"/>
+    <mergeCell ref="D272:D274"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="D284:D287"/>
+    <mergeCell ref="D343:D345"/>
+    <mergeCell ref="D347:D349"/>
+    <mergeCell ref="D351:D352"/>
+    <mergeCell ref="D354:D369"/>
+    <mergeCell ref="D294:D309"/>
+    <mergeCell ref="D311:D324"/>
+    <mergeCell ref="D326:D335"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="D340:D341"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 K2:K7 K9:K469 C9:C643" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -8655,7 +8921,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C644:C713" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B20 B29:B30 B40 B51 B64 B76 B88 B100:B101 B116:B117 B129:B130 B143 B162 B178:B179 B193 B208 B222 B236 B250 B264 B267 B253 B279:B280 B284:B285 B289:B290 B276 B299 B307 B315 B322 B329 B336:B337 B342:B343 B349 B361 B370 B380 B390 B405 B421 B438 B451 B462 B475 B487 B500 B511 B521 B534 B545 B557 B574 B593 B603 B614 B625 B636 B16 B44 B49 B55 B70 B74 B78 B83 B90 B110 B120 B150 B171 B199 B212 B234 B241 B272 B294 B311 B326 B340 B347 B351 B354" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B20 B29:B30 B40 B51 B64 B76 B88 B100:B101 B116:B117 B129:B130 B143 B162 B178:B179 B193 B208 B222 B236 B250 B264 B267 B253 B279:B280 B284:B285 B289:B290 B276 B299 B307 B315 B322 B329 B336:B337 B342:B343 B349 B361 B370:B371 B380 B390 B405 B421 B438 B451 B462 B475 B487 B500 B511 B521 B534 B545 B557 B574 B593 B603 B614 B625 B636 B16 B44 B49 B55 B70 B74 B78 B83 B90 B110 B120 B150 B171 B199 B212 B234 B241 B272 B294 B311 B326 B340 B347 B351 B354 B377" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7 L9:L717" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -8685,8 +8951,36 @@
     <hyperlink ref="I311" r:id="rId17" xr:uid="{E6C83C3B-405F-4DA2-9EDB-BC37D56DC922}"/>
     <hyperlink ref="I326" r:id="rId18" xr:uid="{B0EDD7B4-594C-43B4-9A4F-D7149ED8AD4D}"/>
     <hyperlink ref="I354" r:id="rId19" xr:uid="{27EB00AC-4D64-414F-BEB1-EEE377466BC7}"/>
+    <hyperlink ref="I377" r:id="rId20" xr:uid="{C3D63705-EAF6-42D2-80DE-6E15BF19CB1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D90210-08DD-42D6-88D1-35269D420095}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Cases/Poornima/Test Case- Store.xlsx
+++ b/Test Cases/Poornima/Test Case- Store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\Mediware-Repository\Test Cases\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848B622-C70C-4FFD-83D0-B811BA9C4D02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F35EE-4B87-4EC9-B193-4E0BC87749AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="507">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -414,9 +414,6 @@
     <t>MED_STR_TC_0010</t>
   </si>
   <si>
-    <t>User can able to add common other page in Purchase Order</t>
-  </si>
-  <si>
     <t>Click on Other Charges</t>
   </si>
   <si>
@@ -1224,6 +1221,513 @@
   </si>
   <si>
     <t>User should be able to click Hold GRN button. A message pop-up should be displayed with a  message 'GRn has been hold'</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0040</t>
+  </si>
+  <si>
+    <t>To verify that Unhold the GRN</t>
+  </si>
+  <si>
+    <t>Click on Add New</t>
+  </si>
+  <si>
+    <t>Good GRN page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Release GRN (Green icon[Alt+R])icon at the bottom</t>
+  </si>
+  <si>
+    <t>Held GRN pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Eg:Axis technologies</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0041</t>
+  </si>
+  <si>
+    <t>Select check boxes from the listed supplier in Held Grn&gt;&gt;Click on Select</t>
+  </si>
+  <si>
+    <t>User should be able to selected the check boxes.Selected supplier details should be filled out in all fields</t>
+  </si>
+  <si>
+    <t>User can able to  view Store Issue list</t>
+  </si>
+  <si>
+    <t>Click on Store Issue from top header</t>
+  </si>
+  <si>
+    <t>User should be able to enter the store Issue.Store Issue List page should be displayed</t>
+  </si>
+  <si>
+    <t>From:1/1/19
+To:19/6/19</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Store Issued list should be listed out with cooresponding selected dates</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0042</t>
+  </si>
+  <si>
+    <t>To verify that Searching Stores from Store Issued LIst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:Store Issed list should be listed out </t>
+  </si>
+  <si>
+    <t>Enter data in Search field
+Issue#
+or
+Hospital
+or
+User</t>
+  </si>
+  <si>
+    <t>Issue#:00182</t>
+  </si>
+  <si>
+    <t>User should  be able to enter data in search field
+Issue#
+or
+Hospital
+or
+User.
+Searched store should be displayed in Store issued list</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0043</t>
+  </si>
+  <si>
+    <t>To verify Item wise searching in Store Issued list</t>
+  </si>
+  <si>
+    <t>Select item in Search Item</t>
+  </si>
+  <si>
+    <t>Search Item:19G LFL - PRODERMA LFL THREADS BARB 2 4D LTYPE 19G (90MM) (12/BOX)</t>
+  </si>
+  <si>
+    <t>User should be able to select the item . Selected Item should be listed out</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0044</t>
+  </si>
+  <si>
+    <t>To verify that Viewing  store issues</t>
+  </si>
+  <si>
+    <t>Click on View from listed store issued list</t>
+  </si>
+  <si>
+    <t>Store to store issue page should be displayed with all the fields filled out</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0045</t>
+  </si>
+  <si>
+    <t>User can able to Search item wise in Store  Return</t>
+  </si>
+  <si>
+    <t>Click on Store Return from top header</t>
+  </si>
+  <si>
+    <t>User should be able to enter the store Return.Store Retrun page should be displayed</t>
+  </si>
+  <si>
+    <t>Select Item in Item wise search field</t>
+  </si>
+  <si>
+    <t>User should be able to select the item.Item should be listed out in store return</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0046</t>
+  </si>
+  <si>
+    <t>To verify that viewing Return list</t>
+  </si>
+  <si>
+    <t>Test Case MED_STR_TC_0045 same as upto step ID:7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Return View List </t>
+  </si>
+  <si>
+    <t>User should be  able to click Return View List button.Store Return View List page should be displayed and returned stores should be listed out</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0047</t>
+  </si>
+  <si>
+    <t>To verify that Print functionality is working  'View' button on Store Issue</t>
+  </si>
+  <si>
+    <t>Click on Print in Store to Store Issue page</t>
+  </si>
+  <si>
+    <t>User should be able to click print. 'Store to Store issue Voucher' report should be displayed</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0048</t>
+  </si>
+  <si>
+    <t>To verify that Item wise searching in Return view list</t>
+  </si>
+  <si>
+    <t>Item:3900 - PURILON GEL 15G</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0049</t>
+  </si>
+  <si>
+    <t>To verify that Search retrun list in Return List View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue the Test Case MED_STR_TC_0046 </t>
+  </si>
+  <si>
+    <t>Enter data in Search field
+Ref#
+or
+Return Date
+or
+Hospital
+or
+User</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in search fields
+Ref#
+or
+Return Date
+or
+Hospital
+or
+User</t>
+  </si>
+  <si>
+    <t>Eg:
+Ref#:000007</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0050</t>
+  </si>
+  <si>
+    <t>To verify that Viewing  store Return</t>
+  </si>
+  <si>
+    <t>Precondition: List should be present in Store Return List</t>
+  </si>
+  <si>
+    <t>Click on View from listed returned stores</t>
+  </si>
+  <si>
+    <t>Store return Direct page should be displayed with all  data should be filled out</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0051</t>
+  </si>
+  <si>
+    <t>To verify that Printing Store  retrun details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Print </t>
+  </si>
+  <si>
+    <t>Store return Voucher report should be displayed</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0052</t>
+  </si>
+  <si>
+    <t>To verify that Marking Store return</t>
+  </si>
+  <si>
+    <t>Click on Return marking</t>
+  </si>
+  <si>
+    <t>User should be  able to click Return Marking button.</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0053</t>
+  </si>
+  <si>
+    <t>To verify that Item wise searching in Purchase Return View</t>
+  </si>
+  <si>
+    <t>Click on Purachse Return View</t>
+  </si>
+  <si>
+    <t>Purchase return view page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select date </t>
+  </si>
+  <si>
+    <t>User should be able to select the date .Purchase Return list should be listed out</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0054</t>
+  </si>
+  <si>
+    <t>To verify that Create  GRN with Reference to temporary GRN</t>
+  </si>
+  <si>
+    <t>Precondition : Temporary GRN should be created</t>
+  </si>
+  <si>
+    <t>Click on Grn view &gt;&gt;Click on Add New</t>
+  </si>
+  <si>
+    <t>Grn view list should be displayed.GRN page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select the Supplier </t>
+  </si>
+  <si>
+    <t>Click on Temp.GRN button</t>
+  </si>
+  <si>
+    <t>Created Temp.Grn should be listed in Temporary GRN pop-up</t>
+  </si>
+  <si>
+    <t>Select the Temp grn from Temp grn pop-up</t>
+  </si>
+  <si>
+    <t>Selected Check box should be checked.Fields should be filled out</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0055</t>
+  </si>
+  <si>
+    <t>To verify that Create  GRN with Reference to purchase order</t>
+  </si>
+  <si>
+    <t>Precondition: Item should be purchased</t>
+  </si>
+  <si>
+    <t>Supplier:Al Accad Store</t>
+  </si>
+  <si>
+    <t>Click on Purchase Order</t>
+  </si>
+  <si>
+    <t>Order item should be  listed in purchase order pop-up</t>
+  </si>
+  <si>
+    <t>Click on Select &gt;&gt;Click on YES</t>
+  </si>
+  <si>
+    <t>A confirmation pop-up should be displayed with a message 'Do you want to view &amp; select the item?'.Fields should be filled out</t>
+  </si>
+  <si>
+    <t>Eg:Temp.GRN:000006</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0056</t>
+  </si>
+  <si>
+    <t>Click on one  Purchase Order</t>
+  </si>
+  <si>
+    <t>To verify that Create  GRN with multiple purchase order</t>
+  </si>
+  <si>
+    <t>more than one Order item should be  listed in purchase order pop-up</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0057</t>
+  </si>
+  <si>
+    <t>To verify that Create GRN of an expired purchase order</t>
+  </si>
+  <si>
+    <t>Click on purchas order&gt;&gt;Select  more than one  Purchase Order</t>
+  </si>
+  <si>
+    <t>Item should be  listed in purchase order with current and expired date</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0058</t>
+  </si>
+  <si>
+    <t>To create temporary GRN with multiple purchase order</t>
+  </si>
+  <si>
+    <t>Click on Purchase order&gt;&gt;Click on Add New</t>
+  </si>
+  <si>
+    <t>Purchase order page should be listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter all the mandatory fields
+1.Supplier
+2.Item
+3.Qty
+</t>
+  </si>
+  <si>
+    <t>User should be able to enter all the mandatory field
+1.Supplier
+2.Item
+3.Qty</t>
+  </si>
+  <si>
+    <t>1.Supplier:Al Accad Store
+2.Item
+3.Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Data saved'  message pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Repeat the Step 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to click the  GRN view. </t>
+  </si>
+  <si>
+    <t>Click temporary GRn&gt;&gt;Click on ADD NEW</t>
+  </si>
+  <si>
+    <t>Temporary Grn view list should be displayed.</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0059</t>
+  </si>
+  <si>
+    <t>Test Case MED_STR_TC_0023 same</t>
+  </si>
+  <si>
+    <t>Click on Delete button</t>
+  </si>
+  <si>
+    <t>Deleteing a temporary GRN</t>
+  </si>
+  <si>
+    <t>User should not be able to delete temporary grn</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0060</t>
+  </si>
+  <si>
+    <t>To verify the bill amount  and Invoice amount</t>
+  </si>
+  <si>
+    <t>Precondition: Item should be added in GRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Invoice# </t>
+  </si>
+  <si>
+    <t>User should be able to enter the Invoice#</t>
+  </si>
+  <si>
+    <t>Invoice#:510</t>
+  </si>
+  <si>
+    <t>Enter Bill Amount</t>
+  </si>
+  <si>
+    <t>User should be able to enter the Bill Amount.Verify that Bill amount should be same as Total Amount</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0061</t>
+  </si>
+  <si>
+    <t>User can able to add other charges in Purchase Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charges Entry should be displayed </t>
+  </si>
+  <si>
+    <t>Deleting  other charges from the GRN</t>
+  </si>
+  <si>
+    <t>Click on Charges F6&gt;&gt;Click on Delete row&gt;&gt;Click on Select</t>
+  </si>
+  <si>
+    <t>deleted amount should be reflected in the total amount.</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0062</t>
+  </si>
+  <si>
+    <t>Apply discount to the GRN</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0063</t>
+  </si>
+  <si>
+    <t>To verify Approver purchase order</t>
+  </si>
+  <si>
+    <t>Precondition:Order should be purchased and approved</t>
+  </si>
+  <si>
+    <t>verify that a green tick should be displayed as Status only for appover purchase</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0064</t>
+  </si>
+  <si>
+    <t>To verify that create purchase order with priority 'small'</t>
+  </si>
+  <si>
+    <t>Click on Add New in Purchase order page</t>
+  </si>
+  <si>
+    <t>Purchase Order page should be displayed</t>
+  </si>
+  <si>
+    <t>Select Priority as Small</t>
+  </si>
+  <si>
+    <t>User should be able to select the Priority</t>
+  </si>
+  <si>
+    <t>Priority:Small</t>
+  </si>
+  <si>
+    <t>Click on Save&gt;&gt;Click on Appove</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0065</t>
+  </si>
+  <si>
+    <t>To verify that create purchase order with priority 'Major'</t>
+  </si>
+  <si>
+    <t>Select Priority as Major</t>
+  </si>
+  <si>
+    <t>Priority:Major</t>
+  </si>
+  <si>
+    <t>Order approved message pop-up should be displayed.Navigate to Purchase order page and should be able to view a gray circle as status  with number three for priority 'small'</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_0066</t>
+  </si>
+  <si>
+    <t>To verify that create purchase order with priority 'Special'</t>
+  </si>
+  <si>
+    <t>Select Priority as Special</t>
+  </si>
+  <si>
+    <t>Priority:Special</t>
+  </si>
+  <si>
+    <t>Order approved message pop-up should be displayed.Navigate to Purchase order page and should be able to view a yellow circle as status with number one for priority 'special'</t>
+  </si>
+  <si>
+    <t>Order approved message pop-up should be displayed.Navigate to Purchase order page and should be able to view a red circle as status with number one for priority 'major'</t>
   </si>
 </sst>
 </file>
@@ -1450,6 +1954,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1463,9 +1970,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,9 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S717"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H522" sqref="H522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,10 +2361,10 @@
         <v>9</v>
       </c>
       <c r="P1" s="29"/>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="27"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1872,17 +2376,17 @@
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="12" t="s">
@@ -1897,7 +2401,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -1911,7 +2415,7 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="5">
         <v>2</v>
       </c>
@@ -1948,7 +2452,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="5">
         <v>3</v>
       </c>
@@ -1979,7 +2483,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="28"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="5">
         <v>4</v>
       </c>
@@ -2002,7 +2506,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="D6" s="28"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="5">
         <v>5</v>
       </c>
@@ -2018,7 +2522,7 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="5">
         <v>6</v>
       </c>
@@ -2034,7 +2538,7 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="5">
         <v>7</v>
       </c>
@@ -2046,7 +2550,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="5">
         <v>8</v>
       </c>
@@ -2062,7 +2566,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="5">
         <v>9</v>
       </c>
@@ -2076,7 +2580,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="5">
         <v>10</v>
       </c>
@@ -2092,7 +2596,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="5">
         <v>11</v>
       </c>
@@ -2108,7 +2612,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="5">
         <v>12</v>
       </c>
@@ -2124,7 +2628,7 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="5">
         <v>13</v>
       </c>
@@ -2149,17 +2653,17 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>24</v>
@@ -2167,7 +2671,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="28"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="5">
         <v>2</v>
       </c>
@@ -2183,7 +2687,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="28"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="5">
         <v>3</v>
       </c>
@@ -2199,7 +2703,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="28"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="5">
         <v>4</v>
       </c>
@@ -2215,7 +2719,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D20" s="28"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="5">
         <v>5</v>
       </c>
@@ -2231,7 +2735,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="28"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5">
         <v>6</v>
       </c>
@@ -2247,7 +2751,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D22" s="28"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="5">
         <v>7</v>
       </c>
@@ -2260,7 +2764,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="28"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5">
         <v>8</v>
       </c>
@@ -2276,7 +2780,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="28"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="5">
         <v>9</v>
       </c>
@@ -2290,7 +2794,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D25" s="28"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="5">
         <v>10</v>
       </c>
@@ -2306,7 +2810,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D26" s="28"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="5">
         <v>11</v>
       </c>
@@ -2322,7 +2826,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="28"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="5">
         <v>12</v>
       </c>
@@ -2335,7 +2839,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D28" s="28"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="5">
         <v>13</v>
       </c>
@@ -2361,17 +2865,17 @@
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>24</v>
@@ -2379,7 +2883,7 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="28"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="5">
         <v>2</v>
       </c>
@@ -2395,7 +2899,7 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="28"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="5">
         <v>3</v>
       </c>
@@ -2411,7 +2915,7 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="28"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="5">
         <v>4</v>
       </c>
@@ -2427,7 +2931,7 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D34" s="28"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="5">
         <v>5</v>
       </c>
@@ -2443,7 +2947,7 @@
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="28"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="5">
         <v>6</v>
       </c>
@@ -2459,7 +2963,7 @@
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D36" s="28"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="5">
         <v>7</v>
       </c>
@@ -2472,7 +2976,7 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="28"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="5">
         <v>8</v>
       </c>
@@ -2488,7 +2992,7 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="28"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="5">
         <v>9</v>
       </c>
@@ -2502,7 +3006,7 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D39" s="28"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="5">
         <v>10</v>
       </c>
@@ -2518,7 +3022,7 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D40" s="28"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="5">
         <v>11</v>
       </c>
@@ -2534,7 +3038,7 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="28"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="5">
         <v>12</v>
       </c>
@@ -2548,7 +3052,7 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="28"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="5">
         <v>13</v>
       </c>
@@ -2575,7 +3079,7 @@
       <c r="C44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
@@ -2587,7 +3091,7 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D45" s="28"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="5">
         <v>2</v>
       </c>
@@ -2603,7 +3107,7 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="28"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="5">
         <v>3</v>
       </c>
@@ -2616,7 +3120,7 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="28"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="5">
         <v>4</v>
       </c>
@@ -2641,7 +3145,7 @@
       <c r="C49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E49" s="5">
@@ -2653,7 +3157,7 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D50" s="28"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="5">
         <v>2</v>
       </c>
@@ -2666,7 +3170,7 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="28"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="5">
         <v>3</v>
       </c>
@@ -2680,7 +3184,7 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D52" s="28"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="5">
         <v>4</v>
       </c>
@@ -2696,7 +3200,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D53" s="28"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="5">
         <v>5</v>
       </c>
@@ -2723,17 +3227,17 @@
       <c r="C55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
       <c r="F55" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>24</v>
@@ -2741,7 +3245,7 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D56" s="26"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="5">
         <v>2</v>
       </c>
@@ -2757,7 +3261,7 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="26"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="5">
         <v>3</v>
       </c>
@@ -2773,7 +3277,7 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D58" s="26"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="5">
         <v>4</v>
       </c>
@@ -2789,7 +3293,7 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D59" s="26"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="5">
         <v>5</v>
       </c>
@@ -2805,7 +3309,7 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="26"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="5">
         <v>6</v>
       </c>
@@ -2821,7 +3325,7 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D61" s="26"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="5">
         <v>7</v>
       </c>
@@ -2834,7 +3338,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D62" s="26"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="5">
         <v>8</v>
       </c>
@@ -2850,7 +3354,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D63" s="26"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="5">
         <v>9</v>
       </c>
@@ -2864,7 +3368,7 @@
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D64" s="26"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="5">
         <v>10</v>
       </c>
@@ -2880,7 +3384,7 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D65" s="26"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="5">
         <v>11</v>
       </c>
@@ -2896,7 +3400,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="26"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="5">
         <v>12</v>
       </c>
@@ -2910,7 +3414,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="26"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="5">
         <v>13</v>
       </c>
@@ -2926,7 +3430,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="26"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="5">
         <v>14</v>
       </c>
@@ -2951,7 +3455,7 @@
       <c r="C70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="27" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="5">
@@ -2963,7 +3467,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D71" s="26"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="5">
         <v>2</v>
       </c>
@@ -2979,7 +3483,7 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="26"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="5">
         <v>3</v>
       </c>
@@ -3004,7 +3508,7 @@
       <c r="C74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E74" s="5">
@@ -3016,7 +3520,7 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D75" s="28"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="5">
         <v>2</v>
       </c>
@@ -3029,7 +3533,7 @@
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="28"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="5">
         <v>3</v>
       </c>
@@ -3056,7 +3560,7 @@
       <c r="C78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E78" s="5">
@@ -3068,7 +3572,7 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D79" s="28"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="5">
         <v>2</v>
       </c>
@@ -3081,7 +3585,7 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="28"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="5">
         <v>3</v>
       </c>
@@ -3097,7 +3601,7 @@
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="28"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="5">
         <v>4</v>
       </c>
@@ -3122,8 +3626,8 @@
       <c r="C83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>113</v>
+      <c r="D83" s="23" t="s">
+        <v>477</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -3134,73 +3638,73 @@
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="28"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="5">
         <v>2</v>
       </c>
       <c r="F84" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D85" s="28"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="5">
         <v>3</v>
       </c>
       <c r="F85" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I85" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D86" s="28"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="5">
         <v>4</v>
       </c>
       <c r="F86" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="I86" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I86" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D87" s="28"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="5">
         <v>5</v>
       </c>
       <c r="F87" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D88" s="28"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="5">
         <v>6</v>
       </c>
       <c r="F88" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G88" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="I88" s="12"/>
       <c r="L88" s="4"/>
@@ -3211,7 +3715,7 @@
     </row>
     <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>21</v>
@@ -3219,17 +3723,17 @@
       <c r="C90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="28" t="s">
-        <v>127</v>
+      <c r="D90" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>24</v>
@@ -3237,7 +3741,7 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D91" s="28"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="5">
         <v>2</v>
       </c>
@@ -3253,7 +3757,7 @@
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="28"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="5">
         <v>3</v>
       </c>
@@ -3269,7 +3773,7 @@
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D93" s="28"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="5">
         <v>4</v>
       </c>
@@ -3285,7 +3789,7 @@
       <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D94" s="28"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="5">
         <v>5</v>
       </c>
@@ -3301,7 +3805,7 @@
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="28"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="5">
         <v>6</v>
       </c>
@@ -3317,28 +3821,28 @@
       <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="28"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="5">
         <v>7</v>
       </c>
       <c r="F96" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D97" s="28"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="5">
         <v>8</v>
       </c>
       <c r="F97" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>46</v>
@@ -3346,7 +3850,7 @@
       <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D98" s="28"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="5">
         <v>9</v>
       </c>
@@ -3354,7 +3858,7 @@
         <v>47</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L98" s="4"/>
     </row>
@@ -3363,7 +3867,7 @@
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>21</v>
@@ -3371,17 +3875,17 @@
       <c r="C100" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="28" t="s">
-        <v>134</v>
+      <c r="D100" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>24</v>
@@ -3389,7 +3893,7 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D101" s="28"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="5">
         <v>2</v>
       </c>
@@ -3405,7 +3909,7 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D102" s="28"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="5">
         <v>3</v>
       </c>
@@ -3421,7 +3925,7 @@
       <c r="L102" s="4"/>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D103" s="28"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="5">
         <v>4</v>
       </c>
@@ -3437,7 +3941,7 @@
       <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D104" s="28"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="5">
         <v>5</v>
       </c>
@@ -3453,7 +3957,7 @@
       <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D105" s="28"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="5">
         <v>6</v>
       </c>
@@ -3469,28 +3973,28 @@
       <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="28"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="5">
         <v>7</v>
       </c>
       <c r="F106" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D107" s="28"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="5">
         <v>8</v>
       </c>
       <c r="F107" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G107" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>46</v>
@@ -3498,18 +4002,18 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D108" s="28"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="5">
         <v>9</v>
       </c>
       <c r="F108" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I108" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="L108" s="4"/>
     </row>
@@ -3519,7 +4023,7 @@
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>21</v>
@@ -3527,17 +4031,17 @@
       <c r="C110" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="28" t="s">
-        <v>138</v>
+      <c r="D110" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E110" s="5">
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>24</v>
@@ -3545,7 +4049,7 @@
       <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D111" s="28"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="5">
         <v>2</v>
       </c>
@@ -3561,7 +4065,7 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D112" s="28"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="5">
         <v>3</v>
       </c>
@@ -3577,7 +4081,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D113" s="28"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="5">
         <v>4</v>
       </c>
@@ -3593,7 +4097,7 @@
       <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D114" s="28"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="5">
         <v>5</v>
       </c>
@@ -3609,7 +4113,7 @@
       <c r="L114" s="4"/>
     </row>
     <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D115" s="28"/>
+      <c r="D115" s="23"/>
       <c r="E115" s="5">
         <v>6</v>
       </c>
@@ -3625,28 +4129,28 @@
       <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D116" s="28"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="5">
         <v>7</v>
       </c>
       <c r="F116" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G116" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D117" s="28"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="5">
         <v>8</v>
       </c>
       <c r="F117" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G117" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>46</v>
@@ -3654,18 +4158,18 @@
       <c r="L117" s="4"/>
     </row>
     <row r="118" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D118" s="28"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="5">
         <v>9</v>
       </c>
       <c r="F118" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I118" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I118" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="L118" s="4"/>
     </row>
@@ -3674,7 +4178,7 @@
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>21</v>
@@ -3682,17 +4186,17 @@
       <c r="C120" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="28" t="s">
-        <v>142</v>
+      <c r="D120" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="E120" s="5">
         <v>1</v>
       </c>
       <c r="F120" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G120" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>24</v>
@@ -3700,7 +4204,7 @@
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D121" s="28"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="5">
         <v>2</v>
       </c>
@@ -3716,7 +4220,7 @@
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D122" s="28"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="5">
         <v>3</v>
       </c>
@@ -3732,7 +4236,7 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D123" s="28"/>
+      <c r="D123" s="23"/>
       <c r="E123" s="5">
         <v>4</v>
       </c>
@@ -3748,7 +4252,7 @@
       <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D124" s="28"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="5">
         <v>5</v>
       </c>
@@ -3764,7 +4268,7 @@
       <c r="L124" s="4"/>
     </row>
     <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D125" s="28"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="5">
         <v>6</v>
       </c>
@@ -3781,28 +4285,28 @@
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
-      <c r="D126" s="28"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="5">
         <v>7</v>
       </c>
       <c r="F126" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G126" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="28"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="5">
         <v>8</v>
       </c>
       <c r="F127" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>46</v>
@@ -3810,18 +4314,18 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D128" s="28"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="5">
         <v>9</v>
       </c>
       <c r="F128" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G128" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="I128" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L128" s="4"/>
     </row>
@@ -3831,7 +4335,7 @@
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>21</v>
@@ -3839,17 +4343,17 @@
       <c r="C130" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="28" t="s">
-        <v>148</v>
+      <c r="D130" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="E130" s="5">
         <v>1</v>
       </c>
       <c r="F130" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G130" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>24</v>
@@ -3857,7 +4361,7 @@
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D131" s="28"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="5">
         <v>2</v>
       </c>
@@ -3873,7 +4377,7 @@
       <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="28"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="5">
         <v>3</v>
       </c>
@@ -3889,7 +4393,7 @@
       <c r="L132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D133" s="28"/>
+      <c r="D133" s="23"/>
       <c r="E133" s="5">
         <v>4</v>
       </c>
@@ -3905,7 +4409,7 @@
       <c r="L133" s="4"/>
     </row>
     <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D134" s="28"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="5">
         <v>5</v>
       </c>
@@ -3921,7 +4425,7 @@
       <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D135" s="28"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="5">
         <v>6</v>
       </c>
@@ -3937,73 +4441,73 @@
       <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="28"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="5">
         <v>7</v>
       </c>
       <c r="F136" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G136" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D137" s="28"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="5">
         <v>8</v>
       </c>
       <c r="F137" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G137" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G137" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D138" s="28"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="5">
         <v>9</v>
       </c>
       <c r="F138" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G138" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G138" s="11" t="s">
+      <c r="I138" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I138" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D139" s="28"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="5">
         <v>10</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D140" s="28"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="5">
         <v>11</v>
       </c>
       <c r="F140" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>54</v>
@@ -4011,118 +4515,118 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D141" s="28"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="5">
         <v>12</v>
       </c>
       <c r="F141" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="I141" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I141" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D142" s="28"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="5">
         <v>13</v>
       </c>
       <c r="F142" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G142" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G142" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D143" s="28"/>
+      <c r="D143" s="23"/>
       <c r="E143" s="5">
         <v>14</v>
       </c>
       <c r="F143" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G143" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G143" s="11" t="s">
+      <c r="I143" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I143" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D144" s="28"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="5">
         <v>15</v>
       </c>
       <c r="F144" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G144" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="I144" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="I144" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="L144" s="4"/>
     </row>
     <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D145" s="28"/>
+      <c r="D145" s="23"/>
       <c r="E145" s="5">
         <v>16</v>
       </c>
       <c r="F145" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G145" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="I145" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I145" s="11" t="s">
-        <v>171</v>
-      </c>
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D146" s="28"/>
+      <c r="D146" s="23"/>
       <c r="E146" s="5">
         <v>17</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D147" s="28"/>
+      <c r="D147" s="23"/>
       <c r="E147" s="5">
         <v>18</v>
       </c>
       <c r="F147" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G147" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G147" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D148" s="28"/>
+      <c r="D148" s="23"/>
       <c r="E148" s="5">
         <v>19</v>
       </c>
       <c r="F148" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G148" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="L148" s="4"/>
     </row>
@@ -4132,7 +4636,7 @@
     </row>
     <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>21</v>
@@ -4140,17 +4644,17 @@
       <c r="C150" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="28" t="s">
-        <v>180</v>
+      <c r="D150" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="E150" s="5">
         <v>1</v>
       </c>
       <c r="F150" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G150" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I150" s="12" t="s">
         <v>24</v>
@@ -4158,7 +4662,7 @@
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D151" s="28"/>
+      <c r="D151" s="23"/>
       <c r="E151" s="5">
         <v>2</v>
       </c>
@@ -4174,7 +4678,7 @@
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D152" s="28"/>
+      <c r="D152" s="23"/>
       <c r="E152" s="5">
         <v>3</v>
       </c>
@@ -4190,7 +4694,7 @@
       <c r="L152" s="4"/>
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D153" s="28"/>
+      <c r="D153" s="23"/>
       <c r="E153" s="5">
         <v>4</v>
       </c>
@@ -4206,7 +4710,7 @@
       <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D154" s="28"/>
+      <c r="D154" s="23"/>
       <c r="E154" s="5">
         <v>5</v>
       </c>
@@ -4222,7 +4726,7 @@
       <c r="L154" s="4"/>
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D155" s="28"/>
+      <c r="D155" s="23"/>
       <c r="E155" s="5">
         <v>6</v>
       </c>
@@ -4238,73 +4742,73 @@
       <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D156" s="28"/>
+      <c r="D156" s="23"/>
       <c r="E156" s="5">
         <v>7</v>
       </c>
       <c r="F156" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G156" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G156" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L156" s="4"/>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D157" s="28"/>
+      <c r="D157" s="23"/>
       <c r="E157" s="5">
         <v>8</v>
       </c>
       <c r="F157" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G157" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D158" s="28"/>
+      <c r="D158" s="23"/>
       <c r="E158" s="5">
         <v>9</v>
       </c>
       <c r="F158" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="I158" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I158" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="L158" s="4"/>
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D159" s="28"/>
+      <c r="D159" s="23"/>
       <c r="E159" s="5">
         <v>10</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D160" s="28"/>
+      <c r="D160" s="23"/>
       <c r="E160" s="5">
         <v>11</v>
       </c>
       <c r="F160" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G160" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="I160" s="11" t="s">
         <v>54</v>
@@ -4312,134 +4816,134 @@
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D161" s="28"/>
+      <c r="D161" s="23"/>
       <c r="E161" s="5">
         <v>12</v>
       </c>
       <c r="F161" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="I161" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I161" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="28"/>
+      <c r="D162" s="23"/>
       <c r="E162" s="5">
         <v>13</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L162" s="4"/>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D163" s="28"/>
+      <c r="D163" s="23"/>
       <c r="E163" s="5">
         <v>14</v>
       </c>
       <c r="F163" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G163" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G163" s="11" t="s">
+      <c r="I163" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I163" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="L163" s="4"/>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D164" s="28"/>
+      <c r="D164" s="23"/>
       <c r="E164" s="5">
         <v>15</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G164" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I164" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I164" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="L164" s="4"/>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D165" s="28"/>
+      <c r="D165" s="23"/>
       <c r="E165" s="5">
         <v>16</v>
       </c>
       <c r="F165" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G165" s="11" t="s">
+      <c r="I165" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I165" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D166" s="28"/>
+      <c r="D166" s="23"/>
       <c r="E166" s="5">
         <v>17</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L166" s="4"/>
     </row>
     <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D167" s="28"/>
+      <c r="D167" s="23"/>
       <c r="E167" s="5">
         <v>18</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D168" s="28"/>
+      <c r="D168" s="23"/>
       <c r="E168" s="5">
         <v>19</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L168" s="4"/>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D169" s="28"/>
+      <c r="D169" s="23"/>
       <c r="E169" s="5">
         <v>20</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L169" s="4"/>
     </row>
@@ -4449,7 +4953,7 @@
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>21</v>
@@ -4457,82 +4961,82 @@
       <c r="C171" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D171" s="28" t="s">
-        <v>200</v>
+      <c r="D171" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="E171" s="5">
         <v>1</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L171" s="4"/>
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D172" s="28"/>
+      <c r="D172" s="23"/>
       <c r="E172" s="5">
         <v>2</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G172" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I172" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I172" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D173" s="28"/>
+      <c r="D173" s="23"/>
       <c r="E173" s="5">
         <v>3</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D174" s="28"/>
+      <c r="D174" s="23"/>
       <c r="E174" s="5">
         <v>4</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="28"/>
+      <c r="D175" s="23"/>
       <c r="E175" s="5">
         <v>5</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="28"/>
+      <c r="D176" s="23"/>
       <c r="E176" s="5">
         <v>6</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L176" s="4"/>
     </row>
@@ -4541,7 +5045,7 @@
     </row>
     <row r="178" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>21</v>
@@ -4549,17 +5053,17 @@
       <c r="C178" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D178" s="26" t="s">
-        <v>209</v>
+      <c r="D178" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
       <c r="F178" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G178" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I178" s="12" t="s">
         <v>24</v>
@@ -4567,7 +5071,7 @@
       <c r="L178" s="4"/>
     </row>
     <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D179" s="26"/>
+      <c r="D179" s="27"/>
       <c r="E179" s="5">
         <v>2</v>
       </c>
@@ -4583,7 +5087,7 @@
       <c r="L179" s="4"/>
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D180" s="26"/>
+      <c r="D180" s="27"/>
       <c r="E180" s="5">
         <v>3</v>
       </c>
@@ -4599,7 +5103,7 @@
       <c r="L180" s="4"/>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="26"/>
+      <c r="D181" s="27"/>
       <c r="E181" s="5">
         <v>4</v>
       </c>
@@ -4615,7 +5119,7 @@
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D182" s="26"/>
+      <c r="D182" s="27"/>
       <c r="E182" s="5">
         <v>5</v>
       </c>
@@ -4631,7 +5135,7 @@
       <c r="L182" s="4"/>
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D183" s="26"/>
+      <c r="D183" s="27"/>
       <c r="E183" s="5">
         <v>6</v>
       </c>
@@ -4647,73 +5151,73 @@
       <c r="L183" s="4"/>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D184" s="26"/>
+      <c r="D184" s="27"/>
       <c r="E184" s="5">
         <v>7</v>
       </c>
       <c r="F184" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G184" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G184" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L184" s="4"/>
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D185" s="26"/>
+      <c r="D185" s="27"/>
       <c r="E185" s="5">
         <v>8</v>
       </c>
       <c r="F185" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G185" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G185" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="L185" s="4"/>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="26"/>
+      <c r="D186" s="27"/>
       <c r="E186" s="5">
         <v>9</v>
       </c>
       <c r="F186" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G186" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G186" s="11" t="s">
+      <c r="I186" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I186" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="L186" s="4"/>
     </row>
     <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D187" s="26"/>
+      <c r="D187" s="27"/>
       <c r="E187" s="5">
         <v>10</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L187" s="4"/>
     </row>
     <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D188" s="26"/>
+      <c r="D188" s="27"/>
       <c r="E188" s="5">
         <v>11</v>
       </c>
       <c r="F188" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G188" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="I188" s="11" t="s">
         <v>54</v>
@@ -4721,134 +5225,134 @@
       <c r="L188" s="4"/>
     </row>
     <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D189" s="26"/>
+      <c r="D189" s="27"/>
       <c r="E189" s="5">
         <v>12</v>
       </c>
       <c r="F189" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G189" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G189" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="I189" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="26"/>
+      <c r="D190" s="27"/>
       <c r="E190" s="5">
         <v>13</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L190" s="4"/>
     </row>
     <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D191" s="26"/>
+      <c r="D191" s="27"/>
       <c r="E191" s="5">
         <v>14</v>
       </c>
       <c r="F191" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G191" s="11" t="s">
+      <c r="I191" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I191" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="L191" s="4"/>
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D192" s="26"/>
+      <c r="D192" s="27"/>
       <c r="E192" s="5">
         <v>15</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G192" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I192" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I192" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="L192" s="4"/>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D193" s="26"/>
+      <c r="D193" s="27"/>
       <c r="E193" s="5">
         <v>16</v>
       </c>
       <c r="F193" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G193" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G193" s="11" t="s">
+      <c r="I193" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I193" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="L193" s="4"/>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D194" s="26"/>
+      <c r="D194" s="27"/>
       <c r="E194" s="5">
         <v>17</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L194" s="4"/>
     </row>
     <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D195" s="26"/>
+      <c r="D195" s="27"/>
       <c r="E195" s="5">
         <v>18</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L195" s="4"/>
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D196" s="26"/>
+      <c r="D196" s="27"/>
       <c r="E196" s="5">
         <v>19</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L196" s="4"/>
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D197" s="26"/>
+      <c r="D197" s="27"/>
       <c r="E197" s="5">
         <v>20</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L197" s="4"/>
     </row>
@@ -4858,7 +5362,7 @@
     </row>
     <row r="199" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>21</v>
@@ -4866,17 +5370,17 @@
       <c r="C199" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="26" t="s">
-        <v>211</v>
+      <c r="D199" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="E199" s="5">
         <v>1</v>
       </c>
       <c r="F199" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G199" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I199" s="12" t="s">
         <v>24</v>
@@ -4884,7 +5388,7 @@
       <c r="L199" s="4"/>
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D200" s="26"/>
+      <c r="D200" s="27"/>
       <c r="E200" s="5">
         <v>2</v>
       </c>
@@ -4900,7 +5404,7 @@
       <c r="L200" s="4"/>
     </row>
     <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D201" s="26"/>
+      <c r="D201" s="27"/>
       <c r="E201" s="5">
         <v>3</v>
       </c>
@@ -4916,7 +5420,7 @@
       <c r="L201" s="4"/>
     </row>
     <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D202" s="26"/>
+      <c r="D202" s="27"/>
       <c r="E202" s="5">
         <v>4</v>
       </c>
@@ -4932,7 +5436,7 @@
       <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D203" s="26"/>
+      <c r="D203" s="27"/>
       <c r="E203" s="5">
         <v>5</v>
       </c>
@@ -4948,7 +5452,7 @@
       <c r="L203" s="4"/>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D204" s="26"/>
+      <c r="D204" s="27"/>
       <c r="E204" s="5">
         <v>6</v>
       </c>
@@ -4964,73 +5468,73 @@
       <c r="L204" s="4"/>
     </row>
     <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D205" s="26"/>
+      <c r="D205" s="27"/>
       <c r="E205" s="5">
         <v>7</v>
       </c>
       <c r="F205" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G205" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G205" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L205" s="4"/>
     </row>
     <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D206" s="26"/>
+      <c r="D206" s="27"/>
       <c r="E206" s="5">
         <v>8</v>
       </c>
       <c r="F206" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G206" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G206" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="L206" s="4"/>
     </row>
     <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D207" s="26"/>
+      <c r="D207" s="27"/>
       <c r="E207" s="5">
         <v>9</v>
       </c>
       <c r="F207" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G207" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G207" s="11" t="s">
+      <c r="I207" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I207" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="L207" s="4"/>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="26"/>
+      <c r="D208" s="27"/>
       <c r="E208" s="5">
         <v>10</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L208" s="4"/>
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D209" s="26"/>
+      <c r="D209" s="27"/>
       <c r="E209" s="5">
         <v>11</v>
       </c>
       <c r="F209" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G209" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="G209" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="I209" s="11" t="s">
         <v>54</v>
@@ -5038,15 +5542,15 @@
       <c r="L209" s="4"/>
     </row>
     <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D210" s="26"/>
+      <c r="D210" s="27"/>
       <c r="E210" s="5">
         <v>12</v>
       </c>
       <c r="F210" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G210" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="G210" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="L210" s="4"/>
     </row>
@@ -5056,7 +5560,7 @@
     </row>
     <row r="212" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>21</v>
@@ -5064,17 +5568,17 @@
       <c r="C212" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D212" s="26" t="s">
-        <v>215</v>
+      <c r="D212" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E212" s="5">
         <v>1</v>
       </c>
       <c r="F212" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G212" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G212" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>24</v>
@@ -5082,7 +5586,7 @@
       <c r="L212" s="4"/>
     </row>
     <row r="213" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D213" s="26"/>
+      <c r="D213" s="27"/>
       <c r="E213" s="5">
         <v>2</v>
       </c>
@@ -5098,7 +5602,7 @@
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D214" s="26"/>
+      <c r="D214" s="27"/>
       <c r="E214" s="5">
         <v>3</v>
       </c>
@@ -5114,7 +5618,7 @@
       <c r="L214" s="4"/>
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D215" s="26"/>
+      <c r="D215" s="27"/>
       <c r="E215" s="5">
         <v>4</v>
       </c>
@@ -5130,7 +5634,7 @@
       <c r="L215" s="4"/>
     </row>
     <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D216" s="26"/>
+      <c r="D216" s="27"/>
       <c r="E216" s="5">
         <v>5</v>
       </c>
@@ -5146,7 +5650,7 @@
       <c r="L216" s="4"/>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D217" s="26"/>
+      <c r="D217" s="27"/>
       <c r="E217" s="5">
         <v>6</v>
       </c>
@@ -5162,73 +5666,73 @@
       <c r="L217" s="4"/>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="26"/>
+      <c r="D218" s="27"/>
       <c r="E218" s="5">
         <v>7</v>
       </c>
       <c r="F218" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G218" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G218" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L218" s="4"/>
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D219" s="26"/>
+      <c r="D219" s="27"/>
       <c r="E219" s="5">
         <v>8</v>
       </c>
       <c r="F219" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G219" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G219" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="L219" s="4"/>
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D220" s="26"/>
+      <c r="D220" s="27"/>
       <c r="E220" s="5">
         <v>9</v>
       </c>
       <c r="F220" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G220" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G220" s="11" t="s">
+      <c r="I220" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I220" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="L220" s="4"/>
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D221" s="26"/>
+      <c r="D221" s="27"/>
       <c r="E221" s="5">
         <v>10</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L221" s="4"/>
     </row>
     <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D222" s="26"/>
+      <c r="D222" s="27"/>
       <c r="E222" s="5">
         <v>11</v>
       </c>
       <c r="F222" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G222" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="G222" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="I222" s="11" t="s">
         <v>54</v>
@@ -5236,150 +5740,150 @@
       <c r="L222" s="4"/>
     </row>
     <row r="223" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D223" s="26"/>
+      <c r="D223" s="27"/>
       <c r="E223" s="5">
         <v>12</v>
       </c>
       <c r="F223" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G223" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G223" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="I223" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L223" s="4"/>
     </row>
     <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="26"/>
+      <c r="D224" s="27"/>
       <c r="E224" s="5">
         <v>13</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L224" s="4"/>
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D225" s="26"/>
+      <c r="D225" s="27"/>
       <c r="E225" s="5">
         <v>14</v>
       </c>
       <c r="F225" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G225" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G225" s="11" t="s">
+      <c r="I225" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I225" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="L225" s="4"/>
     </row>
     <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D226" s="26"/>
+      <c r="D226" s="27"/>
       <c r="E226" s="5">
         <v>15</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G226" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I226" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I226" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="L226" s="4"/>
     </row>
     <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D227" s="26"/>
+      <c r="D227" s="27"/>
       <c r="E227" s="5">
         <v>16</v>
       </c>
       <c r="F227" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G227" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G227" s="11" t="s">
+      <c r="I227" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I227" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="L227" s="4"/>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="26"/>
+      <c r="D228" s="27"/>
       <c r="E228" s="5">
         <v>17</v>
       </c>
       <c r="F228" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G228" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G228" s="11" t="s">
+      <c r="I228" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I228" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="L228" s="4"/>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D229" s="26"/>
+      <c r="D229" s="27"/>
       <c r="E229" s="5">
         <v>18</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L229" s="4"/>
     </row>
     <row r="230" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D230" s="26"/>
+      <c r="D230" s="27"/>
       <c r="E230" s="5">
         <v>19</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="26"/>
+      <c r="D231" s="27"/>
       <c r="E231" s="5">
         <v>20</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L231" s="4"/>
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="26"/>
+      <c r="D232" s="27"/>
       <c r="E232" s="5">
         <v>21</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L232" s="4"/>
     </row>
@@ -5388,7 +5892,7 @@
     </row>
     <row r="234" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>21</v>
@@ -5396,85 +5900,85 @@
       <c r="C234" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D234" s="26" t="s">
-        <v>220</v>
+      <c r="D234" s="27" t="s">
+        <v>219</v>
       </c>
       <c r="E234" s="5">
         <v>1</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L234" s="4"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D235" s="26"/>
+      <c r="D235" s="27"/>
       <c r="E235" s="5">
         <v>2</v>
       </c>
       <c r="F235" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G235" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G235" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="I235" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L235" s="4"/>
     </row>
     <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D236" s="26"/>
+      <c r="D236" s="27"/>
       <c r="E236" s="5">
         <v>3</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L236" s="4"/>
     </row>
     <row r="237" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D237" s="26"/>
+      <c r="D237" s="27"/>
       <c r="E237" s="5">
         <v>4</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L237" s="4"/>
     </row>
     <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D238" s="26"/>
+      <c r="D238" s="27"/>
       <c r="E238" s="5">
         <v>5</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L238" s="4"/>
     </row>
     <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D239" s="26"/>
+      <c r="D239" s="27"/>
       <c r="E239" s="5">
         <v>6</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L239" s="4"/>
     </row>
@@ -5484,7 +5988,7 @@
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>21</v>
@@ -5492,17 +5996,17 @@
       <c r="C241" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D241" s="26" t="s">
-        <v>226</v>
+      <c r="D241" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="E241" s="5">
         <v>1</v>
       </c>
       <c r="F241" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G241" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G241" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I241" s="12" t="s">
         <v>24</v>
@@ -5510,7 +6014,7 @@
       <c r="L241" s="4"/>
     </row>
     <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D242" s="26"/>
+      <c r="D242" s="27"/>
       <c r="E242" s="5">
         <v>2</v>
       </c>
@@ -5526,7 +6030,7 @@
       <c r="L242" s="4"/>
     </row>
     <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D243" s="26"/>
+      <c r="D243" s="27"/>
       <c r="E243" s="5">
         <v>3</v>
       </c>
@@ -5542,7 +6046,7 @@
       <c r="L243" s="4"/>
     </row>
     <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="26"/>
+      <c r="D244" s="27"/>
       <c r="E244" s="5">
         <v>4</v>
       </c>
@@ -5558,7 +6062,7 @@
       <c r="L244" s="4"/>
     </row>
     <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D245" s="26"/>
+      <c r="D245" s="27"/>
       <c r="E245" s="5">
         <v>5</v>
       </c>
@@ -5574,7 +6078,7 @@
       <c r="L245" s="4"/>
     </row>
     <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="26"/>
+      <c r="D246" s="27"/>
       <c r="E246" s="5">
         <v>6</v>
       </c>
@@ -5590,71 +6094,71 @@
       <c r="L246" s="4"/>
     </row>
     <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D247" s="26"/>
+      <c r="D247" s="27"/>
       <c r="E247" s="5">
         <v>7</v>
       </c>
       <c r="F247" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G247" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G247" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L247" s="4"/>
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D248" s="26"/>
+      <c r="D248" s="27"/>
       <c r="E248" s="5">
         <v>8</v>
       </c>
       <c r="F248" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G248" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G248" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="I248" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L248" s="4"/>
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D249" s="26"/>
+      <c r="D249" s="27"/>
       <c r="E249" s="5">
         <v>9</v>
       </c>
       <c r="F249" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G249" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G249" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="L249" s="4"/>
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D250" s="26"/>
+      <c r="D250" s="27"/>
       <c r="E250" s="5">
         <v>10</v>
       </c>
       <c r="F250" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G250" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G250" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="I250" s="12"/>
       <c r="L250" s="4"/>
     </row>
     <row r="251" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D251" s="26"/>
+      <c r="D251" s="27"/>
       <c r="E251" s="5">
         <v>11</v>
       </c>
       <c r="F251" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G251" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="G251" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="I251" s="15"/>
       <c r="L251" s="4"/>
@@ -5666,7 +6170,7 @@
     </row>
     <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B253" s="11" t="s">
         <v>21</v>
@@ -5674,17 +6178,17 @@
       <c r="C253" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D253" s="26" t="s">
-        <v>235</v>
+      <c r="D253" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="E253" s="5">
         <v>1</v>
       </c>
       <c r="F253" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G253" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G253" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I253" s="12" t="s">
         <v>24</v>
@@ -5692,7 +6196,7 @@
       <c r="L253" s="4"/>
     </row>
     <row r="254" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D254" s="26"/>
+      <c r="D254" s="27"/>
       <c r="E254" s="5">
         <v>2</v>
       </c>
@@ -5708,7 +6212,7 @@
       <c r="L254" s="4"/>
     </row>
     <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D255" s="26"/>
+      <c r="D255" s="27"/>
       <c r="E255" s="5">
         <v>3</v>
       </c>
@@ -5724,7 +6228,7 @@
       <c r="L255" s="4"/>
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D256" s="26"/>
+      <c r="D256" s="27"/>
       <c r="E256" s="5">
         <v>4</v>
       </c>
@@ -5740,7 +6244,7 @@
       <c r="L256" s="4"/>
     </row>
     <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D257" s="26"/>
+      <c r="D257" s="27"/>
       <c r="E257" s="5">
         <v>5</v>
       </c>
@@ -5756,7 +6260,7 @@
       <c r="L257" s="4"/>
     </row>
     <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D258" s="26"/>
+      <c r="D258" s="27"/>
       <c r="E258" s="5">
         <v>6</v>
       </c>
@@ -5772,173 +6276,173 @@
       <c r="L258" s="4"/>
     </row>
     <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="26"/>
+      <c r="D259" s="27"/>
       <c r="E259" s="5">
         <v>7</v>
       </c>
       <c r="F259" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G259" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G259" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L259" s="4"/>
     </row>
     <row r="260" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D260" s="26"/>
+      <c r="D260" s="27"/>
       <c r="E260" s="5">
         <v>8</v>
       </c>
       <c r="F260" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G260" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G260" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="L260" s="4"/>
     </row>
     <row r="261" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D261" s="26"/>
+      <c r="D261" s="27"/>
       <c r="E261" s="5">
         <v>9</v>
       </c>
       <c r="F261" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G261" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G261" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="I261" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L261" s="4"/>
     </row>
     <row r="262" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D262" s="26"/>
+      <c r="D262" s="27"/>
       <c r="E262" s="5">
         <v>10</v>
       </c>
       <c r="F262" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G262" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G262" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="L262" s="4"/>
     </row>
     <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D263" s="26"/>
+      <c r="D263" s="27"/>
       <c r="E263" s="5">
         <v>11</v>
       </c>
       <c r="F263" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G263" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G263" s="11" t="s">
+      <c r="I263" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I263" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="L263" s="4"/>
     </row>
     <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D264" s="26"/>
+      <c r="D264" s="27"/>
       <c r="E264" s="5">
         <v>12</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L264" s="4"/>
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D265" s="26"/>
+      <c r="D265" s="27"/>
       <c r="E265" s="5">
         <v>13</v>
       </c>
       <c r="F265" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G265" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G265" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="I265" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L265" s="4"/>
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="26"/>
+      <c r="D266" s="27"/>
       <c r="E266" s="5">
         <v>14</v>
       </c>
       <c r="F266" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G266" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G266" s="11" t="s">
+      <c r="I266" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I266" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="L266" s="4"/>
     </row>
     <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D267" s="26"/>
+      <c r="D267" s="27"/>
       <c r="E267" s="5">
         <v>15</v>
       </c>
       <c r="F267" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G267" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G267" s="11" t="s">
+      <c r="I267" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I267" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="L267" s="4"/>
     </row>
     <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D268" s="26"/>
+      <c r="D268" s="27"/>
       <c r="E268" s="5">
         <v>16</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L268" s="4"/>
     </row>
     <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D269" s="26"/>
+      <c r="D269" s="27"/>
       <c r="E269" s="5">
         <v>17</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L269" s="4"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D270" s="26"/>
+      <c r="D270" s="27"/>
       <c r="E270" s="5">
         <v>18</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L270" s="4"/>
     </row>
@@ -5947,7 +6451,7 @@
     </row>
     <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>21</v>
@@ -5955,42 +6459,42 @@
       <c r="C272" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D272" s="26" t="s">
-        <v>250</v>
+      <c r="D272" s="27" t="s">
+        <v>249</v>
       </c>
       <c r="E272" s="5">
         <v>1</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I272" s="12"/>
       <c r="L272" s="4"/>
     </row>
     <row r="273" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D273" s="26"/>
+      <c r="D273" s="27"/>
       <c r="E273" s="5">
         <v>2</v>
       </c>
       <c r="F273" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G273" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="G273" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="I273" s="15"/>
       <c r="L273" s="4"/>
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="26"/>
+      <c r="D274" s="27"/>
       <c r="E274" s="5">
         <v>3</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L274" s="4"/>
     </row>
@@ -6000,7 +6504,7 @@
     </row>
     <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B276" s="11" t="s">
         <v>21</v>
@@ -6008,40 +6512,40 @@
       <c r="C276" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D276" s="26" t="s">
-        <v>254</v>
+      <c r="D276" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="E276" s="5">
         <v>1</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L276" s="4"/>
     </row>
     <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D277" s="26"/>
+      <c r="D277" s="27"/>
       <c r="E277" s="5">
         <v>2</v>
       </c>
       <c r="F277" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G277" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="G277" s="11" t="s">
-        <v>258</v>
-      </c>
       <c r="L277" s="4"/>
     </row>
     <row r="278" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D278" s="26"/>
+      <c r="D278" s="27"/>
       <c r="E278" s="5">
         <v>3</v>
       </c>
       <c r="F278" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G278" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="G278" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="L278" s="4"/>
     </row>
@@ -6052,7 +6556,7 @@
     </row>
     <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B280" s="11" t="s">
         <v>21</v>
@@ -6061,13 +6565,13 @@
         <v>22</v>
       </c>
       <c r="D280" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E280" s="5">
         <v>1</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I280" s="15"/>
       <c r="L280" s="4"/>
@@ -6078,10 +6582,10 @@
         <v>2</v>
       </c>
       <c r="F281" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G281" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="G281" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="L281" s="4"/>
     </row>
@@ -6091,10 +6595,10 @@
         <v>3</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G282" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L282" s="4"/>
     </row>
@@ -6104,7 +6608,7 @@
     </row>
     <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>21</v>
@@ -6112,55 +6616,55 @@
       <c r="C284" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D284" s="26" t="s">
-        <v>265</v>
+      <c r="D284" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="E284" s="5">
         <v>1</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L284" s="4"/>
     </row>
     <row r="285" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D285" s="26"/>
+      <c r="D285" s="27"/>
       <c r="E285" s="5">
         <v>2</v>
       </c>
       <c r="F285" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G285" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="G285" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="I285" s="12"/>
       <c r="L285" s="4"/>
     </row>
     <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D286" s="26"/>
+      <c r="D286" s="27"/>
       <c r="E286" s="5">
         <v>3</v>
       </c>
       <c r="F286" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G286" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="G286" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="I286" s="15"/>
       <c r="L286" s="4"/>
     </row>
     <row r="287" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D287" s="26"/>
+      <c r="D287" s="27"/>
       <c r="E287" s="5">
         <v>4</v>
       </c>
       <c r="F287" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G287" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="G287" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="L287" s="4"/>
     </row>
@@ -6170,7 +6674,7 @@
     </row>
     <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B289" s="11" t="s">
         <v>21</v>
@@ -6178,57 +6682,57 @@
       <c r="C289" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D289" s="26" t="s">
-        <v>271</v>
+      <c r="D289" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="E289" s="5">
         <v>1</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L289" s="4"/>
     </row>
     <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D290" s="26"/>
+      <c r="D290" s="27"/>
       <c r="E290" s="5">
         <v>2</v>
       </c>
       <c r="F290" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G290" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="G290" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="I290" s="12"/>
       <c r="L290" s="4"/>
     </row>
     <row r="291" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D291" s="26"/>
+      <c r="D291" s="27"/>
       <c r="E291" s="5">
         <v>3</v>
       </c>
       <c r="F291" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G291" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G291" s="11" t="s">
+      <c r="I291" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="I291" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="L291" s="4"/>
     </row>
     <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D292" s="26"/>
+      <c r="D292" s="27"/>
       <c r="E292" s="5">
         <v>4</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L292" s="4"/>
     </row>
@@ -6237,7 +6741,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>21</v>
@@ -6245,17 +6749,17 @@
       <c r="C294" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D294" s="28" t="s">
-        <v>279</v>
+      <c r="D294" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="E294" s="5">
         <v>1</v>
       </c>
       <c r="F294" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G294" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G294" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I294" s="12" t="s">
         <v>24</v>
@@ -6263,7 +6767,7 @@
       <c r="L294" s="4"/>
     </row>
     <row r="295" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D295" s="28"/>
+      <c r="D295" s="23"/>
       <c r="E295" s="5">
         <v>2</v>
       </c>
@@ -6279,7 +6783,7 @@
       <c r="L295" s="4"/>
     </row>
     <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D296" s="28"/>
+      <c r="D296" s="23"/>
       <c r="E296" s="5">
         <v>3</v>
       </c>
@@ -6295,7 +6799,7 @@
       <c r="L296" s="4"/>
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D297" s="28"/>
+      <c r="D297" s="23"/>
       <c r="E297" s="5">
         <v>4</v>
       </c>
@@ -6311,7 +6815,7 @@
       <c r="L297" s="4"/>
     </row>
     <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D298" s="28"/>
+      <c r="D298" s="23"/>
       <c r="E298" s="5">
         <v>5</v>
       </c>
@@ -6327,7 +6831,7 @@
       <c r="L298" s="4"/>
     </row>
     <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D299" s="28"/>
+      <c r="D299" s="23"/>
       <c r="E299" s="5">
         <v>6</v>
       </c>
@@ -6343,147 +6847,147 @@
       <c r="L299" s="4"/>
     </row>
     <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D300" s="28"/>
+      <c r="D300" s="23"/>
       <c r="E300" s="5">
         <v>7</v>
       </c>
       <c r="F300" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G300" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G300" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="L300" s="4"/>
     </row>
     <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D301" s="28"/>
+      <c r="D301" s="23"/>
       <c r="E301" s="5">
         <v>8</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L301" s="4"/>
     </row>
     <row r="302" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D302" s="28"/>
+      <c r="D302" s="23"/>
       <c r="E302" s="5">
         <v>9</v>
       </c>
       <c r="F302" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G302" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G302" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="I302" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L302" s="4"/>
     </row>
     <row r="303" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D303" s="28"/>
+      <c r="D303" s="23"/>
       <c r="E303" s="5">
         <v>10</v>
       </c>
       <c r="F303" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G303" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G303" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="L303" s="4"/>
     </row>
     <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D304" s="28"/>
+      <c r="D304" s="23"/>
       <c r="E304" s="5">
         <v>11</v>
       </c>
       <c r="F304" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G304" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G304" s="11" t="s">
+      <c r="I304" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I304" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="L304" s="4"/>
     </row>
     <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D305" s="28"/>
+      <c r="D305" s="23"/>
       <c r="E305" s="5">
         <v>12</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L305" s="4"/>
     </row>
     <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D306" s="28"/>
+      <c r="D306" s="23"/>
       <c r="E306" s="5">
         <v>13</v>
       </c>
       <c r="F306" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G306" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G306" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="I306" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L306" s="4"/>
     </row>
     <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D307" s="28"/>
+      <c r="D307" s="23"/>
       <c r="E307" s="5">
         <v>14</v>
       </c>
       <c r="F307" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G307" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G307" s="11" t="s">
+      <c r="I307" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I307" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="L307" s="4"/>
     </row>
     <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D308" s="28"/>
+      <c r="D308" s="23"/>
       <c r="E308" s="5">
         <v>15</v>
       </c>
       <c r="F308" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G308" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G308" s="11" t="s">
+      <c r="I308" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I308" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="L308" s="4"/>
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D309" s="28"/>
+      <c r="D309" s="23"/>
       <c r="E309" s="5">
         <v>16</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L309" s="4"/>
     </row>
@@ -6492,7 +6996,7 @@
     </row>
     <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>21</v>
@@ -6500,17 +7004,17 @@
       <c r="C311" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D311" s="28" t="s">
-        <v>281</v>
+      <c r="D311" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="E311" s="5">
         <v>1</v>
       </c>
       <c r="F311" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G311" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G311" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I311" s="12" t="s">
         <v>24</v>
@@ -6518,7 +7022,7 @@
       <c r="L311" s="4"/>
     </row>
     <row r="312" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D312" s="28"/>
+      <c r="D312" s="23"/>
       <c r="E312" s="5">
         <v>2</v>
       </c>
@@ -6534,7 +7038,7 @@
       <c r="L312" s="4"/>
     </row>
     <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D313" s="28"/>
+      <c r="D313" s="23"/>
       <c r="E313" s="5">
         <v>3</v>
       </c>
@@ -6550,7 +7054,7 @@
       <c r="L313" s="4"/>
     </row>
     <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D314" s="28"/>
+      <c r="D314" s="23"/>
       <c r="E314" s="5">
         <v>4</v>
       </c>
@@ -6566,7 +7070,7 @@
       <c r="L314" s="4"/>
     </row>
     <row r="315" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D315" s="28"/>
+      <c r="D315" s="23"/>
       <c r="E315" s="5">
         <v>5</v>
       </c>
@@ -6582,7 +7086,7 @@
       <c r="L315" s="4"/>
     </row>
     <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D316" s="28"/>
+      <c r="D316" s="23"/>
       <c r="E316" s="5">
         <v>6</v>
       </c>
@@ -6598,20 +7102,20 @@
       <c r="L316" s="4"/>
     </row>
     <row r="317" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D317" s="28"/>
+      <c r="D317" s="23"/>
       <c r="E317" s="5">
         <v>7</v>
       </c>
       <c r="F317" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G317" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G317" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="L317" s="4"/>
     </row>
     <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D318" s="28"/>
+      <c r="D318" s="23"/>
       <c r="E318" s="5">
         <v>8</v>
       </c>
@@ -6627,7 +7131,7 @@
       <c r="L318" s="4"/>
     </row>
     <row r="319" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D319" s="28"/>
+      <c r="D319" s="23"/>
       <c r="E319" s="5">
         <v>9</v>
       </c>
@@ -6641,7 +7145,7 @@
       <c r="L319" s="4"/>
     </row>
     <row r="320" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D320" s="28"/>
+      <c r="D320" s="23"/>
       <c r="E320" s="5">
         <v>10</v>
       </c>
@@ -6649,7 +7153,7 @@
         <v>49</v>
       </c>
       <c r="G320" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I320" s="15" t="s">
         <v>50</v>
@@ -6657,54 +7161,54 @@
       <c r="L320" s="4"/>
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D321" s="28"/>
+      <c r="D321" s="23"/>
       <c r="E321" s="5">
         <v>11</v>
       </c>
       <c r="F321" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G321" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L321" s="4"/>
     </row>
     <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D322" s="28"/>
+      <c r="D322" s="23"/>
       <c r="E322" s="5">
         <v>12</v>
       </c>
       <c r="F322" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G322" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G322" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="L322" s="4"/>
     </row>
     <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D323" s="28"/>
+      <c r="D323" s="23"/>
       <c r="E323" s="5">
         <v>13</v>
       </c>
       <c r="F323" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G323" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G323" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="L323" s="4"/>
     </row>
     <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D324" s="28"/>
+      <c r="D324" s="23"/>
       <c r="E324" s="5">
         <v>14</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L324" s="4"/>
     </row>
@@ -6713,7 +7217,7 @@
     </row>
     <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>21</v>
@@ -6721,17 +7225,17 @@
       <c r="C326" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D326" s="28" t="s">
-        <v>291</v>
+      <c r="D326" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E326" s="5">
         <v>1</v>
       </c>
       <c r="F326" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G326" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G326" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I326" s="12" t="s">
         <v>24</v>
@@ -6739,7 +7243,7 @@
       <c r="L326" s="4"/>
     </row>
     <row r="327" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D327" s="28"/>
+      <c r="D327" s="23"/>
       <c r="E327" s="5">
         <v>2</v>
       </c>
@@ -6755,7 +7259,7 @@
       <c r="L327" s="4"/>
     </row>
     <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D328" s="28"/>
+      <c r="D328" s="23"/>
       <c r="E328" s="5">
         <v>3</v>
       </c>
@@ -6771,7 +7275,7 @@
       <c r="L328" s="4"/>
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D329" s="28"/>
+      <c r="D329" s="23"/>
       <c r="E329" s="5">
         <v>4</v>
       </c>
@@ -6787,7 +7291,7 @@
       <c r="L329" s="4"/>
     </row>
     <row r="330" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D330" s="28"/>
+      <c r="D330" s="23"/>
       <c r="E330" s="5">
         <v>5</v>
       </c>
@@ -6803,7 +7307,7 @@
       <c r="L330" s="4"/>
     </row>
     <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D331" s="28"/>
+      <c r="D331" s="23"/>
       <c r="E331" s="5">
         <v>6</v>
       </c>
@@ -6819,60 +7323,60 @@
       <c r="L331" s="4"/>
     </row>
     <row r="332" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D332" s="28"/>
+      <c r="D332" s="23"/>
       <c r="E332" s="5">
         <v>7</v>
       </c>
       <c r="F332" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G332" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G332" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="L332" s="4"/>
     </row>
     <row r="333" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D333" s="28"/>
+      <c r="D333" s="23"/>
       <c r="E333" s="5">
         <v>8</v>
       </c>
       <c r="F333" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G333" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G333" s="11" t="s">
+      <c r="I333" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="I333" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="L333" s="4"/>
     </row>
     <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D334" s="28"/>
+      <c r="D334" s="23"/>
       <c r="E334" s="5">
         <v>9</v>
       </c>
       <c r="F334" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G334" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L334" s="4"/>
     </row>
     <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D335" s="28"/>
+      <c r="D335" s="23"/>
       <c r="E335" s="5">
         <v>10</v>
       </c>
       <c r="F335" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G335" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="G335" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="L335" s="4"/>
     </row>
@@ -6882,7 +7386,7 @@
     </row>
     <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>21</v>
@@ -6890,30 +7394,30 @@
       <c r="C337" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D337" s="28" t="s">
-        <v>299</v>
+      <c r="D337" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L337" s="4"/>
     </row>
     <row r="338" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D338" s="28"/>
+      <c r="D338" s="23"/>
       <c r="E338" s="5">
         <v>2</v>
       </c>
       <c r="F338" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G338" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="G338" s="11" t="s">
-        <v>302</v>
-      </c>
       <c r="I338" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L338" s="4"/>
     </row>
@@ -6922,7 +7426,7 @@
     </row>
     <row r="340" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>21</v>
@@ -6930,30 +7434,30 @@
       <c r="C340" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D340" s="28" t="s">
-        <v>304</v>
+      <c r="D340" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="E340" s="5">
         <v>1</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L340" s="4"/>
     </row>
     <row r="341" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D341" s="28"/>
+      <c r="D341" s="23"/>
       <c r="E341" s="5">
         <v>2</v>
       </c>
       <c r="F341" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G341" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G341" s="11" t="s">
-        <v>306</v>
-      </c>
       <c r="I341" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L341" s="4"/>
     </row>
@@ -6963,7 +7467,7 @@
     </row>
     <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>21</v>
@@ -6971,43 +7475,43 @@
       <c r="C343" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D343" s="28" t="s">
-        <v>314</v>
+      <c r="D343" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="E343" s="5">
         <v>1</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L343" s="4"/>
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D344" s="28"/>
+      <c r="D344" s="23"/>
       <c r="E344" s="5">
         <v>2</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G344" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I344" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="I344" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="L344" s="4"/>
     </row>
     <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D345" s="28"/>
+      <c r="D345" s="23"/>
       <c r="E345" s="5">
         <v>3</v>
       </c>
       <c r="F345" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G345" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="G345" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="L345" s="4"/>
     </row>
@@ -7016,7 +7520,7 @@
     </row>
     <row r="347" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>21</v>
@@ -7024,43 +7528,43 @@
       <c r="C347" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D347" s="28" t="s">
-        <v>308</v>
+      <c r="D347" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
       </c>
       <c r="F347" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L347" s="4"/>
     </row>
     <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D348" s="28"/>
+      <c r="D348" s="23"/>
       <c r="E348" s="5">
         <v>2</v>
       </c>
       <c r="F348" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G348" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L348" s="4"/>
     </row>
     <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D349" s="28"/>
+      <c r="D349" s="23"/>
       <c r="E349" s="5">
         <v>3</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G349" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L349" s="4"/>
     </row>
@@ -7069,7 +7573,7 @@
     </row>
     <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B351" s="11" t="s">
         <v>21</v>
@@ -7077,27 +7581,27 @@
       <c r="C351" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D351" s="28" t="s">
-        <v>320</v>
+      <c r="D351" s="23" t="s">
+        <v>319</v>
       </c>
       <c r="E351" s="5">
         <v>1</v>
       </c>
       <c r="F351" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L351" s="4"/>
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D352" s="28"/>
+      <c r="D352" s="23"/>
       <c r="E352" s="5">
         <v>2</v>
       </c>
       <c r="F352" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G352" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="G352" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="L352" s="4"/>
     </row>
@@ -7106,7 +7610,7 @@
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>21</v>
@@ -7114,17 +7618,17 @@
       <c r="C354" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="28" t="s">
-        <v>324</v>
+      <c r="D354" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="E354" s="5">
         <v>1</v>
       </c>
       <c r="F354" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G354" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G354" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I354" s="12" t="s">
         <v>24</v>
@@ -7132,7 +7636,7 @@
       <c r="L354" s="4"/>
     </row>
     <row r="355" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D355" s="28"/>
+      <c r="D355" s="23"/>
       <c r="E355" s="5">
         <v>2</v>
       </c>
@@ -7148,7 +7652,7 @@
       <c r="L355" s="4"/>
     </row>
     <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D356" s="28"/>
+      <c r="D356" s="23"/>
       <c r="E356" s="5">
         <v>3</v>
       </c>
@@ -7164,7 +7668,7 @@
       <c r="L356" s="4"/>
     </row>
     <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D357" s="28"/>
+      <c r="D357" s="23"/>
       <c r="E357" s="5">
         <v>4</v>
       </c>
@@ -7180,7 +7684,7 @@
       <c r="L357" s="4"/>
     </row>
     <row r="358" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D358" s="28"/>
+      <c r="D358" s="23"/>
       <c r="E358" s="5">
         <v>5</v>
       </c>
@@ -7196,7 +7700,7 @@
       <c r="L358" s="4"/>
     </row>
     <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D359" s="28"/>
+      <c r="D359" s="23"/>
       <c r="E359" s="5">
         <v>6</v>
       </c>
@@ -7212,144 +7716,144 @@
       <c r="L359" s="4"/>
     </row>
     <row r="360" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D360" s="28"/>
+      <c r="D360" s="23"/>
       <c r="E360" s="5">
         <v>7</v>
       </c>
       <c r="F360" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G360" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G360" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="L360" s="4"/>
     </row>
     <row r="361" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D361" s="28"/>
+      <c r="D361" s="23"/>
       <c r="E361" s="5">
         <v>8</v>
       </c>
       <c r="F361" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G361" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G361" s="11" t="s">
+      <c r="I361" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="I361" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="L361" s="4"/>
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D362" s="28"/>
+      <c r="D362" s="23"/>
       <c r="E362" s="5">
         <v>9</v>
       </c>
       <c r="F362" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G362" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G362" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="L362" s="4"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="28"/>
+      <c r="D363" s="23"/>
       <c r="E363" s="5">
         <v>10</v>
       </c>
       <c r="F363" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G363" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="G363" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="L363" s="4"/>
     </row>
     <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D364" s="28"/>
+      <c r="D364" s="23"/>
       <c r="E364" s="5">
         <v>11</v>
       </c>
       <c r="F364" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G364" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L364" s="4"/>
     </row>
     <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D365" s="28"/>
+      <c r="D365" s="23"/>
       <c r="E365" s="5">
         <v>12</v>
       </c>
       <c r="F365" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G365" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G365" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="I365" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L365" s="4"/>
     </row>
     <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D366" s="28"/>
+      <c r="D366" s="23"/>
       <c r="E366" s="5">
         <v>13</v>
       </c>
       <c r="F366" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G366" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G366" s="11" t="s">
+      <c r="I366" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I366" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="L366" s="4"/>
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="28"/>
+      <c r="D367" s="23"/>
       <c r="E367" s="5">
         <v>14</v>
       </c>
       <c r="F367" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G367" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G367" s="11" t="s">
+      <c r="I367" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I367" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="L367" s="4"/>
     </row>
     <row r="368" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D368" s="28"/>
+      <c r="D368" s="23"/>
       <c r="E368" s="5">
         <v>15</v>
       </c>
       <c r="F368" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G368" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L368" s="4"/>
     </row>
     <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D369" s="28"/>
+      <c r="D369" s="23"/>
       <c r="E369" s="5">
         <v>16</v>
       </c>
       <c r="F369" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G369" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L369" s="4"/>
     </row>
@@ -7359,7 +7863,7 @@
     </row>
     <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>21</v>
@@ -7367,72 +7871,72 @@
       <c r="C371" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D371" s="28" t="s">
-        <v>332</v>
+      <c r="D371" s="23" t="s">
+        <v>331</v>
       </c>
       <c r="E371" s="5">
         <v>1</v>
       </c>
       <c r="F371" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L371" s="4"/>
     </row>
     <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D372" s="28"/>
+      <c r="D372" s="23"/>
       <c r="E372" s="5">
         <v>2</v>
       </c>
       <c r="F372" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G372" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="G372" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="L372" s="4"/>
     </row>
     <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D373" s="28"/>
+      <c r="D373" s="23"/>
       <c r="E373" s="5">
         <v>3</v>
       </c>
       <c r="F373" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G373" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G373" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="I373" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L373" s="4"/>
     </row>
     <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D374" s="28"/>
+      <c r="D374" s="23"/>
       <c r="E374" s="5">
         <v>4</v>
       </c>
       <c r="F374" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G374" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G374" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="I374" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L374" s="4"/>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D375" s="28"/>
+      <c r="D375" s="23"/>
       <c r="E375" s="5">
         <v>5</v>
       </c>
       <c r="F375" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G375" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="G375" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="L375" s="4"/>
     </row>
@@ -7441,7 +7945,7 @@
     </row>
     <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B377" s="11" t="s">
         <v>21</v>
@@ -7449,17 +7953,17 @@
       <c r="C377" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D377" s="23" t="s">
-        <v>341</v>
+      <c r="D377" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="E377" s="5">
         <v>1</v>
       </c>
       <c r="F377" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G377" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G377" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I377" s="12" t="s">
         <v>24</v>
@@ -7467,7 +7971,7 @@
       <c r="L377" s="4"/>
     </row>
     <row r="378" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D378" s="24"/>
+      <c r="D378" s="25"/>
       <c r="E378" s="5">
         <v>2</v>
       </c>
@@ -7483,7 +7987,7 @@
       <c r="L378" s="4"/>
     </row>
     <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D379" s="24"/>
+      <c r="D379" s="25"/>
       <c r="E379" s="5">
         <v>3</v>
       </c>
@@ -7499,7 +8003,7 @@
       <c r="L379" s="4"/>
     </row>
     <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D380" s="24"/>
+      <c r="D380" s="25"/>
       <c r="E380" s="5">
         <v>4</v>
       </c>
@@ -7515,7 +8019,7 @@
       <c r="L380" s="4"/>
     </row>
     <row r="381" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D381" s="24"/>
+      <c r="D381" s="25"/>
       <c r="E381" s="5">
         <v>5</v>
       </c>
@@ -7531,7 +8035,7 @@
       <c r="L381" s="4"/>
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D382" s="24"/>
+      <c r="D382" s="25"/>
       <c r="E382" s="5">
         <v>6</v>
       </c>
@@ -7547,577 +8051,2059 @@
       <c r="L382" s="4"/>
     </row>
     <row r="383" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D383" s="24"/>
+      <c r="D383" s="25"/>
       <c r="E383" s="5">
         <v>7</v>
       </c>
       <c r="F383" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G383" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G383" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="L383" s="4"/>
     </row>
     <row r="384" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D384" s="24"/>
+      <c r="D384" s="25"/>
       <c r="E384" s="5">
         <v>8</v>
       </c>
       <c r="F384" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G384" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G384" s="11" t="s">
+      <c r="I384" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="I384" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D385" s="24"/>
+    <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D385" s="25"/>
       <c r="E385" s="5">
         <v>9</v>
       </c>
       <c r="F385" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G385" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I385" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D386" s="24"/>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D386" s="25"/>
       <c r="E386" s="5">
         <v>10</v>
       </c>
       <c r="F386" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G386" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="G386" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="4:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D387" s="25"/>
+    <row r="387" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D387" s="26"/>
       <c r="E387" s="5">
         <v>11</v>
       </c>
       <c r="F387" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G387" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="G387" s="11" t="s">
+      <c r="L387" s="4"/>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L388" s="4"/>
+    </row>
+    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L387" s="4"/>
-    </row>
-    <row r="388" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L388" s="4"/>
-    </row>
-    <row r="389" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="B389" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D389" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E389" s="5">
+        <v>1</v>
+      </c>
+      <c r="F389" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I389" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I390" s="12"/>
+    <row r="390" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D390" s="25"/>
+      <c r="E390" s="5">
+        <v>2</v>
+      </c>
+      <c r="F390" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I390" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I391" s="15"/>
+    <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D391" s="25"/>
+      <c r="E391" s="5">
+        <v>3</v>
+      </c>
+      <c r="F391" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G391" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I391" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D392" s="25"/>
+      <c r="E392" s="5">
+        <v>4</v>
+      </c>
+      <c r="F392" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G392" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I392" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D393" s="25"/>
+      <c r="E393" s="5">
+        <v>5</v>
+      </c>
+      <c r="F393" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G393" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I393" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D394" s="25"/>
+      <c r="E394" s="5">
+        <v>6</v>
+      </c>
+      <c r="F394" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G394" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I394" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D395" s="25"/>
+      <c r="E395" s="5">
+        <v>7</v>
+      </c>
+      <c r="F395" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D396" s="25"/>
+      <c r="E396" s="5">
+        <v>8</v>
+      </c>
+      <c r="F396" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D397" s="25"/>
+      <c r="E397" s="5">
+        <v>9</v>
+      </c>
+      <c r="F397" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D398" s="26"/>
+      <c r="E398" s="5">
+        <v>10</v>
+      </c>
+      <c r="F398" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G398" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="I398" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A400" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E400" s="5">
+        <v>1</v>
+      </c>
+      <c r="F400" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G400" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I400" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="L400" s="4"/>
     </row>
-    <row r="401" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D401" s="25"/>
+      <c r="E401" s="5">
+        <v>2</v>
+      </c>
+      <c r="F401" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G401" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I401" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="L401" s="4"/>
     </row>
-    <row r="402" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D402" s="25"/>
+      <c r="E402" s="5">
+        <v>3</v>
+      </c>
+      <c r="F402" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I402" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L402" s="4"/>
     </row>
-    <row r="403" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D403" s="25"/>
+      <c r="E403" s="5">
+        <v>4</v>
+      </c>
+      <c r="F403" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="L403" s="4"/>
     </row>
-    <row r="404" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D404" s="25"/>
+      <c r="E404" s="5">
+        <v>5</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I404" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L404" s="4"/>
     </row>
-    <row r="405" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I405" s="12"/>
+    <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D405" s="25"/>
+      <c r="E405" s="5">
+        <v>6</v>
+      </c>
+      <c r="F405" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I405" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L405" s="4"/>
     </row>
-    <row r="406" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D406" s="25"/>
+      <c r="E406" s="5">
+        <v>7</v>
+      </c>
+      <c r="F406" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G406" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="I406" s="15"/>
       <c r="L406" s="4"/>
     </row>
-    <row r="407" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D407" s="25"/>
+      <c r="E407" s="5">
+        <v>8</v>
+      </c>
+      <c r="F407" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G407" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I407" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="L407" s="4"/>
     </row>
-    <row r="408" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D408" s="26"/>
+      <c r="E408" s="5">
+        <v>9</v>
+      </c>
+      <c r="F408" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G408" s="11" t="s">
+        <v>365</v>
+      </c>
       <c r="L408" s="4"/>
     </row>
-    <row r="409" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L409" s="4"/>
     </row>
-    <row r="410" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B410" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D410" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E410" s="5">
+        <v>1</v>
+      </c>
+      <c r="F410" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="L410" s="4"/>
     </row>
-    <row r="411" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="D411" s="26"/>
+      <c r="E411" s="5">
+        <v>2</v>
+      </c>
+      <c r="F411" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G411" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I411" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="L411" s="4"/>
     </row>
-    <row r="412" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L412" s="4"/>
     </row>
-    <row r="413" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D413" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E413" s="5">
+        <v>1</v>
+      </c>
+      <c r="F413" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="L413" s="4"/>
     </row>
-    <row r="414" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D414" s="26"/>
+      <c r="E414" s="5">
+        <v>2</v>
+      </c>
+      <c r="F414" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G414" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="I414" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="L414" s="4"/>
     </row>
-    <row r="415" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L415" s="4"/>
     </row>
-    <row r="416" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D416" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E416" s="5">
+        <v>1</v>
+      </c>
+      <c r="F416" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="L416" s="4"/>
     </row>
-    <row r="417" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D417" s="26"/>
+      <c r="E417" s="5">
+        <v>2</v>
+      </c>
+      <c r="F417" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="L417" s="4"/>
     </row>
-    <row r="418" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L418" s="4"/>
     </row>
-    <row r="419" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A419" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D419" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E419" s="5">
+        <v>1</v>
+      </c>
+      <c r="F419" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I419" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="L419" s="4"/>
     </row>
-    <row r="420" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D420" s="25"/>
+      <c r="E420" s="5">
+        <v>2</v>
+      </c>
+      <c r="F420" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G420" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I420" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="L420" s="4"/>
     </row>
-    <row r="421" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I421" s="12"/>
+    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D421" s="25"/>
+      <c r="E421" s="5">
+        <v>3</v>
+      </c>
+      <c r="F421" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G421" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I421" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L421" s="4"/>
     </row>
-    <row r="422" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I422" s="15"/>
+    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D422" s="25"/>
+      <c r="E422" s="5">
+        <v>4</v>
+      </c>
+      <c r="F422" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G422" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I422" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="L422" s="4"/>
     </row>
-    <row r="423" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D423" s="25"/>
+      <c r="E423" s="5">
+        <v>5</v>
+      </c>
+      <c r="F423" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I423" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L423" s="4"/>
     </row>
-    <row r="424" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D424" s="25"/>
+      <c r="E424" s="5">
+        <v>6</v>
+      </c>
+      <c r="F424" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G424" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I424" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L424" s="4"/>
     </row>
-    <row r="425" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D425" s="25"/>
+      <c r="E425" s="5">
+        <v>7</v>
+      </c>
+      <c r="F425" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G425" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I425" s="15"/>
       <c r="L425" s="4"/>
     </row>
-    <row r="426" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D426" s="26"/>
+      <c r="E426" s="5">
+        <v>8</v>
+      </c>
+      <c r="F426" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G426" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I426" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="L426" s="4"/>
     </row>
-    <row r="427" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L427" s="4"/>
     </row>
-    <row r="428" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B428" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D428" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E428" s="5">
+        <v>1</v>
+      </c>
+      <c r="F428" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="L428" s="4"/>
     </row>
-    <row r="429" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D429" s="26"/>
+      <c r="E429" s="5">
+        <v>2</v>
+      </c>
+      <c r="F429" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G429" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="L429" s="4"/>
     </row>
-    <row r="430" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L430" s="4"/>
     </row>
-    <row r="431" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D431" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="E431" s="5">
+        <v>1</v>
+      </c>
+      <c r="F431" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="L431" s="4"/>
     </row>
-    <row r="432" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D432" s="25"/>
+      <c r="E432" s="5">
+        <v>2</v>
+      </c>
+      <c r="F432" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G432" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="L432" s="4"/>
     </row>
-    <row r="433" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D433" s="26"/>
+      <c r="E433" s="5">
+        <v>3</v>
+      </c>
+      <c r="F433" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G433" s="11" t="s">
+        <v>395</v>
+      </c>
       <c r="L433" s="4"/>
     </row>
-    <row r="434" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L434" s="4"/>
     </row>
-    <row r="435" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A435" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B435" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D435" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E435" s="5">
+        <v>1</v>
+      </c>
+      <c r="F435" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="L435" s="4"/>
     </row>
-    <row r="436" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D436" s="25"/>
+      <c r="E436" s="5">
+        <v>2</v>
+      </c>
+      <c r="F436" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G436" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="L436" s="4"/>
     </row>
-    <row r="437" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D437" s="26"/>
+      <c r="E437" s="5">
+        <v>3</v>
+      </c>
+      <c r="F437" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G437" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I437" s="11" t="s">
+        <v>398</v>
+      </c>
       <c r="L437" s="4"/>
     </row>
-    <row r="438" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I438" s="12"/>
       <c r="L438" s="4"/>
     </row>
-    <row r="439" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B439" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D439" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="E439" s="5">
+        <v>1</v>
+      </c>
+      <c r="F439" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="I439" s="15"/>
       <c r="L439" s="4"/>
     </row>
-    <row r="440" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="D440" s="26"/>
+      <c r="E440" s="5">
+        <v>2</v>
+      </c>
+      <c r="F440" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G440" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I440" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="L440" s="4"/>
     </row>
-    <row r="441" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L441" s="4"/>
     </row>
-    <row r="442" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A442" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D442" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E442" s="5">
+        <v>1</v>
+      </c>
+      <c r="F442" s="11" t="s">
+        <v>407</v>
+      </c>
       <c r="L442" s="4"/>
     </row>
-    <row r="443" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D443" s="26"/>
+      <c r="E443" s="5">
+        <v>2</v>
+      </c>
+      <c r="F443" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G443" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A445" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D445" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E445" s="5">
+        <v>1</v>
+      </c>
+      <c r="F445" s="11" t="s">
+        <v>407</v>
+      </c>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D446" s="25"/>
+      <c r="E446" s="5">
+        <v>2</v>
+      </c>
+      <c r="F446" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G446" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D447" s="26"/>
+      <c r="E447" s="5">
+        <v>3</v>
+      </c>
+      <c r="F447" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G447" s="11" t="s">
+        <v>413</v>
+      </c>
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A449" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B449" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D449" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E449" s="5">
+        <v>1</v>
+      </c>
+      <c r="F449" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D450" s="26"/>
+      <c r="E450" s="5">
+        <v>2</v>
+      </c>
+      <c r="F450" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G450" s="11" t="s">
+        <v>417</v>
+      </c>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I451" s="12"/>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B452" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D452" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E452" s="5">
+        <v>1</v>
+      </c>
+      <c r="F452" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="I452" s="15"/>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D453" s="25"/>
+      <c r="E453" s="5">
+        <v>2</v>
+      </c>
+      <c r="F453" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G453" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D454" s="26"/>
+      <c r="E454" s="5">
+        <v>3</v>
+      </c>
+      <c r="F454" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G454" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="I454" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B456" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D456" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E456" s="5">
+        <v>1</v>
+      </c>
+      <c r="F456" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="I456" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D457" s="25"/>
+      <c r="E457" s="5">
+        <v>2</v>
+      </c>
+      <c r="F457" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G457" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D458" s="25"/>
+      <c r="E458" s="5">
+        <v>3</v>
+      </c>
+      <c r="F458" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G458" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I458" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D459" s="25"/>
+      <c r="E459" s="5">
+        <v>4</v>
+      </c>
+      <c r="F459" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G459" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D460" s="26"/>
+      <c r="E460" s="5">
+        <v>5</v>
+      </c>
+      <c r="F460" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G460" s="11" t="s">
+        <v>433</v>
+      </c>
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A462" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B462" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D462" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F462" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="I462" s="12"/>
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I463" s="15"/>
+    <row r="463" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D463" s="25"/>
+      <c r="E463" s="5">
+        <v>1</v>
+      </c>
+      <c r="F463" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G463" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D464" s="25"/>
+      <c r="E464" s="5">
+        <v>2</v>
+      </c>
+      <c r="F464" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G464" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I464" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D465" s="25"/>
+      <c r="E465" s="5">
+        <v>3</v>
+      </c>
+      <c r="F465" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G465" s="11" t="s">
+        <v>439</v>
+      </c>
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D466" s="26"/>
+      <c r="E466" s="5">
+        <v>4</v>
+      </c>
+      <c r="F466" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G466" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A468" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B468" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D468" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="F468" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I468" s="12"/>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D469" s="25"/>
+      <c r="E469" s="5">
+        <v>1</v>
+      </c>
+      <c r="F469" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G469" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D470" s="25"/>
+      <c r="E470" s="5">
+        <v>2</v>
+      </c>
+      <c r="F470" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G470" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I470" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D471" s="25"/>
+      <c r="E471" s="5">
+        <v>3</v>
+      </c>
+      <c r="F471" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G471" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="K471" s="4"/>
       <c r="L471" s="4"/>
     </row>
-    <row r="472" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D472" s="26"/>
+      <c r="E472" s="5">
+        <v>4</v>
+      </c>
+      <c r="F472" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G472" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="K472" s="4"/>
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K473" s="4"/>
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B474" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D474" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="F474" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I474" s="12"/>
       <c r="K474" s="4"/>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I475" s="12"/>
+    <row r="475" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D475" s="25"/>
+      <c r="E475" s="5">
+        <v>1</v>
+      </c>
+      <c r="F475" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G475" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="K475" s="4"/>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I476" s="15"/>
+    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D476" s="25"/>
+      <c r="E476" s="5">
+        <v>2</v>
+      </c>
+      <c r="F476" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G476" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I476" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="K476" s="4"/>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D477" s="26"/>
+      <c r="E477" s="5">
+        <v>3</v>
+      </c>
+      <c r="F477" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G477" s="11" t="s">
+        <v>450</v>
+      </c>
       <c r="K477" s="4"/>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B479" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D479" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="E479" s="5">
+        <v>1</v>
+      </c>
+      <c r="F479" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G479" s="11" t="s">
+        <v>454</v>
+      </c>
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D480" s="25"/>
+      <c r="E480" s="5">
+        <v>2</v>
+      </c>
+      <c r="F480" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G480" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I480" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
     </row>
-    <row r="481" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D481" s="25"/>
+      <c r="E481" s="5">
+        <v>3</v>
+      </c>
+      <c r="F481" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G481" s="11" t="s">
+        <v>458</v>
+      </c>
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
     </row>
-    <row r="482" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D482" s="25"/>
+      <c r="F482" s="11" t="s">
+        <v>459</v>
+      </c>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
     </row>
-    <row r="483" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D483" s="25"/>
+      <c r="E483" s="5">
+        <v>4</v>
+      </c>
+      <c r="F483" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G483" s="11" t="s">
+        <v>460</v>
+      </c>
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
     </row>
-    <row r="484" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D484" s="25"/>
+      <c r="E484" s="5">
+        <v>5</v>
+      </c>
+      <c r="F484" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G484" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D485" s="25"/>
+      <c r="E485" s="5">
+        <v>6</v>
+      </c>
+      <c r="F485" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G485" s="11" t="s">
+        <v>429</v>
+      </c>
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D486" s="25"/>
+      <c r="E486" s="5">
+        <v>7</v>
+      </c>
+      <c r="F486" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G486" s="11" t="s">
+        <v>439</v>
+      </c>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D487" s="26"/>
+      <c r="E487" s="5">
+        <v>8</v>
+      </c>
+      <c r="F487" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G487" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="I487" s="12"/>
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I488" s="15"/>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A489" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B489" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D489" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E489" s="5">
+        <v>1</v>
+      </c>
+      <c r="F489" s="11" t="s">
+        <v>464</v>
+      </c>
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D490" s="26"/>
+      <c r="E490" s="5">
+        <v>2</v>
+      </c>
+      <c r="F490" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G490" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B492" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D492" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E492" s="5">
+        <v>1</v>
+      </c>
+      <c r="F492" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D493" s="25"/>
+      <c r="E493" s="5">
+        <v>2</v>
+      </c>
+      <c r="F493" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G493" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I493" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D494" s="26"/>
+      <c r="E494" s="5">
+        <v>3</v>
+      </c>
+      <c r="F494" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G494" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A496" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B496" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D496" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E496" s="5">
+        <v>1</v>
+      </c>
+      <c r="F496" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D497" s="25"/>
+      <c r="E497" s="5">
+        <v>2</v>
+      </c>
+      <c r="F497" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G497" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D498" s="25"/>
+      <c r="E498" s="5">
+        <v>3</v>
+      </c>
+      <c r="F498" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G498" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I498" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D499" s="25"/>
+      <c r="E499" s="5">
+        <v>4</v>
+      </c>
+      <c r="F499" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G499" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I499" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I500" s="12"/>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D500" s="25"/>
+      <c r="E500" s="5">
+        <v>5</v>
+      </c>
+      <c r="F500" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G500" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I501" s="15"/>
+    <row r="501" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D501" s="25"/>
+      <c r="E501" s="5">
+        <v>6</v>
+      </c>
+      <c r="F501" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G501" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I501" s="12"/>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D502" s="26"/>
+      <c r="E502" s="5">
+        <v>7</v>
+      </c>
+      <c r="F502" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="G502" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A504" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D504" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="E504" s="5">
+        <v>1</v>
+      </c>
+      <c r="F504" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D505" s="25"/>
+      <c r="E505" s="5">
+        <v>2</v>
+      </c>
+      <c r="F505" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G505" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D506" s="25"/>
+      <c r="E506" s="5">
+        <v>3</v>
+      </c>
+      <c r="F506" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G506" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I506" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D507" s="26"/>
+      <c r="E507" s="5">
+        <v>4</v>
+      </c>
+      <c r="F507" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G507" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A509" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D509" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E509" s="5">
+        <v>1</v>
+      </c>
+      <c r="F509" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D510" s="26"/>
+      <c r="E510" s="5">
+        <v>2</v>
+      </c>
+      <c r="F510" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G510" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I511" s="12"/>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B512" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D512" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E512" s="5">
+        <v>1</v>
+      </c>
+      <c r="F512" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G512" s="11" t="s">
+        <v>491</v>
+      </c>
       <c r="I512" s="15"/>
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D513" s="25"/>
+      <c r="E513" s="5">
+        <v>2</v>
+      </c>
+      <c r="F513" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G513" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D514" s="25"/>
+      <c r="E514" s="5">
+        <v>3</v>
+      </c>
+      <c r="F514" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G514" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I514" s="11" t="s">
+        <v>494</v>
+      </c>
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D515" s="25"/>
+      <c r="E515" s="5">
+        <v>4</v>
+      </c>
+      <c r="F515" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G515" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I515" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D516" s="26"/>
+      <c r="E516" s="5">
+        <v>5</v>
+      </c>
+      <c r="F516" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="G516" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A518" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B518" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D518" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E518" s="5">
+        <v>1</v>
+      </c>
+      <c r="F518" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G518" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I518" s="15"/>
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D519" s="25"/>
+      <c r="E519" s="5">
+        <v>2</v>
+      </c>
+      <c r="F519" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G519" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D520" s="25"/>
+      <c r="E520" s="5">
+        <v>3</v>
+      </c>
+      <c r="F520" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G520" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I520" s="11" t="s">
+        <v>499</v>
+      </c>
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I521" s="12"/>
+    <row r="521" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D521" s="25"/>
+      <c r="E521" s="5">
+        <v>4</v>
+      </c>
+      <c r="F521" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G521" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I521" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I522" s="15"/>
+    <row r="522" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D522" s="26"/>
+      <c r="E522" s="5">
+        <v>5</v>
+      </c>
+      <c r="F522" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="G522" s="11" t="s">
+        <v>506</v>
+      </c>
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A524" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D524" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E524" s="5">
+        <v>1</v>
+      </c>
+      <c r="F524" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G524" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I524" s="15"/>
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D525" s="25"/>
+      <c r="E525" s="5">
+        <v>2</v>
+      </c>
+      <c r="F525" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G525" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D526" s="25"/>
+      <c r="E526" s="5">
+        <v>3</v>
+      </c>
+      <c r="F526" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="G526" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I526" s="11" t="s">
+        <v>504</v>
+      </c>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D527" s="25"/>
+      <c r="E527" s="5">
+        <v>4</v>
+      </c>
+      <c r="F527" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G527" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I527" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D528" s="26"/>
+      <c r="E528" s="5">
+        <v>5</v>
+      </c>
+      <c r="F528" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="G528" s="11" t="s">
+        <v>505</v>
+      </c>
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
@@ -8871,7 +10857,59 @@
       <c r="L717" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="68">
+    <mergeCell ref="D512:D516"/>
+    <mergeCell ref="D518:D522"/>
+    <mergeCell ref="D524:D528"/>
+    <mergeCell ref="D492:D494"/>
+    <mergeCell ref="D496:D502"/>
+    <mergeCell ref="D504:D507"/>
+    <mergeCell ref="D509:D510"/>
+    <mergeCell ref="D462:D466"/>
+    <mergeCell ref="D468:D472"/>
+    <mergeCell ref="D474:D477"/>
+    <mergeCell ref="D479:D487"/>
+    <mergeCell ref="D489:D490"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="D445:D447"/>
+    <mergeCell ref="D449:D450"/>
+    <mergeCell ref="D452:D454"/>
+    <mergeCell ref="D456:D460"/>
+    <mergeCell ref="D419:D426"/>
+    <mergeCell ref="D428:D429"/>
+    <mergeCell ref="D431:D433"/>
+    <mergeCell ref="D435:D437"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="D389:D398"/>
+    <mergeCell ref="D400:D408"/>
+    <mergeCell ref="D410:D411"/>
+    <mergeCell ref="D413:D414"/>
+    <mergeCell ref="D416:D417"/>
+    <mergeCell ref="D284:D287"/>
+    <mergeCell ref="D343:D345"/>
+    <mergeCell ref="D347:D349"/>
+    <mergeCell ref="D351:D352"/>
+    <mergeCell ref="D354:D369"/>
+    <mergeCell ref="D294:D309"/>
+    <mergeCell ref="D311:D324"/>
+    <mergeCell ref="D326:D335"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="D253:D270"/>
+    <mergeCell ref="D272:D274"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D30:D42"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D55:D68"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="D371:D375"/>
     <mergeCell ref="D377:D387"/>
     <mergeCell ref="D90:D98"/>
@@ -8884,35 +10922,10 @@
     <mergeCell ref="D199:D210"/>
     <mergeCell ref="D212:D232"/>
     <mergeCell ref="D289:D292"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="D16:D28"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D30:D42"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D55:D68"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="D110:D118"/>
     <mergeCell ref="D120:D128"/>
     <mergeCell ref="D130:D148"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="D253:D270"/>
-    <mergeCell ref="D272:D274"/>
-    <mergeCell ref="D276:D278"/>
     <mergeCell ref="D280:D282"/>
-    <mergeCell ref="D284:D287"/>
-    <mergeCell ref="D343:D345"/>
-    <mergeCell ref="D347:D349"/>
-    <mergeCell ref="D351:D352"/>
-    <mergeCell ref="D354:D369"/>
-    <mergeCell ref="D294:D309"/>
-    <mergeCell ref="D311:D324"/>
-    <mergeCell ref="D326:D335"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="D340:D341"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 K2:K7 K9:K469 C9:C643" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -8921,7 +10934,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C644:C713" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B20 B29:B30 B40 B51 B64 B76 B88 B100:B101 B116:B117 B129:B130 B143 B162 B178:B179 B193 B208 B222 B236 B250 B264 B267 B253 B279:B280 B284:B285 B289:B290 B276 B299 B307 B315 B322 B329 B336:B337 B342:B343 B349 B361 B370:B371 B380 B390 B405 B421 B438 B451 B462 B475 B487 B500 B511 B521 B534 B545 B557 B574 B593 B603 B614 B625 B636 B16 B44 B49 B55 B70 B74 B78 B83 B90 B110 B120 B150 B171 B199 B212 B234 B241 B272 B294 B311 B326 B340 B347 B351 B354 B377" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B20 B29:B30 B40 B51 B64 B76 B88 B100:B101 B116:B117 B129:B130 B143 B162 B178:B179 B193 B208 B222 B236 B250 B264 B267 B253 B279:B280 B284:B285 B289:B290 B276 B299 B307 B315 B322 B329 B336:B337 B342:B343 B349 B361 B370:B371 B380 B389:B390 B405 B421 B438:B439 B451:B452 B456 B474:B475 B487 B500 B511:B512 B521 B534 B545 B557 B574 B593 B603 B614 B625 B636 B16 B44 B49 B55 B70 B74 B78 B83 B90 B110 B120 B150 B171 B199 B212 B234 B241 B272 B294 B311 B326 B340 B347 B351 B354 B377 B400 B410 B413 B416 B419 B428 B431 B435 B442 B445 B449 B462 B468 B479 B489 B492 B496 B504 B509 B518 B524" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7 L9:L717" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -8952,9 +10965,12 @@
     <hyperlink ref="I326" r:id="rId18" xr:uid="{B0EDD7B4-594C-43B4-9A4F-D7149ED8AD4D}"/>
     <hyperlink ref="I354" r:id="rId19" xr:uid="{27EB00AC-4D64-414F-BEB1-EEE377466BC7}"/>
     <hyperlink ref="I377" r:id="rId20" xr:uid="{C3D63705-EAF6-42D2-80DE-6E15BF19CB1C}"/>
+    <hyperlink ref="I389" r:id="rId21" xr:uid="{3854D442-7AF2-40E7-BA40-E5BA2D048BA1}"/>
+    <hyperlink ref="I400" r:id="rId22" xr:uid="{D112225C-9182-4C72-8110-929AD9D06E49}"/>
+    <hyperlink ref="I419" r:id="rId23" xr:uid="{BE8284A3-BD41-4E7A-B451-3F994A2BB3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -8970,14 +10986,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases/Poornima/Test Case- Store.xlsx
+++ b/Test Cases/Poornima/Test Case- Store.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\Mediware-Repository\Test Cases\Poornima\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F35EE-4B87-4EC9-B193-4E0BC87749AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="STR" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="509">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1729,12 +1723,19 @@
   <si>
     <t>Order approved message pop-up should be displayed.Navigate to Purchase order page and should be able to view a red circle as status with number one for priority 'major'</t>
   </si>
+  <si>
+    <t>EQ1-I222</t>
+  </si>
+  <si>
+    <t>EQ1-I221
+EQ1-I215</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,9 +1955,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1967,6 +1965,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,7 +2040,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2091,7 +2092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2285,22 +2286,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H522" sqref="H522"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="11" customWidth="1"/>
@@ -2317,7 +2318,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2367,7 @@
       </c>
       <c r="S1" s="28"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="5">
@@ -2411,11 +2412,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="14" customFormat="1" ht="45">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5">
         <v>2</v>
       </c>
@@ -2448,11 +2449,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="14" customFormat="1" ht="30">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5">
         <v>3</v>
       </c>
@@ -2482,8 +2483,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="23"/>
+    <row r="5" spans="1:19" ht="30">
+      <c r="D5" s="27"/>
       <c r="E5" s="5">
         <v>4</v>
       </c>
@@ -2505,8 +2506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="D6" s="23"/>
+    <row r="6" spans="1:19" ht="45">
+      <c r="D6" s="27"/>
       <c r="E6" s="5">
         <v>5</v>
       </c>
@@ -2521,8 +2522,8 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="23"/>
+    <row r="7" spans="1:19" ht="30">
+      <c r="D7" s="27"/>
       <c r="E7" s="5">
         <v>6</v>
       </c>
@@ -2537,8 +2538,8 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="23"/>
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1">
+      <c r="D8" s="27"/>
       <c r="E8" s="5">
         <v>7</v>
       </c>
@@ -2549,8 +2550,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="23"/>
+    <row r="9" spans="1:19" ht="30">
+      <c r="D9" s="27"/>
       <c r="E9" s="5">
         <v>8</v>
       </c>
@@ -2565,8 +2566,8 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D10" s="23"/>
+    <row r="10" spans="1:19" ht="30">
+      <c r="D10" s="27"/>
       <c r="E10" s="5">
         <v>9</v>
       </c>
@@ -2579,8 +2580,8 @@
       <c r="I10" s="12"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="D11" s="23"/>
+    <row r="11" spans="1:19" ht="60">
+      <c r="D11" s="27"/>
       <c r="E11" s="5">
         <v>10</v>
       </c>
@@ -2595,8 +2596,8 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="23"/>
+    <row r="12" spans="1:19" ht="30">
+      <c r="D12" s="27"/>
       <c r="E12" s="5">
         <v>11</v>
       </c>
@@ -2611,8 +2612,8 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="23"/>
+    <row r="13" spans="1:19" ht="90">
+      <c r="D13" s="27"/>
       <c r="E13" s="5">
         <v>12</v>
       </c>
@@ -2627,8 +2628,8 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="23"/>
+    <row r="14" spans="1:19" ht="30">
+      <c r="D14" s="27"/>
       <c r="E14" s="5">
         <v>13</v>
       </c>
@@ -2640,10 +2641,10 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -2653,7 +2654,7 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="5">
@@ -2670,8 +2671,8 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="23"/>
+    <row r="17" spans="1:12" ht="45">
+      <c r="D17" s="27"/>
       <c r="E17" s="5">
         <v>2</v>
       </c>
@@ -2686,8 +2687,8 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="23"/>
+    <row r="18" spans="1:12" ht="30">
+      <c r="D18" s="27"/>
       <c r="E18" s="5">
         <v>3</v>
       </c>
@@ -2702,8 +2703,8 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="23"/>
+    <row r="19" spans="1:12" ht="30">
+      <c r="D19" s="27"/>
       <c r="E19" s="5">
         <v>4</v>
       </c>
@@ -2718,8 +2719,8 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D20" s="23"/>
+    <row r="20" spans="1:12" ht="45">
+      <c r="D20" s="27"/>
       <c r="E20" s="5">
         <v>5</v>
       </c>
@@ -2734,8 +2735,8 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="23"/>
+    <row r="21" spans="1:12" ht="30">
+      <c r="D21" s="27"/>
       <c r="E21" s="5">
         <v>6</v>
       </c>
@@ -2750,8 +2751,8 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D22" s="23"/>
+    <row r="22" spans="1:12" ht="45">
+      <c r="D22" s="27"/>
       <c r="E22" s="5">
         <v>7</v>
       </c>
@@ -2763,8 +2764,8 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="23"/>
+    <row r="23" spans="1:12" ht="30">
+      <c r="D23" s="27"/>
       <c r="E23" s="5">
         <v>8</v>
       </c>
@@ -2779,8 +2780,8 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="23"/>
+    <row r="24" spans="1:12" ht="30">
+      <c r="D24" s="27"/>
       <c r="E24" s="5">
         <v>9</v>
       </c>
@@ -2793,8 +2794,8 @@
       <c r="I24" s="12"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D25" s="23"/>
+    <row r="25" spans="1:12" ht="60">
+      <c r="D25" s="27"/>
       <c r="E25" s="5">
         <v>10</v>
       </c>
@@ -2809,8 +2810,8 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D26" s="23"/>
+    <row r="26" spans="1:12" ht="60">
+      <c r="D26" s="27"/>
       <c r="E26" s="5">
         <v>11</v>
       </c>
@@ -2825,8 +2826,8 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="23"/>
+    <row r="27" spans="1:12">
+      <c r="D27" s="27"/>
       <c r="E27" s="5">
         <v>12</v>
       </c>
@@ -2838,8 +2839,8 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D28" s="23"/>
+    <row r="28" spans="1:12" ht="30">
+      <c r="D28" s="27"/>
       <c r="E28" s="5">
         <v>13</v>
       </c>
@@ -2851,11 +2852,11 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="I29" s="12"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -2865,7 +2866,7 @@
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="5">
@@ -2882,8 +2883,8 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="23"/>
+    <row r="31" spans="1:12" ht="45">
+      <c r="D31" s="27"/>
       <c r="E31" s="5">
         <v>2</v>
       </c>
@@ -2898,8 +2899,8 @@
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="23"/>
+    <row r="32" spans="1:12" ht="30">
+      <c r="D32" s="27"/>
       <c r="E32" s="5">
         <v>3</v>
       </c>
@@ -2914,8 +2915,8 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="23"/>
+    <row r="33" spans="1:12" ht="30">
+      <c r="D33" s="27"/>
       <c r="E33" s="5">
         <v>4</v>
       </c>
@@ -2930,8 +2931,8 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D34" s="23"/>
+    <row r="34" spans="1:12" ht="45">
+      <c r="D34" s="27"/>
       <c r="E34" s="5">
         <v>5</v>
       </c>
@@ -2946,8 +2947,8 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="23"/>
+    <row r="35" spans="1:12" ht="30">
+      <c r="D35" s="27"/>
       <c r="E35" s="5">
         <v>6</v>
       </c>
@@ -2962,8 +2963,8 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D36" s="23"/>
+    <row r="36" spans="1:12" ht="45">
+      <c r="D36" s="27"/>
       <c r="E36" s="5">
         <v>7</v>
       </c>
@@ -2975,8 +2976,8 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="23"/>
+    <row r="37" spans="1:12" ht="30">
+      <c r="D37" s="27"/>
       <c r="E37" s="5">
         <v>8</v>
       </c>
@@ -2991,8 +2992,8 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="23"/>
+    <row r="38" spans="1:12" ht="30">
+      <c r="D38" s="27"/>
       <c r="E38" s="5">
         <v>9</v>
       </c>
@@ -3005,8 +3006,8 @@
       <c r="I38" s="12"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D39" s="23"/>
+    <row r="39" spans="1:12" ht="60">
+      <c r="D39" s="27"/>
       <c r="E39" s="5">
         <v>10</v>
       </c>
@@ -3021,8 +3022,8 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D40" s="23"/>
+    <row r="40" spans="1:12" ht="60">
+      <c r="D40" s="27"/>
       <c r="E40" s="5">
         <v>11</v>
       </c>
@@ -3037,8 +3038,8 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="23"/>
+    <row r="41" spans="1:12" ht="30">
+      <c r="D41" s="27"/>
       <c r="E41" s="5">
         <v>12</v>
       </c>
@@ -3051,8 +3052,8 @@
       <c r="I41" s="15"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="23"/>
+    <row r="42" spans="1:12" ht="30">
+      <c r="D42" s="27"/>
       <c r="E42" s="5">
         <v>13</v>
       </c>
@@ -3065,11 +3066,11 @@
       <c r="I42" s="12"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="I43" s="12"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="11" t="s">
         <v>70</v>
       </c>
@@ -3079,7 +3080,7 @@
       <c r="C44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
@@ -3090,8 +3091,8 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D45" s="23"/>
+    <row r="45" spans="1:12" ht="30">
+      <c r="D45" s="27"/>
       <c r="E45" s="5">
         <v>2</v>
       </c>
@@ -3106,8 +3107,8 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="23"/>
+    <row r="46" spans="1:12" ht="30">
+      <c r="D46" s="27"/>
       <c r="E46" s="5">
         <v>3</v>
       </c>
@@ -3119,8 +3120,8 @@
       </c>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="23"/>
+    <row r="47" spans="1:12" ht="30">
+      <c r="D47" s="27"/>
       <c r="E47" s="5">
         <v>4</v>
       </c>
@@ -3132,10 +3133,10 @@
       </c>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>79</v>
       </c>
@@ -3145,7 +3146,7 @@
       <c r="C49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E49" s="5">
@@ -3156,8 +3157,8 @@
       </c>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D50" s="23"/>
+    <row r="50" spans="1:12" ht="30">
+      <c r="D50" s="27"/>
       <c r="E50" s="5">
         <v>2</v>
       </c>
@@ -3169,8 +3170,8 @@
       </c>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="23"/>
+    <row r="51" spans="1:12" ht="30">
+      <c r="D51" s="27"/>
       <c r="E51" s="5">
         <v>3</v>
       </c>
@@ -3183,8 +3184,8 @@
       <c r="I51" s="12"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D52" s="23"/>
+    <row r="52" spans="1:12" ht="105">
+      <c r="D52" s="27"/>
       <c r="E52" s="5">
         <v>4</v>
       </c>
@@ -3199,8 +3200,8 @@
       </c>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D53" s="23"/>
+    <row r="53" spans="1:12" ht="30">
+      <c r="D53" s="27"/>
       <c r="E53" s="5">
         <v>5</v>
       </c>
@@ -3213,11 +3214,11 @@
       <c r="I53" s="12"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="I54" s="12"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="11" t="s">
         <v>84</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="C55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E55" s="5">
@@ -3244,8 +3245,8 @@
       </c>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D56" s="27"/>
+    <row r="56" spans="1:12" ht="45">
+      <c r="D56" s="26"/>
       <c r="E56" s="5">
         <v>2</v>
       </c>
@@ -3260,8 +3261,8 @@
       </c>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="27"/>
+    <row r="57" spans="1:12" ht="30">
+      <c r="D57" s="26"/>
       <c r="E57" s="5">
         <v>3</v>
       </c>
@@ -3276,8 +3277,8 @@
       </c>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D58" s="27"/>
+    <row r="58" spans="1:12" ht="30">
+      <c r="D58" s="26"/>
       <c r="E58" s="5">
         <v>4</v>
       </c>
@@ -3292,8 +3293,8 @@
       </c>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D59" s="27"/>
+    <row r="59" spans="1:12" ht="45">
+      <c r="D59" s="26"/>
       <c r="E59" s="5">
         <v>5</v>
       </c>
@@ -3308,8 +3309,8 @@
       </c>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="27"/>
+    <row r="60" spans="1:12" ht="30">
+      <c r="D60" s="26"/>
       <c r="E60" s="5">
         <v>6</v>
       </c>
@@ -3324,8 +3325,8 @@
       </c>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D61" s="27"/>
+    <row r="61" spans="1:12" ht="45">
+      <c r="D61" s="26"/>
       <c r="E61" s="5">
         <v>7</v>
       </c>
@@ -3337,8 +3338,8 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D62" s="27"/>
+    <row r="62" spans="1:12" ht="30">
+      <c r="D62" s="26"/>
       <c r="E62" s="5">
         <v>8</v>
       </c>
@@ -3353,8 +3354,8 @@
       </c>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D63" s="27"/>
+    <row r="63" spans="1:12" ht="30">
+      <c r="D63" s="26"/>
       <c r="E63" s="5">
         <v>9</v>
       </c>
@@ -3367,8 +3368,8 @@
       <c r="I63" s="12"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D64" s="27"/>
+    <row r="64" spans="1:12" ht="60">
+      <c r="D64" s="26"/>
       <c r="E64" s="5">
         <v>10</v>
       </c>
@@ -3383,8 +3384,8 @@
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D65" s="27"/>
+    <row r="65" spans="1:12" ht="60">
+      <c r="D65" s="26"/>
       <c r="E65" s="5">
         <v>11</v>
       </c>
@@ -3399,8 +3400,8 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="27"/>
+    <row r="66" spans="1:12" ht="30">
+      <c r="D66" s="26"/>
       <c r="E66" s="5">
         <v>12</v>
       </c>
@@ -3413,8 +3414,8 @@
       <c r="I66" s="15"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="27"/>
+    <row r="67" spans="1:12" ht="30">
+      <c r="D67" s="26"/>
       <c r="E67" s="5">
         <v>13</v>
       </c>
@@ -3429,8 +3430,8 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="27"/>
+    <row r="68" spans="1:12" ht="30">
+      <c r="D68" s="26"/>
       <c r="E68" s="5">
         <v>14</v>
       </c>
@@ -3442,10 +3443,10 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="45" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>91</v>
       </c>
@@ -3455,7 +3456,7 @@
       <c r="C70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="26" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="5">
@@ -3466,8 +3467,8 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D71" s="27"/>
+    <row r="71" spans="1:12" ht="45">
+      <c r="D71" s="26"/>
       <c r="E71" s="5">
         <v>2</v>
       </c>
@@ -3482,8 +3483,8 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="27"/>
+    <row r="72" spans="1:12" ht="30">
+      <c r="D72" s="26"/>
       <c r="E72" s="5">
         <v>3</v>
       </c>
@@ -3495,10 +3496,10 @@
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="45" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>98</v>
       </c>
@@ -3508,7 +3509,7 @@
       <c r="C74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="27" t="s">
         <v>99</v>
       </c>
       <c r="E74" s="5">
@@ -3519,8 +3520,8 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D75" s="23"/>
+    <row r="75" spans="1:12" ht="45">
+      <c r="D75" s="27"/>
       <c r="E75" s="5">
         <v>2</v>
       </c>
@@ -3532,8 +3533,8 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="23"/>
+    <row r="76" spans="1:12" ht="30">
+      <c r="D76" s="27"/>
       <c r="E76" s="5">
         <v>3</v>
       </c>
@@ -3546,11 +3547,11 @@
       <c r="I76" s="12"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="I77" s="15"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="30">
       <c r="A78" s="11" t="s">
         <v>103</v>
       </c>
@@ -3560,7 +3561,7 @@
       <c r="C78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E78" s="5">
@@ -3571,8 +3572,8 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D79" s="23"/>
+    <row r="79" spans="1:12" ht="45">
+      <c r="D79" s="27"/>
       <c r="E79" s="5">
         <v>2</v>
       </c>
@@ -3584,8 +3585,8 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="23"/>
+    <row r="80" spans="1:12" ht="30">
+      <c r="D80" s="27"/>
       <c r="E80" s="5">
         <v>3</v>
       </c>
@@ -3600,8 +3601,8 @@
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="23"/>
+    <row r="81" spans="1:12" ht="30">
+      <c r="D81" s="27"/>
       <c r="E81" s="5">
         <v>4</v>
       </c>
@@ -3613,10 +3614,10 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="45" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>112</v>
       </c>
@@ -3626,7 +3627,7 @@
       <c r="C83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="27" t="s">
         <v>477</v>
       </c>
       <c r="E83" s="5">
@@ -3637,8 +3638,8 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="23"/>
+    <row r="84" spans="1:12" ht="30">
+      <c r="D84" s="27"/>
       <c r="E84" s="5">
         <v>2</v>
       </c>
@@ -3650,8 +3651,8 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D85" s="23"/>
+    <row r="85" spans="1:12" ht="30">
+      <c r="D85" s="27"/>
       <c r="E85" s="5">
         <v>3</v>
       </c>
@@ -3666,8 +3667,8 @@
       </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D86" s="23"/>
+    <row r="86" spans="1:12" ht="30">
+      <c r="D86" s="27"/>
       <c r="E86" s="5">
         <v>4</v>
       </c>
@@ -3682,8 +3683,8 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D87" s="23"/>
+    <row r="87" spans="1:12">
+      <c r="D87" s="27"/>
       <c r="E87" s="5">
         <v>5</v>
       </c>
@@ -3695,8 +3696,8 @@
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D88" s="23"/>
+    <row r="88" spans="1:12" ht="60">
+      <c r="D88" s="27"/>
       <c r="E88" s="5">
         <v>6</v>
       </c>
@@ -3709,11 +3710,11 @@
       <c r="I88" s="12"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="I89" s="15"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="11" t="s">
         <v>125</v>
       </c>
@@ -3723,7 +3724,7 @@
       <c r="C90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="5">
@@ -3740,8 +3741,8 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D91" s="23"/>
+    <row r="91" spans="1:12" ht="45">
+      <c r="D91" s="27"/>
       <c r="E91" s="5">
         <v>2</v>
       </c>
@@ -3756,8 +3757,8 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="23"/>
+    <row r="92" spans="1:12" ht="30">
+      <c r="D92" s="27"/>
       <c r="E92" s="5">
         <v>3</v>
       </c>
@@ -3772,8 +3773,8 @@
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D93" s="23"/>
+    <row r="93" spans="1:12" ht="30">
+      <c r="D93" s="27"/>
       <c r="E93" s="5">
         <v>4</v>
       </c>
@@ -3788,8 +3789,8 @@
       </c>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D94" s="23"/>
+    <row r="94" spans="1:12" ht="45">
+      <c r="D94" s="27"/>
       <c r="E94" s="5">
         <v>5</v>
       </c>
@@ -3804,8 +3805,8 @@
       </c>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="23"/>
+    <row r="95" spans="1:12" ht="30">
+      <c r="D95" s="27"/>
       <c r="E95" s="5">
         <v>6</v>
       </c>
@@ -3820,8 +3821,8 @@
       </c>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="23"/>
+    <row r="96" spans="1:12" ht="30">
+      <c r="D96" s="27"/>
       <c r="E96" s="5">
         <v>7</v>
       </c>
@@ -3833,8 +3834,8 @@
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D97" s="23"/>
+    <row r="97" spans="1:12" ht="30">
+      <c r="D97" s="27"/>
       <c r="E97" s="5">
         <v>8</v>
       </c>
@@ -3849,8 +3850,8 @@
       </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D98" s="23"/>
+    <row r="98" spans="1:12" ht="45">
+      <c r="D98" s="27"/>
       <c r="E98" s="5">
         <v>9</v>
       </c>
@@ -3862,10 +3863,10 @@
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="30">
       <c r="A100" s="11" t="s">
         <v>132</v>
       </c>
@@ -3875,7 +3876,7 @@
       <c r="C100" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="27" t="s">
         <v>133</v>
       </c>
       <c r="E100" s="5">
@@ -3892,8 +3893,8 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D101" s="23"/>
+    <row r="101" spans="1:12" ht="45">
+      <c r="D101" s="27"/>
       <c r="E101" s="5">
         <v>2</v>
       </c>
@@ -3908,8 +3909,8 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D102" s="23"/>
+    <row r="102" spans="1:12" ht="30">
+      <c r="D102" s="27"/>
       <c r="E102" s="5">
         <v>3</v>
       </c>
@@ -3924,8 +3925,8 @@
       </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D103" s="23"/>
+    <row r="103" spans="1:12" ht="30">
+      <c r="D103" s="27"/>
       <c r="E103" s="5">
         <v>4</v>
       </c>
@@ -3940,8 +3941,8 @@
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D104" s="23"/>
+    <row r="104" spans="1:12" ht="45">
+      <c r="D104" s="27"/>
       <c r="E104" s="5">
         <v>5</v>
       </c>
@@ -3956,8 +3957,8 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D105" s="23"/>
+    <row r="105" spans="1:12" ht="30">
+      <c r="D105" s="27"/>
       <c r="E105" s="5">
         <v>6</v>
       </c>
@@ -3972,8 +3973,8 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="23"/>
+    <row r="106" spans="1:12" ht="30">
+      <c r="D106" s="27"/>
       <c r="E106" s="5">
         <v>7</v>
       </c>
@@ -3985,8 +3986,8 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D107" s="23"/>
+    <row r="107" spans="1:12" ht="30">
+      <c r="D107" s="27"/>
       <c r="E107" s="5">
         <v>8</v>
       </c>
@@ -4001,8 +4002,8 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D108" s="23"/>
+    <row r="108" spans="1:12" ht="60">
+      <c r="D108" s="27"/>
       <c r="E108" s="5">
         <v>9</v>
       </c>
@@ -4017,11 +4018,11 @@
       </c>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="F109" s="16"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="30">
       <c r="A110" s="11" t="s">
         <v>136</v>
       </c>
@@ -4031,7 +4032,7 @@
       <c r="C110" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="D110" s="27" t="s">
         <v>137</v>
       </c>
       <c r="E110" s="5">
@@ -4048,8 +4049,8 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D111" s="23"/>
+    <row r="111" spans="1:12" ht="45">
+      <c r="D111" s="27"/>
       <c r="E111" s="5">
         <v>2</v>
       </c>
@@ -4064,8 +4065,8 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D112" s="23"/>
+    <row r="112" spans="1:12" ht="30">
+      <c r="D112" s="27"/>
       <c r="E112" s="5">
         <v>3</v>
       </c>
@@ -4080,8 +4081,8 @@
       </c>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D113" s="23"/>
+    <row r="113" spans="1:12" ht="30">
+      <c r="D113" s="27"/>
       <c r="E113" s="5">
         <v>4</v>
       </c>
@@ -4096,8 +4097,8 @@
       </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D114" s="23"/>
+    <row r="114" spans="1:12" ht="45">
+      <c r="D114" s="27"/>
       <c r="E114" s="5">
         <v>5</v>
       </c>
@@ -4112,8 +4113,8 @@
       </c>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D115" s="23"/>
+    <row r="115" spans="1:12" ht="30">
+      <c r="D115" s="27"/>
       <c r="E115" s="5">
         <v>6</v>
       </c>
@@ -4128,8 +4129,8 @@
       </c>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D116" s="23"/>
+    <row r="116" spans="1:12" ht="30">
+      <c r="D116" s="27"/>
       <c r="E116" s="5">
         <v>7</v>
       </c>
@@ -4141,8 +4142,8 @@
       </c>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D117" s="23"/>
+    <row r="117" spans="1:12" ht="30">
+      <c r="D117" s="27"/>
       <c r="E117" s="5">
         <v>8</v>
       </c>
@@ -4157,8 +4158,8 @@
       </c>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D118" s="23"/>
+    <row r="118" spans="1:12" ht="60">
+      <c r="D118" s="27"/>
       <c r="E118" s="5">
         <v>9</v>
       </c>
@@ -4173,10 +4174,10 @@
       </c>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="30">
       <c r="A120" s="11" t="s">
         <v>140</v>
       </c>
@@ -4186,7 +4187,7 @@
       <c r="C120" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="23" t="s">
+      <c r="D120" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E120" s="5">
@@ -4203,8 +4204,8 @@
       </c>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D121" s="23"/>
+    <row r="121" spans="1:12" ht="45">
+      <c r="D121" s="27"/>
       <c r="E121" s="5">
         <v>2</v>
       </c>
@@ -4219,8 +4220,8 @@
       </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D122" s="23"/>
+    <row r="122" spans="1:12" ht="30">
+      <c r="D122" s="27"/>
       <c r="E122" s="5">
         <v>3</v>
       </c>
@@ -4235,8 +4236,8 @@
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D123" s="23"/>
+    <row r="123" spans="1:12" ht="30">
+      <c r="D123" s="27"/>
       <c r="E123" s="5">
         <v>4</v>
       </c>
@@ -4251,8 +4252,8 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D124" s="23"/>
+    <row r="124" spans="1:12" ht="45">
+      <c r="D124" s="27"/>
       <c r="E124" s="5">
         <v>5</v>
       </c>
@@ -4267,8 +4268,8 @@
       </c>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D125" s="23"/>
+    <row r="125" spans="1:12" ht="30">
+      <c r="D125" s="27"/>
       <c r="E125" s="5">
         <v>6</v>
       </c>
@@ -4283,9 +4284,9 @@
       </c>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="30">
       <c r="A126" s="20"/>
-      <c r="D126" s="23"/>
+      <c r="D126" s="27"/>
       <c r="E126" s="5">
         <v>7</v>
       </c>
@@ -4297,8 +4298,8 @@
       </c>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="23"/>
+    <row r="127" spans="1:12" ht="30">
+      <c r="D127" s="27"/>
       <c r="E127" s="5">
         <v>8</v>
       </c>
@@ -4313,8 +4314,8 @@
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D128" s="23"/>
+    <row r="128" spans="1:12" ht="60">
+      <c r="D128" s="27"/>
       <c r="E128" s="5">
         <v>9</v>
       </c>
@@ -4329,11 +4330,11 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="I129" s="12"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30">
       <c r="A130" s="11" t="s">
         <v>146</v>
       </c>
@@ -4343,7 +4344,7 @@
       <c r="C130" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="D130" s="27" t="s">
         <v>147</v>
       </c>
       <c r="E130" s="5">
@@ -4358,10 +4359,13 @@
       <c r="I130" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="J130" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D131" s="23"/>
+    <row r="131" spans="1:12" ht="45">
+      <c r="D131" s="27"/>
       <c r="E131" s="5">
         <v>2</v>
       </c>
@@ -4376,8 +4380,8 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="23"/>
+    <row r="132" spans="1:12" ht="30">
+      <c r="D132" s="27"/>
       <c r="E132" s="5">
         <v>3</v>
       </c>
@@ -4392,8 +4396,8 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D133" s="23"/>
+    <row r="133" spans="1:12" ht="30">
+      <c r="D133" s="27"/>
       <c r="E133" s="5">
         <v>4</v>
       </c>
@@ -4408,8 +4412,8 @@
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D134" s="23"/>
+    <row r="134" spans="1:12" ht="45">
+      <c r="D134" s="27"/>
       <c r="E134" s="5">
         <v>5</v>
       </c>
@@ -4424,8 +4428,8 @@
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D135" s="23"/>
+    <row r="135" spans="1:12" ht="30">
+      <c r="D135" s="27"/>
       <c r="E135" s="5">
         <v>6</v>
       </c>
@@ -4440,8 +4444,8 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="23"/>
+    <row r="136" spans="1:12" ht="30">
+      <c r="D136" s="27"/>
       <c r="E136" s="5">
         <v>7</v>
       </c>
@@ -4453,8 +4457,8 @@
       </c>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D137" s="23"/>
+    <row r="137" spans="1:12" ht="30">
+      <c r="D137" s="27"/>
       <c r="E137" s="5">
         <v>8</v>
       </c>
@@ -4466,8 +4470,8 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D138" s="23"/>
+    <row r="138" spans="1:12" ht="30">
+      <c r="D138" s="27"/>
       <c r="E138" s="5">
         <v>9</v>
       </c>
@@ -4482,8 +4486,8 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D139" s="23"/>
+    <row r="139" spans="1:12" ht="30">
+      <c r="D139" s="27"/>
       <c r="E139" s="5">
         <v>10</v>
       </c>
@@ -4498,8 +4502,8 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D140" s="23"/>
+    <row r="140" spans="1:12" ht="30">
+      <c r="D140" s="27"/>
       <c r="E140" s="5">
         <v>11</v>
       </c>
@@ -4514,8 +4518,8 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D141" s="23"/>
+    <row r="141" spans="1:12" ht="45">
+      <c r="D141" s="27"/>
       <c r="E141" s="5">
         <v>12</v>
       </c>
@@ -4530,8 +4534,8 @@
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D142" s="23"/>
+    <row r="142" spans="1:12" ht="45">
+      <c r="D142" s="27"/>
       <c r="E142" s="5">
         <v>13</v>
       </c>
@@ -4543,8 +4547,8 @@
       </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D143" s="23"/>
+    <row r="143" spans="1:12" ht="30">
+      <c r="D143" s="27"/>
       <c r="E143" s="5">
         <v>14</v>
       </c>
@@ -4559,8 +4563,8 @@
       </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D144" s="23"/>
+    <row r="144" spans="1:12" ht="30">
+      <c r="D144" s="27"/>
       <c r="E144" s="5">
         <v>15</v>
       </c>
@@ -4575,8 +4579,8 @@
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D145" s="23"/>
+    <row r="145" spans="1:12" ht="30">
+      <c r="D145" s="27"/>
       <c r="E145" s="5">
         <v>16</v>
       </c>
@@ -4591,8 +4595,8 @@
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D146" s="23"/>
+    <row r="146" spans="1:12">
+      <c r="D146" s="27"/>
       <c r="E146" s="5">
         <v>17</v>
       </c>
@@ -4604,8 +4608,8 @@
       </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D147" s="23"/>
+    <row r="147" spans="1:12" ht="30">
+      <c r="D147" s="27"/>
       <c r="E147" s="5">
         <v>18</v>
       </c>
@@ -4617,8 +4621,8 @@
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D148" s="23"/>
+    <row r="148" spans="1:12" ht="30">
+      <c r="D148" s="27"/>
       <c r="E148" s="5">
         <v>19</v>
       </c>
@@ -4630,11 +4634,11 @@
       </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="F149" s="16"/>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="30">
       <c r="A150" s="11" t="s">
         <v>176</v>
       </c>
@@ -4644,7 +4648,7 @@
       <c r="C150" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="27" t="s">
         <v>179</v>
       </c>
       <c r="E150" s="5">
@@ -4659,10 +4663,13 @@
       <c r="I150" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="J150" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D151" s="23"/>
+    <row r="151" spans="1:12" ht="45">
+      <c r="D151" s="27"/>
       <c r="E151" s="5">
         <v>2</v>
       </c>
@@ -4677,8 +4684,8 @@
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D152" s="23"/>
+    <row r="152" spans="1:12" ht="30">
+      <c r="D152" s="27"/>
       <c r="E152" s="5">
         <v>3</v>
       </c>
@@ -4693,8 +4700,8 @@
       </c>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D153" s="23"/>
+    <row r="153" spans="1:12" ht="30">
+      <c r="D153" s="27"/>
       <c r="E153" s="5">
         <v>4</v>
       </c>
@@ -4709,8 +4716,8 @@
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D154" s="23"/>
+    <row r="154" spans="1:12" ht="45">
+      <c r="D154" s="27"/>
       <c r="E154" s="5">
         <v>5</v>
       </c>
@@ -4725,8 +4732,8 @@
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D155" s="23"/>
+    <row r="155" spans="1:12" ht="30">
+      <c r="D155" s="27"/>
       <c r="E155" s="5">
         <v>6</v>
       </c>
@@ -4741,8 +4748,8 @@
       </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D156" s="23"/>
+    <row r="156" spans="1:12" ht="30">
+      <c r="D156" s="27"/>
       <c r="E156" s="5">
         <v>7</v>
       </c>
@@ -4754,8 +4761,8 @@
       </c>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D157" s="23"/>
+    <row r="157" spans="1:12" ht="30">
+      <c r="D157" s="27"/>
       <c r="E157" s="5">
         <v>8</v>
       </c>
@@ -4767,8 +4774,8 @@
       </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D158" s="23"/>
+    <row r="158" spans="1:12" ht="30">
+      <c r="D158" s="27"/>
       <c r="E158" s="5">
         <v>9</v>
       </c>
@@ -4783,8 +4790,8 @@
       </c>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D159" s="23"/>
+    <row r="159" spans="1:12" ht="30">
+      <c r="D159" s="27"/>
       <c r="E159" s="5">
         <v>10</v>
       </c>
@@ -4799,8 +4806,8 @@
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D160" s="23"/>
+    <row r="160" spans="1:12" ht="30">
+      <c r="D160" s="27"/>
       <c r="E160" s="5">
         <v>11</v>
       </c>
@@ -4815,8 +4822,8 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D161" s="23"/>
+    <row r="161" spans="1:12" ht="45">
+      <c r="D161" s="27"/>
       <c r="E161" s="5">
         <v>12</v>
       </c>
@@ -4831,8 +4838,8 @@
       </c>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="23"/>
+    <row r="162" spans="1:12" ht="30">
+      <c r="D162" s="27"/>
       <c r="E162" s="5">
         <v>13</v>
       </c>
@@ -4844,8 +4851,8 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D163" s="23"/>
+    <row r="163" spans="1:12" ht="30">
+      <c r="D163" s="27"/>
       <c r="E163" s="5">
         <v>14</v>
       </c>
@@ -4860,8 +4867,8 @@
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D164" s="23"/>
+    <row r="164" spans="1:12" ht="30">
+      <c r="D164" s="27"/>
       <c r="E164" s="5">
         <v>15</v>
       </c>
@@ -4876,8 +4883,8 @@
       </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D165" s="23"/>
+    <row r="165" spans="1:12" ht="30">
+      <c r="D165" s="27"/>
       <c r="E165" s="5">
         <v>16</v>
       </c>
@@ -4892,8 +4899,8 @@
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D166" s="23"/>
+    <row r="166" spans="1:12" ht="30">
+      <c r="D166" s="27"/>
       <c r="E166" s="5">
         <v>17</v>
       </c>
@@ -4905,8 +4912,8 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D167" s="23"/>
+    <row r="167" spans="1:12" ht="45">
+      <c r="D167" s="27"/>
       <c r="E167" s="5">
         <v>18</v>
       </c>
@@ -4918,8 +4925,8 @@
       </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D168" s="23"/>
+    <row r="168" spans="1:12" ht="30">
+      <c r="D168" s="27"/>
       <c r="E168" s="5">
         <v>19</v>
       </c>
@@ -4934,8 +4941,8 @@
       </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D169" s="23"/>
+    <row r="169" spans="1:12" ht="30">
+      <c r="D169" s="27"/>
       <c r="E169" s="5">
         <v>20</v>
       </c>
@@ -4947,11 +4954,11 @@
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="F170" s="18"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="30">
       <c r="A171" s="11" t="s">
         <v>177</v>
       </c>
@@ -4961,7 +4968,7 @@
       <c r="C171" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D171" s="23" t="s">
+      <c r="D171" s="27" t="s">
         <v>199</v>
       </c>
       <c r="E171" s="5">
@@ -4972,8 +4979,8 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D172" s="23"/>
+    <row r="172" spans="1:12" ht="30">
+      <c r="D172" s="27"/>
       <c r="E172" s="5">
         <v>2</v>
       </c>
@@ -4988,8 +4995,8 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D173" s="23"/>
+    <row r="173" spans="1:12">
+      <c r="D173" s="27"/>
       <c r="E173" s="5">
         <v>3</v>
       </c>
@@ -5001,8 +5008,8 @@
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D174" s="23"/>
+    <row r="174" spans="1:12" ht="45">
+      <c r="D174" s="27"/>
       <c r="E174" s="5">
         <v>4</v>
       </c>
@@ -5014,8 +5021,8 @@
       </c>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="23"/>
+    <row r="175" spans="1:12" ht="30">
+      <c r="D175" s="27"/>
       <c r="E175" s="5">
         <v>5</v>
       </c>
@@ -5027,8 +5034,8 @@
       </c>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="23"/>
+    <row r="176" spans="1:12" ht="30">
+      <c r="D176" s="27"/>
       <c r="E176" s="5">
         <v>6</v>
       </c>
@@ -5040,10 +5047,10 @@
       </c>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="45" customHeight="1">
       <c r="A178" s="11" t="s">
         <v>206</v>
       </c>
@@ -5053,7 +5060,7 @@
       <c r="C178" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D178" s="27" t="s">
+      <c r="D178" s="26" t="s">
         <v>208</v>
       </c>
       <c r="E178" s="5">
@@ -5070,8 +5077,8 @@
       </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D179" s="27"/>
+    <row r="179" spans="1:12" ht="45">
+      <c r="D179" s="26"/>
       <c r="E179" s="5">
         <v>2</v>
       </c>
@@ -5086,8 +5093,8 @@
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D180" s="27"/>
+    <row r="180" spans="1:12" ht="30">
+      <c r="D180" s="26"/>
       <c r="E180" s="5">
         <v>3</v>
       </c>
@@ -5102,8 +5109,8 @@
       </c>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="27"/>
+    <row r="181" spans="1:12" ht="30">
+      <c r="D181" s="26"/>
       <c r="E181" s="5">
         <v>4</v>
       </c>
@@ -5118,8 +5125,8 @@
       </c>
       <c r="L181" s="4"/>
     </row>
-    <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D182" s="27"/>
+    <row r="182" spans="1:12" ht="45">
+      <c r="D182" s="26"/>
       <c r="E182" s="5">
         <v>5</v>
       </c>
@@ -5134,8 +5141,8 @@
       </c>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D183" s="27"/>
+    <row r="183" spans="1:12" ht="30">
+      <c r="D183" s="26"/>
       <c r="E183" s="5">
         <v>6</v>
       </c>
@@ -5150,8 +5157,8 @@
       </c>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D184" s="27"/>
+    <row r="184" spans="1:12" ht="30">
+      <c r="D184" s="26"/>
       <c r="E184" s="5">
         <v>7</v>
       </c>
@@ -5163,8 +5170,8 @@
       </c>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D185" s="27"/>
+    <row r="185" spans="1:12" ht="30">
+      <c r="D185" s="26"/>
       <c r="E185" s="5">
         <v>8</v>
       </c>
@@ -5176,8 +5183,8 @@
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="27"/>
+    <row r="186" spans="1:12" ht="30">
+      <c r="D186" s="26"/>
       <c r="E186" s="5">
         <v>9</v>
       </c>
@@ -5192,8 +5199,8 @@
       </c>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D187" s="27"/>
+    <row r="187" spans="1:12" ht="30">
+      <c r="D187" s="26"/>
       <c r="E187" s="5">
         <v>10</v>
       </c>
@@ -5208,8 +5215,8 @@
       </c>
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D188" s="27"/>
+    <row r="188" spans="1:12" ht="30">
+      <c r="D188" s="26"/>
       <c r="E188" s="5">
         <v>11</v>
       </c>
@@ -5224,8 +5231,8 @@
       </c>
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D189" s="27"/>
+    <row r="189" spans="1:12" ht="45">
+      <c r="D189" s="26"/>
       <c r="E189" s="5">
         <v>12</v>
       </c>
@@ -5240,8 +5247,8 @@
       </c>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="27"/>
+    <row r="190" spans="1:12" ht="30">
+      <c r="D190" s="26"/>
       <c r="E190" s="5">
         <v>13</v>
       </c>
@@ -5253,8 +5260,8 @@
       </c>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D191" s="27"/>
+    <row r="191" spans="1:12" ht="30">
+      <c r="D191" s="26"/>
       <c r="E191" s="5">
         <v>14</v>
       </c>
@@ -5269,8 +5276,8 @@
       </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D192" s="27"/>
+    <row r="192" spans="1:12" ht="30">
+      <c r="D192" s="26"/>
       <c r="E192" s="5">
         <v>15</v>
       </c>
@@ -5285,8 +5292,8 @@
       </c>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D193" s="27"/>
+    <row r="193" spans="1:12" ht="30">
+      <c r="D193" s="26"/>
       <c r="E193" s="5">
         <v>16</v>
       </c>
@@ -5301,8 +5308,8 @@
       </c>
       <c r="L193" s="4"/>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D194" s="27"/>
+    <row r="194" spans="1:12" ht="30">
+      <c r="D194" s="26"/>
       <c r="E194" s="5">
         <v>17</v>
       </c>
@@ -5314,8 +5321,8 @@
       </c>
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D195" s="27"/>
+    <row r="195" spans="1:12" ht="45">
+      <c r="D195" s="26"/>
       <c r="E195" s="5">
         <v>18</v>
       </c>
@@ -5327,8 +5334,8 @@
       </c>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D196" s="27"/>
+    <row r="196" spans="1:12" ht="30">
+      <c r="D196" s="26"/>
       <c r="E196" s="5">
         <v>19</v>
       </c>
@@ -5343,8 +5350,8 @@
       </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D197" s="27"/>
+    <row r="197" spans="1:12" ht="30">
+      <c r="D197" s="26"/>
       <c r="E197" s="5">
         <v>20</v>
       </c>
@@ -5356,11 +5363,11 @@
       </c>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="F198" s="20"/>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="30" customHeight="1">
       <c r="A199" s="11" t="s">
         <v>209</v>
       </c>
@@ -5370,7 +5377,7 @@
       <c r="C199" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="26" t="s">
         <v>210</v>
       </c>
       <c r="E199" s="5">
@@ -5387,8 +5394,8 @@
       </c>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D200" s="27"/>
+    <row r="200" spans="1:12" ht="45">
+      <c r="D200" s="26"/>
       <c r="E200" s="5">
         <v>2</v>
       </c>
@@ -5403,8 +5410,8 @@
       </c>
       <c r="L200" s="4"/>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D201" s="27"/>
+    <row r="201" spans="1:12" ht="30">
+      <c r="D201" s="26"/>
       <c r="E201" s="5">
         <v>3</v>
       </c>
@@ -5419,8 +5426,8 @@
       </c>
       <c r="L201" s="4"/>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D202" s="27"/>
+    <row r="202" spans="1:12" ht="30">
+      <c r="D202" s="26"/>
       <c r="E202" s="5">
         <v>4</v>
       </c>
@@ -5435,8 +5442,8 @@
       </c>
       <c r="L202" s="4"/>
     </row>
-    <row r="203" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D203" s="27"/>
+    <row r="203" spans="1:12" ht="45">
+      <c r="D203" s="26"/>
       <c r="E203" s="5">
         <v>5</v>
       </c>
@@ -5451,8 +5458,8 @@
       </c>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D204" s="27"/>
+    <row r="204" spans="1:12" ht="30">
+      <c r="D204" s="26"/>
       <c r="E204" s="5">
         <v>6</v>
       </c>
@@ -5467,8 +5474,8 @@
       </c>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D205" s="27"/>
+    <row r="205" spans="1:12" ht="30">
+      <c r="D205" s="26"/>
       <c r="E205" s="5">
         <v>7</v>
       </c>
@@ -5480,8 +5487,8 @@
       </c>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D206" s="27"/>
+    <row r="206" spans="1:12" ht="30">
+      <c r="D206" s="26"/>
       <c r="E206" s="5">
         <v>8</v>
       </c>
@@ -5493,8 +5500,8 @@
       </c>
       <c r="L206" s="4"/>
     </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D207" s="27"/>
+    <row r="207" spans="1:12" ht="30">
+      <c r="D207" s="26"/>
       <c r="E207" s="5">
         <v>9</v>
       </c>
@@ -5509,8 +5516,8 @@
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="27"/>
+    <row r="208" spans="1:12" ht="30">
+      <c r="D208" s="26"/>
       <c r="E208" s="5">
         <v>10</v>
       </c>
@@ -5525,8 +5532,8 @@
       </c>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D209" s="27"/>
+    <row r="209" spans="1:12" ht="30">
+      <c r="D209" s="26"/>
       <c r="E209" s="5">
         <v>11</v>
       </c>
@@ -5541,8 +5548,8 @@
       </c>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D210" s="27"/>
+    <row r="210" spans="1:12" ht="45">
+      <c r="D210" s="26"/>
       <c r="E210" s="5">
         <v>12</v>
       </c>
@@ -5554,11 +5561,11 @@
       </c>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="D211" s="19"/>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="30" customHeight="1">
       <c r="A212" s="11" t="s">
         <v>213</v>
       </c>
@@ -5568,7 +5575,7 @@
       <c r="C212" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D212" s="27" t="s">
+      <c r="D212" s="26" t="s">
         <v>214</v>
       </c>
       <c r="E212" s="5">
@@ -5585,8 +5592,8 @@
       </c>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D213" s="27"/>
+    <row r="213" spans="1:12" ht="45">
+      <c r="D213" s="26"/>
       <c r="E213" s="5">
         <v>2</v>
       </c>
@@ -5601,8 +5608,8 @@
       </c>
       <c r="L213" s="4"/>
     </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D214" s="27"/>
+    <row r="214" spans="1:12" ht="30">
+      <c r="D214" s="26"/>
       <c r="E214" s="5">
         <v>3</v>
       </c>
@@ -5617,8 +5624,8 @@
       </c>
       <c r="L214" s="4"/>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D215" s="27"/>
+    <row r="215" spans="1:12" ht="30">
+      <c r="D215" s="26"/>
       <c r="E215" s="5">
         <v>4</v>
       </c>
@@ -5633,8 +5640,8 @@
       </c>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D216" s="27"/>
+    <row r="216" spans="1:12" ht="45">
+      <c r="D216" s="26"/>
       <c r="E216" s="5">
         <v>5</v>
       </c>
@@ -5649,8 +5656,8 @@
       </c>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D217" s="27"/>
+    <row r="217" spans="1:12" ht="30">
+      <c r="D217" s="26"/>
       <c r="E217" s="5">
         <v>6</v>
       </c>
@@ -5665,8 +5672,8 @@
       </c>
       <c r="L217" s="4"/>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="27"/>
+    <row r="218" spans="1:12" ht="30">
+      <c r="D218" s="26"/>
       <c r="E218" s="5">
         <v>7</v>
       </c>
@@ -5678,8 +5685,8 @@
       </c>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D219" s="27"/>
+    <row r="219" spans="1:12" ht="30">
+      <c r="D219" s="26"/>
       <c r="E219" s="5">
         <v>8</v>
       </c>
@@ -5691,8 +5698,8 @@
       </c>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D220" s="27"/>
+    <row r="220" spans="1:12" ht="30">
+      <c r="D220" s="26"/>
       <c r="E220" s="5">
         <v>9</v>
       </c>
@@ -5707,8 +5714,8 @@
       </c>
       <c r="L220" s="4"/>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D221" s="27"/>
+    <row r="221" spans="1:12" ht="30">
+      <c r="D221" s="26"/>
       <c r="E221" s="5">
         <v>10</v>
       </c>
@@ -5723,8 +5730,8 @@
       </c>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D222" s="27"/>
+    <row r="222" spans="1:12" ht="30">
+      <c r="D222" s="26"/>
       <c r="E222" s="5">
         <v>11</v>
       </c>
@@ -5739,8 +5746,8 @@
       </c>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D223" s="27"/>
+    <row r="223" spans="1:12" ht="45">
+      <c r="D223" s="26"/>
       <c r="E223" s="5">
         <v>12</v>
       </c>
@@ -5755,8 +5762,8 @@
       </c>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="27"/>
+    <row r="224" spans="1:12" ht="30">
+      <c r="D224" s="26"/>
       <c r="E224" s="5">
         <v>13</v>
       </c>
@@ -5768,8 +5775,8 @@
       </c>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D225" s="27"/>
+    <row r="225" spans="1:12" ht="30">
+      <c r="D225" s="26"/>
       <c r="E225" s="5">
         <v>14</v>
       </c>
@@ -5784,8 +5791,8 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D226" s="27"/>
+    <row r="226" spans="1:12" ht="30">
+      <c r="D226" s="26"/>
       <c r="E226" s="5">
         <v>15</v>
       </c>
@@ -5800,8 +5807,8 @@
       </c>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D227" s="27"/>
+    <row r="227" spans="1:12" ht="30">
+      <c r="D227" s="26"/>
       <c r="E227" s="5">
         <v>16</v>
       </c>
@@ -5816,8 +5823,8 @@
       </c>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="27"/>
+    <row r="228" spans="1:12" ht="30">
+      <c r="D228" s="26"/>
       <c r="E228" s="5">
         <v>17</v>
       </c>
@@ -5832,8 +5839,8 @@
       </c>
       <c r="L228" s="4"/>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D229" s="27"/>
+    <row r="229" spans="1:12" ht="30">
+      <c r="D229" s="26"/>
       <c r="E229" s="5">
         <v>18</v>
       </c>
@@ -5845,8 +5852,8 @@
       </c>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D230" s="27"/>
+    <row r="230" spans="1:12" ht="45">
+      <c r="D230" s="26"/>
       <c r="E230" s="5">
         <v>19</v>
       </c>
@@ -5858,8 +5865,8 @@
       </c>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="27"/>
+    <row r="231" spans="1:12" ht="30">
+      <c r="D231" s="26"/>
       <c r="E231" s="5">
         <v>20</v>
       </c>
@@ -5874,8 +5881,8 @@
       </c>
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="27"/>
+    <row r="232" spans="1:12" ht="30">
+      <c r="D232" s="26"/>
       <c r="E232" s="5">
         <v>21</v>
       </c>
@@ -5887,10 +5894,10 @@
       </c>
       <c r="L232" s="4"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="L233" s="4"/>
     </row>
-    <row r="234" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="30" customHeight="1">
       <c r="A234" s="11" t="s">
         <v>218</v>
       </c>
@@ -5900,7 +5907,7 @@
       <c r="C234" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D234" s="27" t="s">
+      <c r="D234" s="26" t="s">
         <v>219</v>
       </c>
       <c r="E234" s="5">
@@ -5911,8 +5918,8 @@
       </c>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D235" s="27"/>
+    <row r="235" spans="1:12">
+      <c r="D235" s="26"/>
       <c r="E235" s="5">
         <v>2</v>
       </c>
@@ -5927,8 +5934,8 @@
       </c>
       <c r="L235" s="4"/>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D236" s="27"/>
+    <row r="236" spans="1:12" ht="30">
+      <c r="D236" s="26"/>
       <c r="E236" s="5">
         <v>3</v>
       </c>
@@ -5940,8 +5947,8 @@
       </c>
       <c r="L236" s="4"/>
     </row>
-    <row r="237" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D237" s="27"/>
+    <row r="237" spans="1:12" ht="45">
+      <c r="D237" s="26"/>
       <c r="E237" s="5">
         <v>4</v>
       </c>
@@ -5953,8 +5960,8 @@
       </c>
       <c r="L237" s="4"/>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D238" s="27"/>
+    <row r="238" spans="1:12" ht="30">
+      <c r="D238" s="26"/>
       <c r="E238" s="5">
         <v>5</v>
       </c>
@@ -5969,8 +5976,8 @@
       </c>
       <c r="L238" s="4"/>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D239" s="27"/>
+    <row r="239" spans="1:12" ht="30">
+      <c r="D239" s="26"/>
       <c r="E239" s="5">
         <v>6</v>
       </c>
@@ -5982,11 +5989,11 @@
       </c>
       <c r="L239" s="4"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="D240" s="19"/>
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="30">
       <c r="A241" s="11" t="s">
         <v>224</v>
       </c>
@@ -5996,7 +6003,7 @@
       <c r="C241" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D241" s="27" t="s">
+      <c r="D241" s="26" t="s">
         <v>225</v>
       </c>
       <c r="E241" s="5">
@@ -6013,8 +6020,8 @@
       </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D242" s="27"/>
+    <row r="242" spans="1:12" ht="45">
+      <c r="D242" s="26"/>
       <c r="E242" s="5">
         <v>2</v>
       </c>
@@ -6029,8 +6036,8 @@
       </c>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D243" s="27"/>
+    <row r="243" spans="1:12" ht="30">
+      <c r="D243" s="26"/>
       <c r="E243" s="5">
         <v>3</v>
       </c>
@@ -6045,8 +6052,8 @@
       </c>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="27"/>
+    <row r="244" spans="1:12" ht="30">
+      <c r="D244" s="26"/>
       <c r="E244" s="5">
         <v>4</v>
       </c>
@@ -6061,8 +6068,8 @@
       </c>
       <c r="L244" s="4"/>
     </row>
-    <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D245" s="27"/>
+    <row r="245" spans="1:12" ht="45">
+      <c r="D245" s="26"/>
       <c r="E245" s="5">
         <v>5</v>
       </c>
@@ -6077,8 +6084,8 @@
       </c>
       <c r="L245" s="4"/>
     </row>
-    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="27"/>
+    <row r="246" spans="1:12" ht="30">
+      <c r="D246" s="26"/>
       <c r="E246" s="5">
         <v>6</v>
       </c>
@@ -6093,8 +6100,8 @@
       </c>
       <c r="L246" s="4"/>
     </row>
-    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D247" s="27"/>
+    <row r="247" spans="1:12" ht="30">
+      <c r="D247" s="26"/>
       <c r="E247" s="5">
         <v>7</v>
       </c>
@@ -6106,8 +6113,8 @@
       </c>
       <c r="L247" s="4"/>
     </row>
-    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D248" s="27"/>
+    <row r="248" spans="1:12" ht="30">
+      <c r="D248" s="26"/>
       <c r="E248" s="5">
         <v>8</v>
       </c>
@@ -6122,8 +6129,8 @@
       </c>
       <c r="L248" s="4"/>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D249" s="27"/>
+    <row r="249" spans="1:12" ht="30">
+      <c r="D249" s="26"/>
       <c r="E249" s="5">
         <v>9</v>
       </c>
@@ -6135,8 +6142,8 @@
       </c>
       <c r="L249" s="4"/>
     </row>
-    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D250" s="27"/>
+    <row r="250" spans="1:12" ht="30">
+      <c r="D250" s="26"/>
       <c r="E250" s="5">
         <v>10</v>
       </c>
@@ -6149,8 +6156,8 @@
       <c r="I250" s="12"/>
       <c r="L250" s="4"/>
     </row>
-    <row r="251" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D251" s="27"/>
+    <row r="251" spans="1:12" ht="45">
+      <c r="D251" s="26"/>
       <c r="E251" s="5">
         <v>11</v>
       </c>
@@ -6163,12 +6170,12 @@
       <c r="I251" s="15"/>
       <c r="L251" s="4"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12">
       <c r="D252" s="19"/>
       <c r="I252" s="12"/>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="30">
       <c r="A253" s="11" t="s">
         <v>233</v>
       </c>
@@ -6178,7 +6185,7 @@
       <c r="C253" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D253" s="27" t="s">
+      <c r="D253" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E253" s="5">
@@ -6195,8 +6202,8 @@
       </c>
       <c r="L253" s="4"/>
     </row>
-    <row r="254" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D254" s="27"/>
+    <row r="254" spans="1:12" ht="45">
+      <c r="D254" s="26"/>
       <c r="E254" s="5">
         <v>2</v>
       </c>
@@ -6211,8 +6218,8 @@
       </c>
       <c r="L254" s="4"/>
     </row>
-    <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D255" s="27"/>
+    <row r="255" spans="1:12" ht="30">
+      <c r="D255" s="26"/>
       <c r="E255" s="5">
         <v>3</v>
       </c>
@@ -6227,8 +6234,8 @@
       </c>
       <c r="L255" s="4"/>
     </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D256" s="27"/>
+    <row r="256" spans="1:12" ht="30">
+      <c r="D256" s="26"/>
       <c r="E256" s="5">
         <v>4</v>
       </c>
@@ -6243,8 +6250,8 @@
       </c>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D257" s="27"/>
+    <row r="257" spans="1:12" ht="45">
+      <c r="D257" s="26"/>
       <c r="E257" s="5">
         <v>5</v>
       </c>
@@ -6259,8 +6266,8 @@
       </c>
       <c r="L257" s="4"/>
     </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D258" s="27"/>
+    <row r="258" spans="1:12" ht="30">
+      <c r="D258" s="26"/>
       <c r="E258" s="5">
         <v>6</v>
       </c>
@@ -6275,8 +6282,8 @@
       </c>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="27"/>
+    <row r="259" spans="1:12" ht="30">
+      <c r="D259" s="26"/>
       <c r="E259" s="5">
         <v>7</v>
       </c>
@@ -6288,8 +6295,8 @@
       </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D260" s="27"/>
+    <row r="260" spans="1:12" ht="60">
+      <c r="D260" s="26"/>
       <c r="E260" s="5">
         <v>8</v>
       </c>
@@ -6301,8 +6308,8 @@
       </c>
       <c r="L260" s="4"/>
     </row>
-    <row r="261" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D261" s="27"/>
+    <row r="261" spans="1:12" ht="60">
+      <c r="D261" s="26"/>
       <c r="E261" s="5">
         <v>9</v>
       </c>
@@ -6317,8 +6324,8 @@
       </c>
       <c r="L261" s="4"/>
     </row>
-    <row r="262" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D262" s="27"/>
+    <row r="262" spans="1:12" ht="45">
+      <c r="D262" s="26"/>
       <c r="E262" s="5">
         <v>10</v>
       </c>
@@ -6330,8 +6337,8 @@
       </c>
       <c r="L262" s="4"/>
     </row>
-    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D263" s="27"/>
+    <row r="263" spans="1:12" ht="30">
+      <c r="D263" s="26"/>
       <c r="E263" s="5">
         <v>11</v>
       </c>
@@ -6346,8 +6353,8 @@
       </c>
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D264" s="27"/>
+    <row r="264" spans="1:12" ht="30">
+      <c r="D264" s="26"/>
       <c r="E264" s="5">
         <v>12</v>
       </c>
@@ -6359,8 +6366,8 @@
       </c>
       <c r="L264" s="4"/>
     </row>
-    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D265" s="27"/>
+    <row r="265" spans="1:12" ht="30">
+      <c r="D265" s="26"/>
       <c r="E265" s="5">
         <v>13</v>
       </c>
@@ -6375,8 +6382,8 @@
       </c>
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="27"/>
+    <row r="266" spans="1:12" ht="30">
+      <c r="D266" s="26"/>
       <c r="E266" s="5">
         <v>14</v>
       </c>
@@ -6391,8 +6398,8 @@
       </c>
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D267" s="27"/>
+    <row r="267" spans="1:12" ht="30">
+      <c r="D267" s="26"/>
       <c r="E267" s="5">
         <v>15</v>
       </c>
@@ -6407,8 +6414,8 @@
       </c>
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D268" s="27"/>
+    <row r="268" spans="1:12" ht="30">
+      <c r="D268" s="26"/>
       <c r="E268" s="5">
         <v>16</v>
       </c>
@@ -6420,8 +6427,8 @@
       </c>
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D269" s="27"/>
+    <row r="269" spans="1:12" ht="45">
+      <c r="D269" s="26"/>
       <c r="E269" s="5">
         <v>17</v>
       </c>
@@ -6433,8 +6440,8 @@
       </c>
       <c r="L269" s="4"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D270" s="27"/>
+    <row r="270" spans="1:12">
+      <c r="D270" s="26"/>
       <c r="E270" s="5">
         <v>18</v>
       </c>
@@ -6446,10 +6453,10 @@
       </c>
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12">
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="30">
       <c r="A272" s="11" t="s">
         <v>248</v>
       </c>
@@ -6459,7 +6466,7 @@
       <c r="C272" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D272" s="27" t="s">
+      <c r="D272" s="26" t="s">
         <v>249</v>
       </c>
       <c r="E272" s="5">
@@ -6471,8 +6478,8 @@
       <c r="I272" s="12"/>
       <c r="L272" s="4"/>
     </row>
-    <row r="273" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D273" s="27"/>
+    <row r="273" spans="1:12" ht="60">
+      <c r="D273" s="26"/>
       <c r="E273" s="5">
         <v>2</v>
       </c>
@@ -6485,8 +6492,8 @@
       <c r="I273" s="15"/>
       <c r="L273" s="4"/>
     </row>
-    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="27"/>
+    <row r="274" spans="1:12" ht="30">
+      <c r="D274" s="26"/>
       <c r="E274" s="5">
         <v>3</v>
       </c>
@@ -6498,11 +6505,11 @@
       </c>
       <c r="L274" s="4"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12">
       <c r="D275" s="19"/>
       <c r="L275" s="4"/>
     </row>
-    <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="30">
       <c r="A276" s="11" t="s">
         <v>252</v>
       </c>
@@ -6512,7 +6519,7 @@
       <c r="C276" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D276" s="27" t="s">
+      <c r="D276" s="26" t="s">
         <v>253</v>
       </c>
       <c r="E276" s="5">
@@ -6523,8 +6530,8 @@
       </c>
       <c r="L276" s="4"/>
     </row>
-    <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D277" s="27"/>
+    <row r="277" spans="1:12" ht="60">
+      <c r="D277" s="26"/>
       <c r="E277" s="5">
         <v>2</v>
       </c>
@@ -6536,8 +6543,8 @@
       </c>
       <c r="L277" s="4"/>
     </row>
-    <row r="278" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D278" s="27"/>
+    <row r="278" spans="1:12" ht="75">
+      <c r="D278" s="26"/>
       <c r="E278" s="5">
         <v>3</v>
       </c>
@@ -6549,12 +6556,12 @@
       </c>
       <c r="L278" s="4"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12">
       <c r="D279" s="19"/>
       <c r="I279" s="12"/>
       <c r="L279" s="4"/>
     </row>
-    <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="30">
       <c r="A280" s="11" t="s">
         <v>260</v>
       </c>
@@ -6576,7 +6583,7 @@
       <c r="I280" s="15"/>
       <c r="L280" s="4"/>
     </row>
-    <row r="281" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="60">
       <c r="D281" s="30"/>
       <c r="E281" s="5">
         <v>2</v>
@@ -6589,7 +6596,7 @@
       </c>
       <c r="L281" s="4"/>
     </row>
-    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="30">
       <c r="D282" s="30"/>
       <c r="E282" s="5">
         <v>3</v>
@@ -6602,11 +6609,11 @@
       </c>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="D283" s="19"/>
       <c r="L283" s="4"/>
     </row>
-    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="30">
       <c r="A284" s="11" t="s">
         <v>263</v>
       </c>
@@ -6616,7 +6623,7 @@
       <c r="C284" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D284" s="27" t="s">
+      <c r="D284" s="26" t="s">
         <v>264</v>
       </c>
       <c r="E284" s="5">
@@ -6627,8 +6634,8 @@
       </c>
       <c r="L284" s="4"/>
     </row>
-    <row r="285" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D285" s="27"/>
+    <row r="285" spans="1:12" ht="60">
+      <c r="D285" s="26"/>
       <c r="E285" s="5">
         <v>2</v>
       </c>
@@ -6641,8 +6648,8 @@
       <c r="I285" s="12"/>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D286" s="27"/>
+    <row r="286" spans="1:12" ht="45">
+      <c r="D286" s="26"/>
       <c r="E286" s="5">
         <v>3</v>
       </c>
@@ -6655,8 +6662,8 @@
       <c r="I286" s="15"/>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D287" s="27"/>
+    <row r="287" spans="1:12" ht="60">
+      <c r="D287" s="26"/>
       <c r="E287" s="5">
         <v>4</v>
       </c>
@@ -6668,11 +6675,11 @@
       </c>
       <c r="L287" s="4"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="D288" s="19"/>
       <c r="L288" s="4"/>
     </row>
-    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="30">
       <c r="A289" s="11" t="s">
         <v>269</v>
       </c>
@@ -6682,7 +6689,7 @@
       <c r="C289" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D289" s="27" t="s">
+      <c r="D289" s="26" t="s">
         <v>270</v>
       </c>
       <c r="E289" s="5">
@@ -6693,8 +6700,8 @@
       </c>
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D290" s="27"/>
+    <row r="290" spans="1:12" ht="30">
+      <c r="D290" s="26"/>
       <c r="E290" s="5">
         <v>2</v>
       </c>
@@ -6707,8 +6714,8 @@
       <c r="I290" s="12"/>
       <c r="L290" s="4"/>
     </row>
-    <row r="291" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D291" s="27"/>
+    <row r="291" spans="1:12" ht="105">
+      <c r="D291" s="26"/>
       <c r="E291" s="5">
         <v>3</v>
       </c>
@@ -6723,8 +6730,8 @@
       </c>
       <c r="L291" s="4"/>
     </row>
-    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D292" s="27"/>
+    <row r="292" spans="1:12" ht="30">
+      <c r="D292" s="26"/>
       <c r="E292" s="5">
         <v>4</v>
       </c>
@@ -6736,10 +6743,10 @@
       </c>
       <c r="L292" s="4"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="30">
       <c r="A294" s="11" t="s">
         <v>277</v>
       </c>
@@ -6749,7 +6756,7 @@
       <c r="C294" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D294" s="23" t="s">
+      <c r="D294" s="27" t="s">
         <v>278</v>
       </c>
       <c r="E294" s="5">
@@ -6766,8 +6773,8 @@
       </c>
       <c r="L294" s="4"/>
     </row>
-    <row r="295" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D295" s="23"/>
+    <row r="295" spans="1:12" ht="45">
+      <c r="D295" s="27"/>
       <c r="E295" s="5">
         <v>2</v>
       </c>
@@ -6782,8 +6789,8 @@
       </c>
       <c r="L295" s="4"/>
     </row>
-    <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D296" s="23"/>
+    <row r="296" spans="1:12" ht="30">
+      <c r="D296" s="27"/>
       <c r="E296" s="5">
         <v>3</v>
       </c>
@@ -6798,8 +6805,8 @@
       </c>
       <c r="L296" s="4"/>
     </row>
-    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D297" s="23"/>
+    <row r="297" spans="1:12" ht="30">
+      <c r="D297" s="27"/>
       <c r="E297" s="5">
         <v>4</v>
       </c>
@@ -6814,8 +6821,8 @@
       </c>
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D298" s="23"/>
+    <row r="298" spans="1:12" ht="45">
+      <c r="D298" s="27"/>
       <c r="E298" s="5">
         <v>5</v>
       </c>
@@ -6830,8 +6837,8 @@
       </c>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D299" s="23"/>
+    <row r="299" spans="1:12" ht="30">
+      <c r="D299" s="27"/>
       <c r="E299" s="5">
         <v>6</v>
       </c>
@@ -6846,8 +6853,8 @@
       </c>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D300" s="23"/>
+    <row r="300" spans="1:12" ht="30">
+      <c r="D300" s="27"/>
       <c r="E300" s="5">
         <v>7</v>
       </c>
@@ -6859,8 +6866,8 @@
       </c>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D301" s="23"/>
+    <row r="301" spans="1:12" ht="45">
+      <c r="D301" s="27"/>
       <c r="E301" s="5">
         <v>8</v>
       </c>
@@ -6872,8 +6879,8 @@
       </c>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D302" s="23"/>
+    <row r="302" spans="1:12" ht="60">
+      <c r="D302" s="27"/>
       <c r="E302" s="5">
         <v>9</v>
       </c>
@@ -6888,8 +6895,8 @@
       </c>
       <c r="L302" s="4"/>
     </row>
-    <row r="303" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D303" s="23"/>
+    <row r="303" spans="1:12" ht="45">
+      <c r="D303" s="27"/>
       <c r="E303" s="5">
         <v>10</v>
       </c>
@@ -6901,8 +6908,8 @@
       </c>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D304" s="23"/>
+    <row r="304" spans="1:12" ht="30">
+      <c r="D304" s="27"/>
       <c r="E304" s="5">
         <v>11</v>
       </c>
@@ -6917,8 +6924,8 @@
       </c>
       <c r="L304" s="4"/>
     </row>
-    <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D305" s="23"/>
+    <row r="305" spans="1:12" ht="30">
+      <c r="D305" s="27"/>
       <c r="E305" s="5">
         <v>12</v>
       </c>
@@ -6930,8 +6937,8 @@
       </c>
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D306" s="23"/>
+    <row r="306" spans="1:12" ht="30">
+      <c r="D306" s="27"/>
       <c r="E306" s="5">
         <v>13</v>
       </c>
@@ -6946,8 +6953,8 @@
       </c>
       <c r="L306" s="4"/>
     </row>
-    <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D307" s="23"/>
+    <row r="307" spans="1:12" ht="30">
+      <c r="D307" s="27"/>
       <c r="E307" s="5">
         <v>14</v>
       </c>
@@ -6962,8 +6969,8 @@
       </c>
       <c r="L307" s="4"/>
     </row>
-    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D308" s="23"/>
+    <row r="308" spans="1:12" ht="30">
+      <c r="D308" s="27"/>
       <c r="E308" s="5">
         <v>15</v>
       </c>
@@ -6978,8 +6985,8 @@
       </c>
       <c r="L308" s="4"/>
     </row>
-    <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D309" s="23"/>
+    <row r="309" spans="1:12" ht="30">
+      <c r="D309" s="27"/>
       <c r="E309" s="5">
         <v>16</v>
       </c>
@@ -6991,10 +6998,10 @@
       </c>
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12">
       <c r="L310" s="4"/>
     </row>
-    <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="30">
       <c r="A311" s="11" t="s">
         <v>279</v>
       </c>
@@ -7004,7 +7011,7 @@
       <c r="C311" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D311" s="23" t="s">
+      <c r="D311" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E311" s="5">
@@ -7021,8 +7028,8 @@
       </c>
       <c r="L311" s="4"/>
     </row>
-    <row r="312" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D312" s="23"/>
+    <row r="312" spans="1:12" ht="45">
+      <c r="D312" s="27"/>
       <c r="E312" s="5">
         <v>2</v>
       </c>
@@ -7037,8 +7044,8 @@
       </c>
       <c r="L312" s="4"/>
     </row>
-    <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D313" s="23"/>
+    <row r="313" spans="1:12" ht="30">
+      <c r="D313" s="27"/>
       <c r="E313" s="5">
         <v>3</v>
       </c>
@@ -7053,8 +7060,8 @@
       </c>
       <c r="L313" s="4"/>
     </row>
-    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D314" s="23"/>
+    <row r="314" spans="1:12" ht="30">
+      <c r="D314" s="27"/>
       <c r="E314" s="5">
         <v>4</v>
       </c>
@@ -7069,8 +7076,8 @@
       </c>
       <c r="L314" s="4"/>
     </row>
-    <row r="315" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D315" s="23"/>
+    <row r="315" spans="1:12" ht="45">
+      <c r="D315" s="27"/>
       <c r="E315" s="5">
         <v>5</v>
       </c>
@@ -7085,8 +7092,8 @@
       </c>
       <c r="L315" s="4"/>
     </row>
-    <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D316" s="23"/>
+    <row r="316" spans="1:12" ht="30">
+      <c r="D316" s="27"/>
       <c r="E316" s="5">
         <v>6</v>
       </c>
@@ -7101,8 +7108,8 @@
       </c>
       <c r="L316" s="4"/>
     </row>
-    <row r="317" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D317" s="23"/>
+    <row r="317" spans="1:12" ht="45">
+      <c r="D317" s="27"/>
       <c r="E317" s="5">
         <v>7</v>
       </c>
@@ -7114,8 +7121,8 @@
       </c>
       <c r="L317" s="4"/>
     </row>
-    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D318" s="23"/>
+    <row r="318" spans="1:12" ht="30">
+      <c r="D318" s="27"/>
       <c r="E318" s="5">
         <v>8</v>
       </c>
@@ -7130,8 +7137,8 @@
       </c>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D319" s="23"/>
+    <row r="319" spans="1:12" ht="30">
+      <c r="D319" s="27"/>
       <c r="E319" s="5">
         <v>9</v>
       </c>
@@ -7144,8 +7151,8 @@
       <c r="I319" s="12"/>
       <c r="L319" s="4"/>
     </row>
-    <row r="320" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D320" s="23"/>
+    <row r="320" spans="1:12" ht="60">
+      <c r="D320" s="27"/>
       <c r="E320" s="5">
         <v>10</v>
       </c>
@@ -7160,8 +7167,8 @@
       </c>
       <c r="L320" s="4"/>
     </row>
-    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D321" s="23"/>
+    <row r="321" spans="1:12" ht="30">
+      <c r="D321" s="27"/>
       <c r="E321" s="5">
         <v>11</v>
       </c>
@@ -7173,8 +7180,8 @@
       </c>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D322" s="23"/>
+    <row r="322" spans="1:12" ht="30">
+      <c r="D322" s="27"/>
       <c r="E322" s="5">
         <v>12</v>
       </c>
@@ -7186,8 +7193,8 @@
       </c>
       <c r="L322" s="4"/>
     </row>
-    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D323" s="23"/>
+    <row r="323" spans="1:12" ht="30">
+      <c r="D323" s="27"/>
       <c r="E323" s="5">
         <v>13</v>
       </c>
@@ -7199,8 +7206,8 @@
       </c>
       <c r="L323" s="4"/>
     </row>
-    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D324" s="23"/>
+    <row r="324" spans="1:12" ht="30">
+      <c r="D324" s="27"/>
       <c r="E324" s="5">
         <v>14</v>
       </c>
@@ -7212,10 +7219,10 @@
       </c>
       <c r="L324" s="4"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12">
       <c r="L325" s="4"/>
     </row>
-    <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="30">
       <c r="A326" s="11" t="s">
         <v>289</v>
       </c>
@@ -7225,7 +7232,7 @@
       <c r="C326" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D326" s="23" t="s">
+      <c r="D326" s="27" t="s">
         <v>290</v>
       </c>
       <c r="E326" s="5">
@@ -7242,8 +7249,8 @@
       </c>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D327" s="23"/>
+    <row r="327" spans="1:12" ht="45">
+      <c r="D327" s="27"/>
       <c r="E327" s="5">
         <v>2</v>
       </c>
@@ -7258,8 +7265,8 @@
       </c>
       <c r="L327" s="4"/>
     </row>
-    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D328" s="23"/>
+    <row r="328" spans="1:12" ht="30">
+      <c r="D328" s="27"/>
       <c r="E328" s="5">
         <v>3</v>
       </c>
@@ -7274,8 +7281,8 @@
       </c>
       <c r="L328" s="4"/>
     </row>
-    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D329" s="23"/>
+    <row r="329" spans="1:12" ht="30">
+      <c r="D329" s="27"/>
       <c r="E329" s="5">
         <v>4</v>
       </c>
@@ -7290,8 +7297,8 @@
       </c>
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D330" s="23"/>
+    <row r="330" spans="1:12" ht="45">
+      <c r="D330" s="27"/>
       <c r="E330" s="5">
         <v>5</v>
       </c>
@@ -7306,8 +7313,8 @@
       </c>
       <c r="L330" s="4"/>
     </row>
-    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D331" s="23"/>
+    <row r="331" spans="1:12" ht="30">
+      <c r="D331" s="27"/>
       <c r="E331" s="5">
         <v>6</v>
       </c>
@@ -7322,8 +7329,8 @@
       </c>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D332" s="23"/>
+    <row r="332" spans="1:12" ht="45">
+      <c r="D332" s="27"/>
       <c r="E332" s="5">
         <v>7</v>
       </c>
@@ -7335,8 +7342,8 @@
       </c>
       <c r="L332" s="4"/>
     </row>
-    <row r="333" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D333" s="23"/>
+    <row r="333" spans="1:12" ht="75">
+      <c r="D333" s="27"/>
       <c r="E333" s="5">
         <v>8</v>
       </c>
@@ -7351,8 +7358,8 @@
       </c>
       <c r="L333" s="4"/>
     </row>
-    <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D334" s="23"/>
+    <row r="334" spans="1:12" ht="45">
+      <c r="D334" s="27"/>
       <c r="E334" s="5">
         <v>9</v>
       </c>
@@ -7367,8 +7374,8 @@
       </c>
       <c r="L334" s="4"/>
     </row>
-    <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D335" s="23"/>
+    <row r="335" spans="1:12" ht="30">
+      <c r="D335" s="27"/>
       <c r="E335" s="5">
         <v>10</v>
       </c>
@@ -7380,11 +7387,11 @@
       </c>
       <c r="L335" s="4"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12">
       <c r="I336" s="12"/>
       <c r="L336" s="4"/>
     </row>
-    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30">
       <c r="A337" s="11" t="s">
         <v>297</v>
       </c>
@@ -7394,7 +7401,7 @@
       <c r="C337" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D337" s="23" t="s">
+      <c r="D337" s="27" t="s">
         <v>298</v>
       </c>
       <c r="E337" s="5">
@@ -7405,8 +7412,8 @@
       </c>
       <c r="L337" s="4"/>
     </row>
-    <row r="338" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D338" s="23"/>
+    <row r="338" spans="1:12" ht="60">
+      <c r="D338" s="27"/>
       <c r="E338" s="5">
         <v>2</v>
       </c>
@@ -7421,10 +7428,10 @@
       </c>
       <c r="L338" s="4"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12">
       <c r="L339" s="4"/>
     </row>
-    <row r="340" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="45" customHeight="1">
       <c r="A340" s="11" t="s">
         <v>302</v>
       </c>
@@ -7434,7 +7441,7 @@
       <c r="C340" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D340" s="23" t="s">
+      <c r="D340" s="27" t="s">
         <v>303</v>
       </c>
       <c r="E340" s="5">
@@ -7445,8 +7452,8 @@
       </c>
       <c r="L340" s="4"/>
     </row>
-    <row r="341" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D341" s="23"/>
+    <row r="341" spans="1:12" ht="75">
+      <c r="D341" s="27"/>
       <c r="E341" s="5">
         <v>2</v>
       </c>
@@ -7461,11 +7468,11 @@
       </c>
       <c r="L341" s="4"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12">
       <c r="I342" s="12"/>
       <c r="L342" s="4"/>
     </row>
-    <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="30">
       <c r="A343" s="11" t="s">
         <v>306</v>
       </c>
@@ -7475,7 +7482,7 @@
       <c r="C343" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D343" s="23" t="s">
+      <c r="D343" s="27" t="s">
         <v>313</v>
       </c>
       <c r="E343" s="5">
@@ -7486,8 +7493,8 @@
       </c>
       <c r="L343" s="4"/>
     </row>
-    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D344" s="23"/>
+    <row r="344" spans="1:12" ht="30">
+      <c r="D344" s="27"/>
       <c r="E344" s="5">
         <v>2</v>
       </c>
@@ -7502,8 +7509,8 @@
       </c>
       <c r="L344" s="4"/>
     </row>
-    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D345" s="23"/>
+    <row r="345" spans="1:12" ht="30">
+      <c r="D345" s="27"/>
       <c r="E345" s="5">
         <v>3</v>
       </c>
@@ -7515,10 +7522,10 @@
       </c>
       <c r="L345" s="4"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12">
       <c r="L346" s="4"/>
     </row>
-    <row r="347" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="30">
       <c r="A347" s="11" t="s">
         <v>312</v>
       </c>
@@ -7528,7 +7535,7 @@
       <c r="C347" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D347" s="23" t="s">
+      <c r="D347" s="27" t="s">
         <v>307</v>
       </c>
       <c r="E347" s="5">
@@ -7539,8 +7546,8 @@
       </c>
       <c r="L347" s="4"/>
     </row>
-    <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D348" s="23"/>
+    <row r="348" spans="1:12" ht="30">
+      <c r="D348" s="27"/>
       <c r="E348" s="5">
         <v>2</v>
       </c>
@@ -7555,8 +7562,8 @@
       </c>
       <c r="L348" s="4"/>
     </row>
-    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D349" s="23"/>
+    <row r="349" spans="1:12" ht="30">
+      <c r="D349" s="27"/>
       <c r="E349" s="5">
         <v>3</v>
       </c>
@@ -7568,10 +7575,10 @@
       </c>
       <c r="L349" s="4"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12">
       <c r="L350" s="4"/>
     </row>
-    <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="30">
       <c r="A351" s="11" t="s">
         <v>318</v>
       </c>
@@ -7581,7 +7588,7 @@
       <c r="C351" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D351" s="23" t="s">
+      <c r="D351" s="27" t="s">
         <v>319</v>
       </c>
       <c r="E351" s="5">
@@ -7592,8 +7599,8 @@
       </c>
       <c r="L351" s="4"/>
     </row>
-    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D352" s="23"/>
+    <row r="352" spans="1:12" ht="30">
+      <c r="D352" s="27"/>
       <c r="E352" s="5">
         <v>2</v>
       </c>
@@ -7605,10 +7612,10 @@
       </c>
       <c r="L352" s="4"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="L353" s="4"/>
     </row>
-    <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="30">
       <c r="A354" s="11" t="s">
         <v>322</v>
       </c>
@@ -7618,7 +7625,7 @@
       <c r="C354" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="23" t="s">
+      <c r="D354" s="27" t="s">
         <v>323</v>
       </c>
       <c r="E354" s="5">
@@ -7635,8 +7642,8 @@
       </c>
       <c r="L354" s="4"/>
     </row>
-    <row r="355" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D355" s="23"/>
+    <row r="355" spans="1:12" ht="45">
+      <c r="D355" s="27"/>
       <c r="E355" s="5">
         <v>2</v>
       </c>
@@ -7651,8 +7658,8 @@
       </c>
       <c r="L355" s="4"/>
     </row>
-    <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D356" s="23"/>
+    <row r="356" spans="1:12" ht="30">
+      <c r="D356" s="27"/>
       <c r="E356" s="5">
         <v>3</v>
       </c>
@@ -7667,8 +7674,8 @@
       </c>
       <c r="L356" s="4"/>
     </row>
-    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D357" s="23"/>
+    <row r="357" spans="1:12" ht="30">
+      <c r="D357" s="27"/>
       <c r="E357" s="5">
         <v>4</v>
       </c>
@@ -7683,8 +7690,8 @@
       </c>
       <c r="L357" s="4"/>
     </row>
-    <row r="358" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D358" s="23"/>
+    <row r="358" spans="1:12" ht="45">
+      <c r="D358" s="27"/>
       <c r="E358" s="5">
         <v>5</v>
       </c>
@@ -7699,8 +7706,8 @@
       </c>
       <c r="L358" s="4"/>
     </row>
-    <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D359" s="23"/>
+    <row r="359" spans="1:12" ht="30">
+      <c r="D359" s="27"/>
       <c r="E359" s="5">
         <v>6</v>
       </c>
@@ -7715,8 +7722,8 @@
       </c>
       <c r="L359" s="4"/>
     </row>
-    <row r="360" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D360" s="23"/>
+    <row r="360" spans="1:12" ht="45">
+      <c r="D360" s="27"/>
       <c r="E360" s="5">
         <v>7</v>
       </c>
@@ -7728,8 +7735,8 @@
       </c>
       <c r="L360" s="4"/>
     </row>
-    <row r="361" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D361" s="23"/>
+    <row r="361" spans="1:12" ht="75">
+      <c r="D361" s="27"/>
       <c r="E361" s="5">
         <v>8</v>
       </c>
@@ -7744,8 +7751,8 @@
       </c>
       <c r="L361" s="4"/>
     </row>
-    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D362" s="23"/>
+    <row r="362" spans="1:12" ht="30">
+      <c r="D362" s="27"/>
       <c r="E362" s="5">
         <v>9</v>
       </c>
@@ -7757,8 +7764,8 @@
       </c>
       <c r="L362" s="4"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="23"/>
+    <row r="363" spans="1:12">
+      <c r="D363" s="27"/>
       <c r="E363" s="5">
         <v>10</v>
       </c>
@@ -7770,8 +7777,8 @@
       </c>
       <c r="L363" s="4"/>
     </row>
-    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D364" s="23"/>
+    <row r="364" spans="1:12" ht="30">
+      <c r="D364" s="27"/>
       <c r="E364" s="5">
         <v>11</v>
       </c>
@@ -7783,8 +7790,8 @@
       </c>
       <c r="L364" s="4"/>
     </row>
-    <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D365" s="23"/>
+    <row r="365" spans="1:12" ht="30">
+      <c r="D365" s="27"/>
       <c r="E365" s="5">
         <v>12</v>
       </c>
@@ -7799,8 +7806,8 @@
       </c>
       <c r="L365" s="4"/>
     </row>
-    <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D366" s="23"/>
+    <row r="366" spans="1:12" ht="30">
+      <c r="D366" s="27"/>
       <c r="E366" s="5">
         <v>13</v>
       </c>
@@ -7815,8 +7822,8 @@
       </c>
       <c r="L366" s="4"/>
     </row>
-    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="23"/>
+    <row r="367" spans="1:12" ht="30">
+      <c r="D367" s="27"/>
       <c r="E367" s="5">
         <v>14</v>
       </c>
@@ -7831,8 +7838,8 @@
       </c>
       <c r="L367" s="4"/>
     </row>
-    <row r="368" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D368" s="23"/>
+    <row r="368" spans="1:12" ht="45">
+      <c r="D368" s="27"/>
       <c r="E368" s="5">
         <v>15</v>
       </c>
@@ -7844,8 +7851,8 @@
       </c>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D369" s="23"/>
+    <row r="369" spans="1:12" ht="30">
+      <c r="D369" s="27"/>
       <c r="E369" s="5">
         <v>16</v>
       </c>
@@ -7857,11 +7864,11 @@
       </c>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12">
       <c r="I370" s="12"/>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="30">
       <c r="A371" s="11" t="s">
         <v>330</v>
       </c>
@@ -7871,7 +7878,7 @@
       <c r="C371" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D371" s="23" t="s">
+      <c r="D371" s="27" t="s">
         <v>331</v>
       </c>
       <c r="E371" s="5">
@@ -7882,8 +7889,8 @@
       </c>
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D372" s="23"/>
+    <row r="372" spans="1:12" ht="30">
+      <c r="D372" s="27"/>
       <c r="E372" s="5">
         <v>2</v>
       </c>
@@ -7895,8 +7902,8 @@
       </c>
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D373" s="23"/>
+    <row r="373" spans="1:12" ht="30">
+      <c r="D373" s="27"/>
       <c r="E373" s="5">
         <v>3</v>
       </c>
@@ -7911,8 +7918,8 @@
       </c>
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D374" s="23"/>
+    <row r="374" spans="1:12" ht="30">
+      <c r="D374" s="27"/>
       <c r="E374" s="5">
         <v>4</v>
       </c>
@@ -7927,8 +7934,8 @@
       </c>
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D375" s="23"/>
+    <row r="375" spans="1:12">
+      <c r="D375" s="27"/>
       <c r="E375" s="5">
         <v>5</v>
       </c>
@@ -7940,10 +7947,10 @@
       </c>
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12">
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="30">
       <c r="A377" s="11" t="s">
         <v>339</v>
       </c>
@@ -7953,7 +7960,7 @@
       <c r="C377" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D377" s="24" t="s">
+      <c r="D377" s="23" t="s">
         <v>340</v>
       </c>
       <c r="E377" s="5">
@@ -7970,8 +7977,8 @@
       </c>
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D378" s="25"/>
+    <row r="378" spans="1:12" ht="45">
+      <c r="D378" s="24"/>
       <c r="E378" s="5">
         <v>2</v>
       </c>
@@ -7986,8 +7993,8 @@
       </c>
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D379" s="25"/>
+    <row r="379" spans="1:12" ht="30">
+      <c r="D379" s="24"/>
       <c r="E379" s="5">
         <v>3</v>
       </c>
@@ -8002,8 +8009,8 @@
       </c>
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D380" s="25"/>
+    <row r="380" spans="1:12" ht="30">
+      <c r="D380" s="24"/>
       <c r="E380" s="5">
         <v>4</v>
       </c>
@@ -8018,8 +8025,8 @@
       </c>
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D381" s="25"/>
+    <row r="381" spans="1:12" ht="45">
+      <c r="D381" s="24"/>
       <c r="E381" s="5">
         <v>5</v>
       </c>
@@ -8034,8 +8041,8 @@
       </c>
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D382" s="25"/>
+    <row r="382" spans="1:12" ht="30">
+      <c r="D382" s="24"/>
       <c r="E382" s="5">
         <v>6</v>
       </c>
@@ -8050,8 +8057,8 @@
       </c>
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D383" s="25"/>
+    <row r="383" spans="1:12" ht="45">
+      <c r="D383" s="24"/>
       <c r="E383" s="5">
         <v>7</v>
       </c>
@@ -8063,8 +8070,8 @@
       </c>
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D384" s="25"/>
+    <row r="384" spans="1:12" ht="75">
+      <c r="D384" s="24"/>
       <c r="E384" s="5">
         <v>8</v>
       </c>
@@ -8079,8 +8086,8 @@
       </c>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D385" s="25"/>
+    <row r="385" spans="1:12" ht="30">
+      <c r="D385" s="24"/>
       <c r="E385" s="5">
         <v>9</v>
       </c>
@@ -8095,8 +8102,8 @@
       </c>
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D386" s="25"/>
+    <row r="386" spans="1:12">
+      <c r="D386" s="24"/>
       <c r="E386" s="5">
         <v>10</v>
       </c>
@@ -8108,8 +8115,8 @@
       </c>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D387" s="26"/>
+    <row r="387" spans="1:12" ht="60">
+      <c r="D387" s="25"/>
       <c r="E387" s="5">
         <v>11</v>
       </c>
@@ -8121,10 +8128,10 @@
       </c>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12">
       <c r="L388" s="4"/>
     </row>
-    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="30">
       <c r="A389" s="11" t="s">
         <v>350</v>
       </c>
@@ -8134,7 +8141,7 @@
       <c r="C389" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D389" s="24" t="s">
+      <c r="D389" s="23" t="s">
         <v>351</v>
       </c>
       <c r="E389" s="5">
@@ -8151,8 +8158,8 @@
       </c>
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D390" s="25"/>
+    <row r="390" spans="1:12" ht="45">
+      <c r="D390" s="24"/>
       <c r="E390" s="5">
         <v>2</v>
       </c>
@@ -8167,8 +8174,8 @@
       </c>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D391" s="25"/>
+    <row r="391" spans="1:12" ht="30">
+      <c r="D391" s="24"/>
       <c r="E391" s="5">
         <v>3</v>
       </c>
@@ -8183,8 +8190,8 @@
       </c>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D392" s="25"/>
+    <row r="392" spans="1:12" ht="30">
+      <c r="D392" s="24"/>
       <c r="E392" s="5">
         <v>4</v>
       </c>
@@ -8199,8 +8206,8 @@
       </c>
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D393" s="25"/>
+    <row r="393" spans="1:12" ht="45">
+      <c r="D393" s="24"/>
       <c r="E393" s="5">
         <v>5</v>
       </c>
@@ -8215,8 +8222,8 @@
       </c>
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D394" s="25"/>
+    <row r="394" spans="1:12" ht="30">
+      <c r="D394" s="24"/>
       <c r="E394" s="5">
         <v>6</v>
       </c>
@@ -8231,8 +8238,8 @@
       </c>
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D395" s="25"/>
+    <row r="395" spans="1:12" ht="45">
+      <c r="D395" s="24"/>
       <c r="E395" s="5">
         <v>7</v>
       </c>
@@ -8244,8 +8251,8 @@
       </c>
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D396" s="25"/>
+    <row r="396" spans="1:12" ht="30">
+      <c r="D396" s="24"/>
       <c r="E396" s="5">
         <v>8</v>
       </c>
@@ -8257,8 +8264,8 @@
       </c>
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D397" s="25"/>
+    <row r="397" spans="1:12" ht="30">
+      <c r="D397" s="24"/>
       <c r="E397" s="5">
         <v>9</v>
       </c>
@@ -8270,8 +8277,8 @@
       </c>
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D398" s="26"/>
+    <row r="398" spans="1:12" ht="60">
+      <c r="D398" s="25"/>
       <c r="E398" s="5">
         <v>10</v>
       </c>
@@ -8286,10 +8293,10 @@
       </c>
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12">
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="30">
       <c r="A400" s="11" t="s">
         <v>357</v>
       </c>
@@ -8299,7 +8306,7 @@
       <c r="C400" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D400" s="24" t="s">
+      <c r="D400" s="23" t="s">
         <v>360</v>
       </c>
       <c r="E400" s="5">
@@ -8316,8 +8323,8 @@
       </c>
       <c r="L400" s="4"/>
     </row>
-    <row r="401" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D401" s="25"/>
+    <row r="401" spans="1:12" ht="45">
+      <c r="D401" s="24"/>
       <c r="E401" s="5">
         <v>2</v>
       </c>
@@ -8332,8 +8339,8 @@
       </c>
       <c r="L401" s="4"/>
     </row>
-    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D402" s="25"/>
+    <row r="402" spans="1:12" ht="30">
+      <c r="D402" s="24"/>
       <c r="E402" s="5">
         <v>3</v>
       </c>
@@ -8348,8 +8355,8 @@
       </c>
       <c r="L402" s="4"/>
     </row>
-    <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D403" s="25"/>
+    <row r="403" spans="1:12" ht="30">
+      <c r="D403" s="24"/>
       <c r="E403" s="5">
         <v>4</v>
       </c>
@@ -8364,8 +8371,8 @@
       </c>
       <c r="L403" s="4"/>
     </row>
-    <row r="404" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D404" s="25"/>
+    <row r="404" spans="1:12" ht="45">
+      <c r="D404" s="24"/>
       <c r="E404" s="5">
         <v>5</v>
       </c>
@@ -8380,8 +8387,8 @@
       </c>
       <c r="L404" s="4"/>
     </row>
-    <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D405" s="25"/>
+    <row r="405" spans="1:12" ht="30">
+      <c r="D405" s="24"/>
       <c r="E405" s="5">
         <v>6</v>
       </c>
@@ -8396,8 +8403,8 @@
       </c>
       <c r="L405" s="4"/>
     </row>
-    <row r="406" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D406" s="25"/>
+    <row r="406" spans="1:12" ht="45">
+      <c r="D406" s="24"/>
       <c r="E406" s="5">
         <v>7</v>
       </c>
@@ -8410,8 +8417,8 @@
       <c r="I406" s="15"/>
       <c r="L406" s="4"/>
     </row>
-    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D407" s="25"/>
+    <row r="407" spans="1:12" ht="30">
+      <c r="D407" s="24"/>
       <c r="E407" s="5">
         <v>8</v>
       </c>
@@ -8426,8 +8433,8 @@
       </c>
       <c r="L407" s="4"/>
     </row>
-    <row r="408" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D408" s="26"/>
+    <row r="408" spans="1:12" ht="45">
+      <c r="D408" s="25"/>
       <c r="E408" s="5">
         <v>9</v>
       </c>
@@ -8439,10 +8446,10 @@
       </c>
       <c r="L408" s="4"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12">
       <c r="L409" s="4"/>
     </row>
-    <row r="410" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="45" customHeight="1">
       <c r="A410" s="11" t="s">
         <v>366</v>
       </c>
@@ -8452,7 +8459,7 @@
       <c r="C410" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D410" s="24" t="s">
+      <c r="D410" s="23" t="s">
         <v>367</v>
       </c>
       <c r="E410" s="5">
@@ -8463,8 +8470,8 @@
       </c>
       <c r="L410" s="4"/>
     </row>
-    <row r="411" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="D411" s="26"/>
+    <row r="411" spans="1:12" ht="135">
+      <c r="D411" s="25"/>
       <c r="E411" s="5">
         <v>2</v>
       </c>
@@ -8479,10 +8486,10 @@
       </c>
       <c r="L411" s="4"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12">
       <c r="L412" s="4"/>
     </row>
-    <row r="413" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="45" customHeight="1">
       <c r="A413" s="11" t="s">
         <v>372</v>
       </c>
@@ -8492,7 +8499,7 @@
       <c r="C413" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D413" s="24" t="s">
+      <c r="D413" s="23" t="s">
         <v>373</v>
       </c>
       <c r="E413" s="5">
@@ -8503,8 +8510,8 @@
       </c>
       <c r="L413" s="4"/>
     </row>
-    <row r="414" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D414" s="26"/>
+    <row r="414" spans="1:12" ht="60">
+      <c r="D414" s="25"/>
       <c r="E414" s="5">
         <v>2</v>
       </c>
@@ -8519,10 +8526,10 @@
       </c>
       <c r="L414" s="4"/>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12">
       <c r="L415" s="4"/>
     </row>
-    <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="30">
       <c r="A416" s="11" t="s">
         <v>377</v>
       </c>
@@ -8532,7 +8539,7 @@
       <c r="C416" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D416" s="24" t="s">
+      <c r="D416" s="23" t="s">
         <v>378</v>
       </c>
       <c r="E416" s="5">
@@ -8543,8 +8550,8 @@
       </c>
       <c r="L416" s="4"/>
     </row>
-    <row r="417" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D417" s="26"/>
+    <row r="417" spans="1:12" ht="45">
+      <c r="D417" s="25"/>
       <c r="E417" s="5">
         <v>2</v>
       </c>
@@ -8556,10 +8563,10 @@
       </c>
       <c r="L417" s="4"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12">
       <c r="L418" s="4"/>
     </row>
-    <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="30">
       <c r="A419" s="11" t="s">
         <v>381</v>
       </c>
@@ -8569,7 +8576,7 @@
       <c r="C419" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D419" s="24" t="s">
+      <c r="D419" s="23" t="s">
         <v>382</v>
       </c>
       <c r="E419" s="5">
@@ -8586,8 +8593,8 @@
       </c>
       <c r="L419" s="4"/>
     </row>
-    <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D420" s="25"/>
+    <row r="420" spans="1:12" ht="45">
+      <c r="D420" s="24"/>
       <c r="E420" s="5">
         <v>2</v>
       </c>
@@ -8602,8 +8609,8 @@
       </c>
       <c r="L420" s="4"/>
     </row>
-    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D421" s="25"/>
+    <row r="421" spans="1:12" ht="30">
+      <c r="D421" s="24"/>
       <c r="E421" s="5">
         <v>3</v>
       </c>
@@ -8618,8 +8625,8 @@
       </c>
       <c r="L421" s="4"/>
     </row>
-    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D422" s="25"/>
+    <row r="422" spans="1:12" ht="30">
+      <c r="D422" s="24"/>
       <c r="E422" s="5">
         <v>4</v>
       </c>
@@ -8634,8 +8641,8 @@
       </c>
       <c r="L422" s="4"/>
     </row>
-    <row r="423" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D423" s="25"/>
+    <row r="423" spans="1:12" ht="45">
+      <c r="D423" s="24"/>
       <c r="E423" s="5">
         <v>5</v>
       </c>
@@ -8650,8 +8657,8 @@
       </c>
       <c r="L423" s="4"/>
     </row>
-    <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D424" s="25"/>
+    <row r="424" spans="1:12" ht="30">
+      <c r="D424" s="24"/>
       <c r="E424" s="5">
         <v>6</v>
       </c>
@@ -8666,8 +8673,8 @@
       </c>
       <c r="L424" s="4"/>
     </row>
-    <row r="425" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D425" s="25"/>
+    <row r="425" spans="1:12" ht="45">
+      <c r="D425" s="24"/>
       <c r="E425" s="5">
         <v>7</v>
       </c>
@@ -8680,8 +8687,8 @@
       <c r="I425" s="15"/>
       <c r="L425" s="4"/>
     </row>
-    <row r="426" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D426" s="26"/>
+    <row r="426" spans="1:12" ht="60">
+      <c r="D426" s="25"/>
       <c r="E426" s="5">
         <v>8</v>
       </c>
@@ -8696,10 +8703,10 @@
       </c>
       <c r="L426" s="4"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12">
       <c r="L427" s="4"/>
     </row>
-    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="30">
       <c r="A428" s="11" t="s">
         <v>387</v>
       </c>
@@ -8709,7 +8716,7 @@
       <c r="C428" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D428" s="24" t="s">
+      <c r="D428" s="23" t="s">
         <v>388</v>
       </c>
       <c r="E428" s="5">
@@ -8720,8 +8727,8 @@
       </c>
       <c r="L428" s="4"/>
     </row>
-    <row r="429" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D429" s="26"/>
+    <row r="429" spans="1:12" ht="75">
+      <c r="D429" s="25"/>
       <c r="E429" s="5">
         <v>2</v>
       </c>
@@ -8733,10 +8740,10 @@
       </c>
       <c r="L429" s="4"/>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12">
       <c r="L430" s="4"/>
     </row>
-    <row r="431" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="60" customHeight="1">
       <c r="A431" s="11" t="s">
         <v>392</v>
       </c>
@@ -8746,7 +8753,7 @@
       <c r="C431" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D431" s="24" t="s">
+      <c r="D431" s="23" t="s">
         <v>393</v>
       </c>
       <c r="E431" s="5">
@@ -8757,8 +8764,8 @@
       </c>
       <c r="L431" s="4"/>
     </row>
-    <row r="432" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D432" s="25"/>
+    <row r="432" spans="1:12" ht="45">
+      <c r="D432" s="24"/>
       <c r="E432" s="5">
         <v>2</v>
       </c>
@@ -8770,8 +8777,8 @@
       </c>
       <c r="L432" s="4"/>
     </row>
-    <row r="433" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D433" s="26"/>
+    <row r="433" spans="1:12" ht="45">
+      <c r="D433" s="25"/>
       <c r="E433" s="5">
         <v>3</v>
       </c>
@@ -8783,10 +8790,10 @@
       </c>
       <c r="L433" s="4"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12">
       <c r="L434" s="4"/>
     </row>
-    <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="30">
       <c r="A435" s="11" t="s">
         <v>396</v>
       </c>
@@ -8796,7 +8803,7 @@
       <c r="C435" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D435" s="24" t="s">
+      <c r="D435" s="23" t="s">
         <v>397</v>
       </c>
       <c r="E435" s="5">
@@ -8807,8 +8814,8 @@
       </c>
       <c r="L435" s="4"/>
     </row>
-    <row r="436" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D436" s="25"/>
+    <row r="436" spans="1:12" ht="75">
+      <c r="D436" s="24"/>
       <c r="E436" s="5">
         <v>2</v>
       </c>
@@ -8820,8 +8827,8 @@
       </c>
       <c r="L436" s="4"/>
     </row>
-    <row r="437" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D437" s="26"/>
+    <row r="437" spans="1:12" ht="45">
+      <c r="D437" s="25"/>
       <c r="E437" s="5">
         <v>3</v>
       </c>
@@ -8836,11 +8843,11 @@
       </c>
       <c r="L437" s="4"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12">
       <c r="I438" s="12"/>
       <c r="L438" s="4"/>
     </row>
-    <row r="439" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="45" customHeight="1">
       <c r="A439" s="11" t="s">
         <v>399</v>
       </c>
@@ -8850,7 +8857,7 @@
       <c r="C439" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D439" s="24" t="s">
+      <c r="D439" s="23" t="s">
         <v>400</v>
       </c>
       <c r="E439" s="5">
@@ -8862,8 +8869,8 @@
       <c r="I439" s="15"/>
       <c r="L439" s="4"/>
     </row>
-    <row r="440" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="D440" s="26"/>
+    <row r="440" spans="1:12" ht="135">
+      <c r="D440" s="25"/>
       <c r="E440" s="5">
         <v>2</v>
       </c>
@@ -8878,10 +8885,10 @@
       </c>
       <c r="L440" s="4"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12">
       <c r="L441" s="4"/>
     </row>
-    <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="30">
       <c r="A442" s="11" t="s">
         <v>405</v>
       </c>
@@ -8891,7 +8898,7 @@
       <c r="C442" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D442" s="24" t="s">
+      <c r="D442" s="23" t="s">
         <v>406</v>
       </c>
       <c r="E442" s="5">
@@ -8902,8 +8909,8 @@
       </c>
       <c r="L442" s="4"/>
     </row>
-    <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D443" s="26"/>
+    <row r="443" spans="1:12" ht="45">
+      <c r="D443" s="25"/>
       <c r="E443" s="5">
         <v>2</v>
       </c>
@@ -8915,10 +8922,10 @@
       </c>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12">
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="30">
       <c r="A445" s="11" t="s">
         <v>410</v>
       </c>
@@ -8928,7 +8935,7 @@
       <c r="C445" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D445" s="24" t="s">
+      <c r="D445" s="23" t="s">
         <v>411</v>
       </c>
       <c r="E445" s="5">
@@ -8939,8 +8946,8 @@
       </c>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D446" s="25"/>
+    <row r="446" spans="1:12" ht="45">
+      <c r="D446" s="24"/>
       <c r="E446" s="5">
         <v>2</v>
       </c>
@@ -8952,8 +8959,8 @@
       </c>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D447" s="26"/>
+    <row r="447" spans="1:12" ht="30">
+      <c r="D447" s="25"/>
       <c r="E447" s="5">
         <v>3</v>
       </c>
@@ -8965,10 +8972,10 @@
       </c>
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12">
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="30">
       <c r="A449" s="11" t="s">
         <v>414</v>
       </c>
@@ -8978,7 +8985,7 @@
       <c r="C449" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D449" s="24" t="s">
+      <c r="D449" s="23" t="s">
         <v>415</v>
       </c>
       <c r="E449" s="5">
@@ -8989,8 +8996,8 @@
       </c>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D450" s="26"/>
+    <row r="450" spans="1:12" ht="30">
+      <c r="D450" s="25"/>
       <c r="E450" s="5">
         <v>2</v>
       </c>
@@ -9002,11 +9009,11 @@
       </c>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12">
       <c r="I451" s="12"/>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="45" customHeight="1">
       <c r="A452" s="11" t="s">
         <v>418</v>
       </c>
@@ -9016,7 +9023,7 @@
       <c r="C452" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D452" s="24" t="s">
+      <c r="D452" s="23" t="s">
         <v>419</v>
       </c>
       <c r="E452" s="5">
@@ -9028,8 +9035,8 @@
       <c r="I452" s="15"/>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D453" s="25"/>
+    <row r="453" spans="1:12" ht="30">
+      <c r="D453" s="24"/>
       <c r="E453" s="5">
         <v>2</v>
       </c>
@@ -9041,8 +9048,8 @@
       </c>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D454" s="26"/>
+    <row r="454" spans="1:12" ht="45">
+      <c r="D454" s="25"/>
       <c r="E454" s="5">
         <v>3</v>
       </c>
@@ -9057,10 +9064,10 @@
       </c>
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12">
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="45" customHeight="1">
       <c r="A456" s="11" t="s">
         <v>424</v>
       </c>
@@ -9070,7 +9077,7 @@
       <c r="C456" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D456" s="24" t="s">
+      <c r="D456" s="23" t="s">
         <v>425</v>
       </c>
       <c r="E456" s="5">
@@ -9084,8 +9091,8 @@
       </c>
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D457" s="25"/>
+    <row r="457" spans="1:12" ht="45">
+      <c r="D457" s="24"/>
       <c r="E457" s="5">
         <v>2</v>
       </c>
@@ -9097,8 +9104,8 @@
       </c>
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D458" s="25"/>
+    <row r="458" spans="1:12" ht="30">
+      <c r="D458" s="24"/>
       <c r="E458" s="5">
         <v>3</v>
       </c>
@@ -9113,8 +9120,8 @@
       </c>
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D459" s="25"/>
+    <row r="459" spans="1:12" ht="30">
+      <c r="D459" s="24"/>
       <c r="E459" s="5">
         <v>4</v>
       </c>
@@ -9126,8 +9133,8 @@
       </c>
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D460" s="26"/>
+    <row r="460" spans="1:12" ht="45">
+      <c r="D460" s="25"/>
       <c r="E460" s="5">
         <v>5</v>
       </c>
@@ -9139,10 +9146,10 @@
       </c>
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12">
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="30">
       <c r="A462" s="11" t="s">
         <v>434</v>
       </c>
@@ -9152,7 +9159,7 @@
       <c r="C462" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D462" s="24" t="s">
+      <c r="D462" s="23" t="s">
         <v>435</v>
       </c>
       <c r="F462" s="11" t="s">
@@ -9161,8 +9168,8 @@
       <c r="I462" s="12"/>
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D463" s="25"/>
+    <row r="463" spans="1:12" ht="45">
+      <c r="D463" s="24"/>
       <c r="E463" s="5">
         <v>1</v>
       </c>
@@ -9174,8 +9181,8 @@
       </c>
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D464" s="25"/>
+    <row r="464" spans="1:12" ht="30">
+      <c r="D464" s="24"/>
       <c r="E464" s="5">
         <v>2</v>
       </c>
@@ -9190,8 +9197,8 @@
       </c>
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D465" s="25"/>
+    <row r="465" spans="1:12" ht="30">
+      <c r="D465" s="24"/>
       <c r="E465" s="5">
         <v>3</v>
       </c>
@@ -9203,8 +9210,8 @@
       </c>
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D466" s="26"/>
+    <row r="466" spans="1:12" ht="60">
+      <c r="D466" s="25"/>
       <c r="E466" s="5">
         <v>4</v>
       </c>
@@ -9216,10 +9223,10 @@
       </c>
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12">
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="30">
       <c r="A468" s="11" t="s">
         <v>443</v>
       </c>
@@ -9229,7 +9236,7 @@
       <c r="C468" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D468" s="24" t="s">
+      <c r="D468" s="23" t="s">
         <v>445</v>
       </c>
       <c r="F468" s="11" t="s">
@@ -9238,8 +9245,8 @@
       <c r="I468" s="12"/>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D469" s="25"/>
+    <row r="469" spans="1:12" ht="45">
+      <c r="D469" s="24"/>
       <c r="E469" s="5">
         <v>1</v>
       </c>
@@ -9251,8 +9258,8 @@
       </c>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D470" s="25"/>
+    <row r="470" spans="1:12" ht="30">
+      <c r="D470" s="24"/>
       <c r="E470" s="5">
         <v>2</v>
       </c>
@@ -9268,8 +9275,8 @@
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D471" s="25"/>
+    <row r="471" spans="1:12" ht="45">
+      <c r="D471" s="24"/>
       <c r="E471" s="5">
         <v>3</v>
       </c>
@@ -9282,8 +9289,8 @@
       <c r="K471" s="4"/>
       <c r="L471" s="4"/>
     </row>
-    <row r="472" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D472" s="26"/>
+    <row r="472" spans="1:12" ht="60">
+      <c r="D472" s="25"/>
       <c r="E472" s="5">
         <v>4</v>
       </c>
@@ -9296,11 +9303,11 @@
       <c r="K472" s="4"/>
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12">
       <c r="K473" s="4"/>
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="45" customHeight="1">
       <c r="A474" s="11" t="s">
         <v>447</v>
       </c>
@@ -9310,7 +9317,7 @@
       <c r="C474" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D474" s="24" t="s">
+      <c r="D474" s="23" t="s">
         <v>448</v>
       </c>
       <c r="F474" s="11" t="s">
@@ -9320,8 +9327,8 @@
       <c r="K474" s="4"/>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D475" s="25"/>
+    <row r="475" spans="1:12" ht="45">
+      <c r="D475" s="24"/>
       <c r="E475" s="5">
         <v>1</v>
       </c>
@@ -9334,8 +9341,8 @@
       <c r="K475" s="4"/>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D476" s="25"/>
+    <row r="476" spans="1:12" ht="30">
+      <c r="D476" s="24"/>
       <c r="E476" s="5">
         <v>2</v>
       </c>
@@ -9351,8 +9358,8 @@
       <c r="K476" s="4"/>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D477" s="26"/>
+    <row r="477" spans="1:12" ht="45">
+      <c r="D477" s="25"/>
       <c r="E477" s="5">
         <v>3</v>
       </c>
@@ -9365,11 +9372,11 @@
       <c r="K477" s="4"/>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12">
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="45" customHeight="1">
       <c r="A479" s="11" t="s">
         <v>451</v>
       </c>
@@ -9379,7 +9386,7 @@
       <c r="C479" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D479" s="24" t="s">
+      <c r="D479" s="23" t="s">
         <v>452</v>
       </c>
       <c r="E479" s="5">
@@ -9394,8 +9401,8 @@
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D480" s="25"/>
+    <row r="480" spans="1:12" ht="75">
+      <c r="D480" s="24"/>
       <c r="E480" s="5">
         <v>2</v>
       </c>
@@ -9411,8 +9418,8 @@
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
     </row>
-    <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D481" s="25"/>
+    <row r="481" spans="1:12" ht="30">
+      <c r="D481" s="24"/>
       <c r="E481" s="5">
         <v>3</v>
       </c>
@@ -9425,16 +9432,16 @@
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D482" s="25"/>
+    <row r="482" spans="1:12">
+      <c r="D482" s="24"/>
       <c r="F482" s="11" t="s">
         <v>459</v>
       </c>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
     </row>
-    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D483" s="25"/>
+    <row r="483" spans="1:12" ht="30">
+      <c r="D483" s="24"/>
       <c r="E483" s="5">
         <v>4</v>
       </c>
@@ -9447,8 +9454,8 @@
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
     </row>
-    <row r="484" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D484" s="25"/>
+    <row r="484" spans="1:12" ht="30">
+      <c r="D484" s="24"/>
       <c r="E484" s="5">
         <v>5</v>
       </c>
@@ -9461,8 +9468,8 @@
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D485" s="25"/>
+    <row r="485" spans="1:12" ht="30">
+      <c r="D485" s="24"/>
       <c r="E485" s="5">
         <v>6</v>
       </c>
@@ -9475,8 +9482,8 @@
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D486" s="25"/>
+    <row r="486" spans="1:12" ht="30">
+      <c r="D486" s="24"/>
       <c r="E486" s="5">
         <v>7</v>
       </c>
@@ -9489,8 +9496,8 @@
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D487" s="26"/>
+    <row r="487" spans="1:12" ht="60">
+      <c r="D487" s="25"/>
       <c r="E487" s="5">
         <v>8</v>
       </c>
@@ -9504,12 +9511,12 @@
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12">
       <c r="I488" s="15"/>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="30">
       <c r="A489" s="11" t="s">
         <v>463</v>
       </c>
@@ -9519,7 +9526,7 @@
       <c r="C489" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D489" s="24" t="s">
+      <c r="D489" s="23" t="s">
         <v>466</v>
       </c>
       <c r="E489" s="5">
@@ -9531,8 +9538,8 @@
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D490" s="26"/>
+    <row r="490" spans="1:12" ht="30">
+      <c r="D490" s="25"/>
       <c r="E490" s="5">
         <v>2</v>
       </c>
@@ -9545,11 +9552,11 @@
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12">
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="30">
       <c r="A492" s="11" t="s">
         <v>468</v>
       </c>
@@ -9559,7 +9566,7 @@
       <c r="C492" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D492" s="24" t="s">
+      <c r="D492" s="23" t="s">
         <v>469</v>
       </c>
       <c r="E492" s="5">
@@ -9571,8 +9578,8 @@
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D493" s="25"/>
+    <row r="493" spans="1:12" ht="30">
+      <c r="D493" s="24"/>
       <c r="E493" s="5">
         <v>2</v>
       </c>
@@ -9588,8 +9595,8 @@
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D494" s="26"/>
+    <row r="494" spans="1:12" ht="60">
+      <c r="D494" s="25"/>
       <c r="E494" s="5">
         <v>3</v>
       </c>
@@ -9602,11 +9609,11 @@
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12">
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="30">
       <c r="A496" s="11" t="s">
         <v>476</v>
       </c>
@@ -9616,7 +9623,7 @@
       <c r="C496" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D496" s="24" t="s">
+      <c r="D496" s="23" t="s">
         <v>479</v>
       </c>
       <c r="E496" s="5">
@@ -9628,8 +9635,8 @@
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D497" s="25"/>
+    <row r="497" spans="1:12">
+      <c r="D497" s="24"/>
       <c r="E497" s="5">
         <v>2</v>
       </c>
@@ -9642,8 +9649,8 @@
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D498" s="25"/>
+    <row r="498" spans="1:12" ht="30">
+      <c r="D498" s="24"/>
       <c r="E498" s="5">
         <v>3</v>
       </c>
@@ -9659,8 +9666,8 @@
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D499" s="25"/>
+    <row r="499" spans="1:12" ht="30">
+      <c r="D499" s="24"/>
       <c r="E499" s="5">
         <v>4</v>
       </c>
@@ -9676,8 +9683,8 @@
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D500" s="25"/>
+    <row r="500" spans="1:12">
+      <c r="D500" s="24"/>
       <c r="E500" s="5">
         <v>5</v>
       </c>
@@ -9690,8 +9697,8 @@
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D501" s="25"/>
+    <row r="501" spans="1:12" ht="60">
+      <c r="D501" s="24"/>
       <c r="E501" s="5">
         <v>6</v>
       </c>
@@ -9705,8 +9712,8 @@
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D502" s="26"/>
+    <row r="502" spans="1:12" ht="30">
+      <c r="D502" s="25"/>
       <c r="E502" s="5">
         <v>7</v>
       </c>
@@ -9719,11 +9726,11 @@
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12">
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="30">
       <c r="A504" s="11" t="s">
         <v>482</v>
       </c>
@@ -9733,7 +9740,7 @@
       <c r="C504" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D504" s="24" t="s">
+      <c r="D504" s="23" t="s">
         <v>483</v>
       </c>
       <c r="E504" s="5">
@@ -9745,8 +9752,8 @@
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D505" s="25"/>
+    <row r="505" spans="1:12" ht="45">
+      <c r="D505" s="24"/>
       <c r="E505" s="5">
         <v>2</v>
       </c>
@@ -9759,8 +9766,8 @@
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D506" s="25"/>
+    <row r="506" spans="1:12" ht="30">
+      <c r="D506" s="24"/>
       <c r="E506" s="5">
         <v>3</v>
       </c>
@@ -9776,8 +9783,8 @@
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D507" s="26"/>
+    <row r="507" spans="1:12" ht="30">
+      <c r="D507" s="25"/>
       <c r="E507" s="5">
         <v>4</v>
       </c>
@@ -9790,11 +9797,11 @@
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12">
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="30">
       <c r="A509" s="11" t="s">
         <v>484</v>
       </c>
@@ -9804,7 +9811,7 @@
       <c r="C509" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D509" s="24" t="s">
+      <c r="D509" s="23" t="s">
         <v>485</v>
       </c>
       <c r="E509" s="5">
@@ -9816,8 +9823,8 @@
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D510" s="26"/>
+    <row r="510" spans="1:12" ht="45">
+      <c r="D510" s="25"/>
       <c r="E510" s="5">
         <v>2</v>
       </c>
@@ -9830,12 +9837,12 @@
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12">
       <c r="I511" s="12"/>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="45" customHeight="1">
       <c r="A512" s="11" t="s">
         <v>488</v>
       </c>
@@ -9845,7 +9852,7 @@
       <c r="C512" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D512" s="24" t="s">
+      <c r="D512" s="23" t="s">
         <v>489</v>
       </c>
       <c r="E512" s="5">
@@ -9861,8 +9868,8 @@
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D513" s="25"/>
+    <row r="513" spans="1:12" ht="30">
+      <c r="D513" s="24"/>
       <c r="E513" s="5">
         <v>2</v>
       </c>
@@ -9875,8 +9882,8 @@
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D514" s="25"/>
+    <row r="514" spans="1:12" ht="30">
+      <c r="D514" s="24"/>
       <c r="E514" s="5">
         <v>3</v>
       </c>
@@ -9892,8 +9899,8 @@
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D515" s="25"/>
+    <row r="515" spans="1:12" ht="75">
+      <c r="D515" s="24"/>
       <c r="E515" s="5">
         <v>4</v>
       </c>
@@ -9909,8 +9916,8 @@
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D516" s="26"/>
+    <row r="516" spans="1:12" ht="90">
+      <c r="D516" s="25"/>
       <c r="E516" s="5">
         <v>5</v>
       </c>
@@ -9923,11 +9930,11 @@
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12">
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="30">
       <c r="A518" s="11" t="s">
         <v>496</v>
       </c>
@@ -9937,7 +9944,7 @@
       <c r="C518" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D518" s="24" t="s">
+      <c r="D518" s="23" t="s">
         <v>497</v>
       </c>
       <c r="E518" s="5">
@@ -9953,8 +9960,8 @@
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D519" s="25"/>
+    <row r="519" spans="1:12" ht="30">
+      <c r="D519" s="24"/>
       <c r="E519" s="5">
         <v>2</v>
       </c>
@@ -9967,8 +9974,8 @@
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D520" s="25"/>
+    <row r="520" spans="1:12" ht="30">
+      <c r="D520" s="24"/>
       <c r="E520" s="5">
         <v>3</v>
       </c>
@@ -9984,8 +9991,8 @@
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D521" s="25"/>
+    <row r="521" spans="1:12" ht="75">
+      <c r="D521" s="24"/>
       <c r="E521" s="5">
         <v>4</v>
       </c>
@@ -10001,8 +10008,8 @@
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D522" s="26"/>
+    <row r="522" spans="1:12" ht="90">
+      <c r="D522" s="25"/>
       <c r="E522" s="5">
         <v>5</v>
       </c>
@@ -10015,11 +10022,11 @@
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12">
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30">
       <c r="A524" s="11" t="s">
         <v>501</v>
       </c>
@@ -10029,7 +10036,7 @@
       <c r="C524" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D524" s="24" t="s">
+      <c r="D524" s="23" t="s">
         <v>502</v>
       </c>
       <c r="E524" s="5">
@@ -10045,8 +10052,8 @@
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D525" s="25"/>
+    <row r="525" spans="1:12" ht="30">
+      <c r="D525" s="24"/>
       <c r="E525" s="5">
         <v>2</v>
       </c>
@@ -10059,8 +10066,8 @@
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D526" s="25"/>
+    <row r="526" spans="1:12" ht="30">
+      <c r="D526" s="24"/>
       <c r="E526" s="5">
         <v>3</v>
       </c>
@@ -10076,8 +10083,8 @@
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D527" s="25"/>
+    <row r="527" spans="1:12" ht="75">
+      <c r="D527" s="24"/>
       <c r="E527" s="5">
         <v>4</v>
       </c>
@@ -10093,8 +10100,8 @@
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D528" s="26"/>
+    <row r="528" spans="1:12" ht="90">
+      <c r="D528" s="25"/>
       <c r="E528" s="5">
         <v>5</v>
       </c>
@@ -10107,809 +10114,757 @@
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
-    <row r="529" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:12">
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
     </row>
-    <row r="530" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:12">
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
     </row>
-    <row r="531" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:12">
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
-    <row r="532" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:12">
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
-    <row r="533" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:12">
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
-    <row r="534" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:12">
       <c r="I534" s="12"/>
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
-    <row r="535" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:12">
       <c r="I535" s="15"/>
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
-    <row r="536" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:12">
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
-    <row r="537" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:12">
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
     </row>
-    <row r="538" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:12">
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
     </row>
-    <row r="539" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:12">
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
     </row>
-    <row r="540" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:12">
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
     </row>
-    <row r="541" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:12">
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
     </row>
-    <row r="542" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:12">
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
     </row>
-    <row r="543" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:12">
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
-    <row r="544" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:12">
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
-    <row r="545" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:12">
       <c r="I545" s="12"/>
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
-    <row r="546" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:12">
       <c r="I546" s="15"/>
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
     </row>
-    <row r="547" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:12">
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
     </row>
-    <row r="548" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:12">
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
     </row>
-    <row r="549" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:12">
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
     </row>
-    <row r="550" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:12">
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
-    <row r="551" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:12">
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
-    <row r="552" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:12">
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
-    <row r="553" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:12">
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
     </row>
-    <row r="554" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:12">
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
     </row>
-    <row r="555" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:12">
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
     </row>
-    <row r="556" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:12">
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
     </row>
-    <row r="557" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:12">
       <c r="I557" s="12"/>
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
     </row>
-    <row r="558" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:12">
       <c r="I558" s="15"/>
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
     </row>
-    <row r="559" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:12">
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
-    <row r="560" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:12">
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
-    <row r="561" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:12">
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
-    <row r="562" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:12">
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
-    <row r="563" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:12">
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
     </row>
-    <row r="564" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:12">
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
     </row>
-    <row r="565" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:12">
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
     </row>
-    <row r="566" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:12">
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:12">
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:12">
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:12">
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:12">
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:12">
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:12">
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:12">
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:12">
       <c r="I574" s="12"/>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:12">
       <c r="I575" s="15"/>
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:12">
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="11:12">
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="11:12">
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="11:12">
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="11:12">
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="11:12">
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="11:12">
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="11:12">
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="11:12">
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="11:12">
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="11:12">
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="11:12">
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="11:12">
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="11:12">
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="11:12">
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="11:12">
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="11:12">
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:12">
       <c r="I593" s="12"/>
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:12">
       <c r="I594" s="15"/>
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:12">
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:12">
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:12">
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:12">
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:12">
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:12">
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:12">
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:12">
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:12" ht="45" customHeight="1">
       <c r="C603" s="11"/>
       <c r="E603" s="11"/>
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:12">
       <c r="C604" s="11"/>
       <c r="E604" s="11"/>
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:12">
       <c r="C605" s="11"/>
       <c r="E605" s="11"/>
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:12">
       <c r="C606" s="11"/>
       <c r="E606" s="11"/>
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:12">
       <c r="C607" s="11"/>
       <c r="E607" s="11"/>
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:12">
       <c r="C608" s="11"/>
       <c r="E608" s="11"/>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:12">
       <c r="C609" s="11"/>
       <c r="E609" s="11"/>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:12">
       <c r="C610" s="11"/>
       <c r="E610" s="11"/>
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
-    <row r="611" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:12">
       <c r="C611" s="11"/>
       <c r="E611" s="11"/>
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
-    <row r="612" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:12">
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
     </row>
-    <row r="613" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:12">
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
-    <row r="614" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:12" ht="45" customHeight="1">
       <c r="I614" s="12"/>
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
     </row>
-    <row r="615" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:12">
       <c r="I615" s="15"/>
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
-    <row r="616" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:12">
       <c r="I616" s="12"/>
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
-    <row r="617" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:12">
       <c r="I617" s="12"/>
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
     </row>
-    <row r="618" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:12">
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
     </row>
-    <row r="619" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:12">
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
     </row>
-    <row r="620" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:12">
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
-    <row r="621" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:12">
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
-    <row r="622" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:12">
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
     </row>
-    <row r="623" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:12">
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
     </row>
-    <row r="624" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:12">
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
     </row>
-    <row r="625" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="9:12">
       <c r="I625" s="12"/>
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
     </row>
-    <row r="626" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="9:12">
       <c r="I626" s="15"/>
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
-    <row r="627" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="9:12">
       <c r="I627" s="12"/>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
-    <row r="628" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="9:12">
       <c r="I628" s="12"/>
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
-    <row r="629" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="9:12">
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
     </row>
-    <row r="630" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="9:12">
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
     </row>
-    <row r="631" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="9:12">
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
     </row>
-    <row r="632" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="9:12">
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
-    <row r="633" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="9:12">
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
-    <row r="634" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="9:12">
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
-    <row r="635" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="9:12">
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
     </row>
-    <row r="636" spans="9:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="9:12" ht="45" customHeight="1">
       <c r="I636" s="12"/>
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
     </row>
-    <row r="637" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="9:12">
       <c r="I637" s="15"/>
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
     </row>
-    <row r="638" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="9:12">
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
     </row>
-    <row r="639" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="9:12">
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
-    <row r="640" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="9:12">
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
-    <row r="641" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="11:12">
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
     </row>
-    <row r="642" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="11:12">
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
     </row>
-    <row r="643" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="11:12">
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
     </row>
-    <row r="644" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="11:12">
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
     </row>
-    <row r="645" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="11:12">
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
     </row>
-    <row r="646" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="11:12">
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
-    <row r="647" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="11:12">
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
-    <row r="648" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="11:12">
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
     </row>
-    <row r="649" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="11:12">
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
     </row>
-    <row r="650" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="11:12">
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
     </row>
-    <row r="651" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="11:12">
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
     </row>
-    <row r="652" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="11:12">
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
-    <row r="653" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="11:12">
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
-    <row r="654" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="11:12">
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
-    <row r="655" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="11:12">
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
     </row>
-    <row r="656" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="11:12">
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
     </row>
-    <row r="657" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="11:12">
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
     </row>
-    <row r="658" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="11:12">
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
     </row>
-    <row r="659" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="11:12">
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
-    <row r="660" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="11:12">
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
-    <row r="661" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="11:12">
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
     </row>
-    <row r="662" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="11:12">
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
     </row>
-    <row r="663" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="11:12">
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
     </row>
-    <row r="664" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="11:12">
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
     </row>
-    <row r="665" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="11:12">
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
-    <row r="666" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="11:12">
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
-    <row r="667" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="11:12">
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
-    <row r="668" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="11:12">
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
     </row>
-    <row r="669" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="11:12">
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
     </row>
-    <row r="670" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="11:12">
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
     </row>
-    <row r="671" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="11:12">
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
-    <row r="672" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="11:12">
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
-    <row r="673" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="12:12">
       <c r="L673" s="4"/>
     </row>
-    <row r="674" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="12:12">
       <c r="L674" s="4"/>
     </row>
-    <row r="675" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="12:12">
       <c r="L675" s="4"/>
     </row>
-    <row r="676" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="12:12">
       <c r="L676" s="4"/>
     </row>
-    <row r="677" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="12:12">
       <c r="L677" s="4"/>
     </row>
-    <row r="678" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="12:12">
       <c r="L678" s="4"/>
     </row>
-    <row r="679" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="12:12">
       <c r="L679" s="4"/>
     </row>
-    <row r="680" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="12:12">
       <c r="L680" s="4"/>
     </row>
-    <row r="681" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="12:12">
       <c r="L681" s="4"/>
     </row>
-    <row r="682" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="12:12">
       <c r="L682" s="4"/>
     </row>
-    <row r="683" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="12:12">
       <c r="L683" s="4"/>
     </row>
-    <row r="684" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="12:12">
       <c r="L684" s="4"/>
     </row>
-    <row r="685" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="12:12">
       <c r="L685" s="4"/>
     </row>
-    <row r="686" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="12:12">
       <c r="L686" s="4"/>
     </row>
-    <row r="687" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="12:12">
       <c r="L687" s="4"/>
     </row>
-    <row r="688" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="12:12">
       <c r="L688" s="4"/>
     </row>
-    <row r="689" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="12:12">
       <c r="L689" s="4"/>
     </row>
-    <row r="690" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="12:12">
       <c r="L690" s="4"/>
     </row>
-    <row r="691" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="12:12">
       <c r="L691" s="4"/>
     </row>
-    <row r="692" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="12:12">
       <c r="L692" s="4"/>
     </row>
-    <row r="693" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="12:12">
       <c r="L693" s="4"/>
     </row>
-    <row r="694" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="12:12">
       <c r="L694" s="4"/>
     </row>
-    <row r="695" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="12:12">
       <c r="L695" s="4"/>
     </row>
-    <row r="696" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="12:12">
       <c r="L696" s="4"/>
     </row>
-    <row r="697" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="12:12">
       <c r="L697" s="4"/>
     </row>
-    <row r="698" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="12:12">
       <c r="L698" s="4"/>
     </row>
-    <row r="699" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="12:12">
       <c r="L699" s="4"/>
     </row>
-    <row r="700" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="12:12">
       <c r="L700" s="4"/>
     </row>
-    <row r="701" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="12:12">
       <c r="L701" s="4"/>
     </row>
-    <row r="702" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="12:12">
       <c r="L702" s="4"/>
     </row>
-    <row r="703" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="12:12">
       <c r="L703" s="4"/>
     </row>
-    <row r="704" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="12:12">
       <c r="L704" s="4"/>
     </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="12:12">
       <c r="L705" s="4"/>
     </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="12:12">
       <c r="L706" s="4"/>
     </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="12:12">
       <c r="L707" s="4"/>
     </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="12:12">
       <c r="L708" s="4"/>
     </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="12:12">
       <c r="L709" s="4"/>
     </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="12:12">
       <c r="L710" s="4"/>
     </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="12:12">
       <c r="L711" s="4"/>
     </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="12:12">
       <c r="L712" s="4"/>
     </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="12:12">
       <c r="L713" s="4"/>
     </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="12:12">
       <c r="L714" s="4"/>
     </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="12:12">
       <c r="L715" s="4"/>
     </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="12:12">
       <c r="L716" s="4"/>
     </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="12:12">
       <c r="L717" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D512:D516"/>
-    <mergeCell ref="D518:D522"/>
-    <mergeCell ref="D524:D528"/>
-    <mergeCell ref="D492:D494"/>
-    <mergeCell ref="D496:D502"/>
-    <mergeCell ref="D504:D507"/>
-    <mergeCell ref="D509:D510"/>
-    <mergeCell ref="D462:D466"/>
-    <mergeCell ref="D468:D472"/>
-    <mergeCell ref="D474:D477"/>
-    <mergeCell ref="D479:D487"/>
-    <mergeCell ref="D489:D490"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="D445:D447"/>
-    <mergeCell ref="D449:D450"/>
-    <mergeCell ref="D452:D454"/>
-    <mergeCell ref="D456:D460"/>
-    <mergeCell ref="D419:D426"/>
-    <mergeCell ref="D428:D429"/>
-    <mergeCell ref="D431:D433"/>
-    <mergeCell ref="D435:D437"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="D389:D398"/>
-    <mergeCell ref="D400:D408"/>
-    <mergeCell ref="D410:D411"/>
-    <mergeCell ref="D413:D414"/>
-    <mergeCell ref="D416:D417"/>
-    <mergeCell ref="D284:D287"/>
-    <mergeCell ref="D343:D345"/>
-    <mergeCell ref="D347:D349"/>
-    <mergeCell ref="D351:D352"/>
-    <mergeCell ref="D354:D369"/>
-    <mergeCell ref="D294:D309"/>
-    <mergeCell ref="D311:D324"/>
-    <mergeCell ref="D326:D335"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="D253:D270"/>
-    <mergeCell ref="D272:D274"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="D16:D28"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D30:D42"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D55:D68"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="D371:D375"/>
     <mergeCell ref="D377:D387"/>
     <mergeCell ref="D90:D98"/>
@@ -10926,48 +10881,100 @@
     <mergeCell ref="D120:D128"/>
     <mergeCell ref="D130:D148"/>
     <mergeCell ref="D280:D282"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D30:D42"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D55:D68"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="D253:D270"/>
+    <mergeCell ref="D272:D274"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="D284:D287"/>
+    <mergeCell ref="D343:D345"/>
+    <mergeCell ref="D347:D349"/>
+    <mergeCell ref="D351:D352"/>
+    <mergeCell ref="D354:D369"/>
+    <mergeCell ref="D294:D309"/>
+    <mergeCell ref="D311:D324"/>
+    <mergeCell ref="D326:D335"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="D389:D398"/>
+    <mergeCell ref="D400:D408"/>
+    <mergeCell ref="D410:D411"/>
+    <mergeCell ref="D413:D414"/>
+    <mergeCell ref="D416:D417"/>
+    <mergeCell ref="D419:D426"/>
+    <mergeCell ref="D428:D429"/>
+    <mergeCell ref="D431:D433"/>
+    <mergeCell ref="D435:D437"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="D445:D447"/>
+    <mergeCell ref="D449:D450"/>
+    <mergeCell ref="D452:D454"/>
+    <mergeCell ref="D456:D460"/>
+    <mergeCell ref="D462:D466"/>
+    <mergeCell ref="D468:D472"/>
+    <mergeCell ref="D474:D477"/>
+    <mergeCell ref="D479:D487"/>
+    <mergeCell ref="D489:D490"/>
+    <mergeCell ref="D512:D516"/>
+    <mergeCell ref="D518:D522"/>
+    <mergeCell ref="D524:D528"/>
+    <mergeCell ref="D492:D494"/>
+    <mergeCell ref="D496:D502"/>
+    <mergeCell ref="D504:D507"/>
+    <mergeCell ref="D509:D510"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 K2:K7 K9:K469 C9:C643" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 K2:K7 K9:K469 C9:C643">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C644:C713" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C644:C713">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B20 B29:B30 B40 B51 B64 B76 B88 B100:B101 B116:B117 B129:B130 B143 B162 B178:B179 B193 B208 B222 B236 B250 B264 B267 B253 B279:B280 B284:B285 B289:B290 B276 B299 B307 B315 B322 B329 B336:B337 B342:B343 B349 B361 B370:B371 B380 B389:B390 B405 B421 B438:B439 B451:B452 B456 B474:B475 B487 B500 B511:B512 B521 B534 B545 B557 B574 B593 B603 B614 B625 B636 B16 B44 B49 B55 B70 B74 B78 B83 B90 B110 B120 B150 B171 B199 B212 B234 B241 B272 B294 B311 B326 B340 B347 B351 B354 B377 B400 B410 B413 B416 B419 B428 B431 B435 B442 B445 B449 B462 B468 B479 B489 B492 B496 B504 B509 B518 B524" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B20 B29:B30 B40 B51 B64 B76 B88 B100:B101 B116:B117 B129:B130 B143 B162 B178:B179 B193 B208 B222 B236 B250 B264 B267 B253 B279:B280 B284:B285 B289:B290 B276 B299 B307 B315 B322 B329 B336:B337 B342:B343 B349 B361 B370:B371 B380 B389:B390 B405 B421 B438:B439 B451:B452 B456 B474:B475 B487 B500 B511:B512 B521 B534 B545 B557 B574 B593 B603 B614 B625 B636 B16 B44 B49 B55 B70 B74 B78 B83 B90 B110 B120 B150 B171 B199 B212 B234 B241 B272 B294 B311 B326 B340 B347 B351 B354 B377 B400 B410 B413 B416 B419 B428 B431 B435 B442 B445 B449 B462 B468 B479 B489 B492 B496 B504 B509 B518 B524">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7 L9:L717" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7 L9:L717">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K470:K672" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K470:K672">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{8FD29BAC-40D4-456C-AB9C-5EC425D7F6E2}"/>
-    <hyperlink ref="I16" r:id="rId2" xr:uid="{9F5D24ED-B1A3-460F-BCAA-84FDFA46061E}"/>
-    <hyperlink ref="I30" r:id="rId3" xr:uid="{56700463-FE56-4FC1-BFF2-36B26505F73C}"/>
-    <hyperlink ref="I55" r:id="rId4" xr:uid="{46B31C56-59F4-47A4-9F83-867C6B7355D3}"/>
-    <hyperlink ref="I90" r:id="rId5" xr:uid="{4797E734-78E5-4966-822F-FC364638752B}"/>
-    <hyperlink ref="I100" r:id="rId6" xr:uid="{501F5F53-C3FD-454E-A1D3-A98D295E8F02}"/>
-    <hyperlink ref="I110" r:id="rId7" xr:uid="{53094695-5400-471A-951D-3C1A27EA2F8E}"/>
-    <hyperlink ref="I120" r:id="rId8" xr:uid="{FB393CF0-9E34-415D-800F-A9C99B78F3B5}"/>
-    <hyperlink ref="I130" r:id="rId9" xr:uid="{1ABF91D6-3939-45C5-A166-86A1FB2F6B3C}"/>
-    <hyperlink ref="I150" r:id="rId10" xr:uid="{36F2A7C7-220B-4E5C-9B5C-4CB6381717D8}"/>
-    <hyperlink ref="I178" r:id="rId11" xr:uid="{03CB1194-88DC-4922-8B09-EF63B5F9680B}"/>
-    <hyperlink ref="I199" r:id="rId12" xr:uid="{1D2F166C-6969-43FA-AED9-F1F09FDF4408}"/>
-    <hyperlink ref="I212" r:id="rId13" xr:uid="{4F6E885F-6D27-4625-B188-165C26ABCBB0}"/>
-    <hyperlink ref="I241" r:id="rId14" xr:uid="{01DAEB78-57DC-4553-A1CF-2705DBA557E0}"/>
-    <hyperlink ref="I253" r:id="rId15" xr:uid="{7B6DD1F8-79B2-4CFC-B1AE-A743450A5428}"/>
-    <hyperlink ref="I294" r:id="rId16" xr:uid="{6941322E-F94D-43DD-BF4A-45E156698C9C}"/>
-    <hyperlink ref="I311" r:id="rId17" xr:uid="{E6C83C3B-405F-4DA2-9EDB-BC37D56DC922}"/>
-    <hyperlink ref="I326" r:id="rId18" xr:uid="{B0EDD7B4-594C-43B4-9A4F-D7149ED8AD4D}"/>
-    <hyperlink ref="I354" r:id="rId19" xr:uid="{27EB00AC-4D64-414F-BEB1-EEE377466BC7}"/>
-    <hyperlink ref="I377" r:id="rId20" xr:uid="{C3D63705-EAF6-42D2-80DE-6E15BF19CB1C}"/>
-    <hyperlink ref="I389" r:id="rId21" xr:uid="{3854D442-7AF2-40E7-BA40-E5BA2D048BA1}"/>
-    <hyperlink ref="I400" r:id="rId22" xr:uid="{D112225C-9182-4C72-8110-929AD9D06E49}"/>
-    <hyperlink ref="I419" r:id="rId23" xr:uid="{BE8284A3-BD41-4E7A-B451-3F994A2BB3D8}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId2"/>
+    <hyperlink ref="I30" r:id="rId3"/>
+    <hyperlink ref="I55" r:id="rId4"/>
+    <hyperlink ref="I90" r:id="rId5"/>
+    <hyperlink ref="I100" r:id="rId6"/>
+    <hyperlink ref="I110" r:id="rId7"/>
+    <hyperlink ref="I120" r:id="rId8"/>
+    <hyperlink ref="I130" r:id="rId9"/>
+    <hyperlink ref="I150" r:id="rId10"/>
+    <hyperlink ref="I178" r:id="rId11"/>
+    <hyperlink ref="I199" r:id="rId12"/>
+    <hyperlink ref="I212" r:id="rId13"/>
+    <hyperlink ref="I241" r:id="rId14"/>
+    <hyperlink ref="I253" r:id="rId15"/>
+    <hyperlink ref="I294" r:id="rId16"/>
+    <hyperlink ref="I311" r:id="rId17"/>
+    <hyperlink ref="I326" r:id="rId18"/>
+    <hyperlink ref="I354" r:id="rId19"/>
+    <hyperlink ref="I377" r:id="rId20"/>
+    <hyperlink ref="I389" r:id="rId21"/>
+    <hyperlink ref="I400" r:id="rId22"/>
+    <hyperlink ref="I419" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
@@ -10975,16 +10982,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D90210-08DD-42D6-88D1-35269D420095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="180">
       <c r="A1" s="11" t="s">
         <v>341</v>
       </c>

--- a/Test Cases/Poornima/Test Case- Store.xlsx
+++ b/Test Cases/Poornima/Test Case- Store.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160"/>
@@ -11,16 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1727,7 +1718,8 @@
     <t>EQ1-I222</t>
   </si>
   <si>
-    <t>EQ1-I221
+    <t>EQ1-I209
+EQ1-I221
 EQ1-I215</t>
   </si>
 </sst>
@@ -1986,14 +1978,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2296,9 +2280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K253" sqref="K253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4663,9 +4647,7 @@
       <c r="I150" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J150" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="J150" s="11"/>
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="45">
@@ -6175,7 +6157,7 @@
       <c r="I252" s="12"/>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="1:12" ht="30">
+    <row r="253" spans="1:12" ht="45">
       <c r="A253" s="11" t="s">
         <v>233</v>
       </c>
@@ -6199,6 +6181,9 @@
       </c>
       <c r="I253" s="12" t="s">
         <v>24</v>
+      </c>
+      <c r="J253" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="L253" s="4"/>
     </row>
